--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388402913846636</v>
+        <v>0.9388402913846612</v>
       </c>
       <c r="D2">
-        <v>0.9513478499304926</v>
+        <v>0.9513478499304905</v>
       </c>
       <c r="E2">
-        <v>0.9547519759229882</v>
+        <v>0.9547519759229859</v>
       </c>
       <c r="F2">
-        <v>0.9586017138857809</v>
+        <v>0.9586017138857786</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036008662570517</v>
       </c>
       <c r="J2">
-        <v>0.9630179435546992</v>
+        <v>0.9630179435546968</v>
       </c>
       <c r="K2">
-        <v>0.9635293419446092</v>
+        <v>0.9635293419446069</v>
       </c>
       <c r="L2">
-        <v>0.9668798773390063</v>
+        <v>0.966879877339004</v>
       </c>
       <c r="M2">
-        <v>0.9706695954581347</v>
+        <v>0.9706695954581325</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9529661679241626</v>
+        <v>0.9529661679241617</v>
       </c>
       <c r="D3">
-        <v>0.9638200830402787</v>
+        <v>0.963820083040278</v>
       </c>
       <c r="E3">
-        <v>0.9667846365724512</v>
+        <v>0.9667846365724502</v>
       </c>
       <c r="F3">
-        <v>0.9718614388451906</v>
+        <v>0.9718614388451898</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039210698092097</v>
       </c>
       <c r="J3">
-        <v>0.9748266563450508</v>
+        <v>0.9748266563450498</v>
       </c>
       <c r="K3">
-        <v>0.9749378249003138</v>
+        <v>0.9749378249003131</v>
       </c>
       <c r="L3">
-        <v>0.9778609273611867</v>
+        <v>0.9778609273611857</v>
       </c>
       <c r="M3">
-        <v>0.9828674847607803</v>
+        <v>0.9828674847607795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9615862111932101</v>
+        <v>0.9615862111932109</v>
       </c>
       <c r="D4">
-        <v>0.9714406863924359</v>
+        <v>0.9714406863924367</v>
       </c>
       <c r="E4">
-        <v>0.9741382999519146</v>
+        <v>0.9741382999519151</v>
       </c>
       <c r="F4">
-        <v>0.9799542980297031</v>
+        <v>0.979954298029704</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041133970672495</v>
       </c>
       <c r="J4">
-        <v>0.9820263418786668</v>
+        <v>0.9820263418786676</v>
       </c>
       <c r="K4">
-        <v>0.9818964725494156</v>
+        <v>0.9818964725494165</v>
       </c>
       <c r="L4">
-        <v>0.9845592104939308</v>
+        <v>0.9845592104939312</v>
       </c>
       <c r="M4">
-        <v>0.9903008332678425</v>
+        <v>0.9903008332678434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9650987275250066</v>
+        <v>0.9650987275250059</v>
       </c>
       <c r="D5">
-        <v>0.9745479607922318</v>
+        <v>0.974547960792231</v>
       </c>
       <c r="E5">
         <v>0.9771370653906527</v>
@@ -553,16 +553,16 @@
         <v>1.041909941911834</v>
       </c>
       <c r="J5">
-        <v>0.9849583348683077</v>
+        <v>0.9849583348683073</v>
       </c>
       <c r="K5">
-        <v>0.9847310037217349</v>
+        <v>0.9847310037217345</v>
       </c>
       <c r="L5">
-        <v>0.9872877363483177</v>
+        <v>0.9872877363483176</v>
       </c>
       <c r="M5">
-        <v>0.9933269444702961</v>
+        <v>0.993326944470296</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9656823058201655</v>
+        <v>0.9656823058201652</v>
       </c>
       <c r="D6">
-        <v>0.9750643216908312</v>
+        <v>0.975064321690831</v>
       </c>
       <c r="E6">
-        <v>0.9776354126617235</v>
+        <v>0.9776354126617229</v>
       </c>
       <c r="F6">
-        <v>0.9837997377261863</v>
+        <v>0.9837997377261862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042038398889186</v>
+        <v>1.042038398889185</v>
       </c>
       <c r="J6">
-        <v>0.9854453543956196</v>
+        <v>0.9854453543956192</v>
       </c>
       <c r="K6">
-        <v>0.985201875029751</v>
+        <v>0.9852018750297508</v>
       </c>
       <c r="L6">
-        <v>0.9877410002684678</v>
+        <v>0.9877410002684672</v>
       </c>
       <c r="M6">
-        <v>0.9938295318543161</v>
+        <v>0.9938295318543159</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616335674121342</v>
+        <v>0.9616335674121336</v>
       </c>
       <c r="D7">
-        <v>0.9714825714468985</v>
+        <v>0.9714825714468982</v>
       </c>
       <c r="E7">
-        <v>0.9741787210794617</v>
+        <v>0.974178721079461</v>
       </c>
       <c r="F7">
-        <v>0.9799987575252606</v>
+        <v>0.9799987575252604</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041144463626104</v>
       </c>
       <c r="J7">
-        <v>0.9820658786539198</v>
+        <v>0.9820658786539194</v>
       </c>
       <c r="K7">
-        <v>0.9819346923303766</v>
+        <v>0.981934692330376</v>
       </c>
       <c r="L7">
-        <v>0.9845960007727511</v>
+        <v>0.9845960007727504</v>
       </c>
       <c r="M7">
-        <v>0.9903416435330087</v>
+        <v>0.9903416435330085</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437307105748586</v>
+        <v>0.9437307105748591</v>
       </c>
       <c r="D8">
-        <v>0.9556634823863274</v>
+        <v>0.9556634823863277</v>
       </c>
       <c r="E8">
-        <v>0.9589151144921108</v>
+        <v>0.9589151144921112</v>
       </c>
       <c r="F8">
-        <v>0.9631916732889443</v>
+        <v>0.9631916732889451</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037123582086346</v>
       </c>
       <c r="J8">
-        <v>0.9671073642637326</v>
+        <v>0.967107364263733</v>
       </c>
       <c r="K8">
-        <v>0.9674795076816163</v>
+        <v>0.9674795076816168</v>
       </c>
       <c r="L8">
-        <v>0.9706819475437076</v>
+        <v>0.9706819475437083</v>
       </c>
       <c r="M8">
-        <v>0.9748944516000174</v>
+        <v>0.9748944516000181</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.907433498742742</v>
+        <v>0.9074334987427384</v>
       </c>
       <c r="D9">
-        <v>0.9236945561886359</v>
+        <v>0.9236945561886323</v>
       </c>
       <c r="E9">
-        <v>0.9280867309755325</v>
+        <v>0.9280867309755294</v>
       </c>
       <c r="F9">
-        <v>0.9291560039013587</v>
+        <v>0.9291560039013557</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028726668953977</v>
+        <v>1.028726668953976</v>
       </c>
       <c r="J9">
-        <v>0.9367391512226996</v>
+        <v>0.9367391512226957</v>
       </c>
       <c r="K9">
-        <v>0.9381601489964859</v>
+        <v>0.9381601489964824</v>
       </c>
       <c r="L9">
-        <v>0.9424652819011029</v>
+        <v>0.9424652819010999</v>
       </c>
       <c r="M9">
-        <v>0.9435135280061699</v>
+        <v>0.9435135280061669</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785527809048883</v>
+        <v>0.8785527809048866</v>
       </c>
       <c r="D10">
-        <v>0.8983706001594076</v>
+        <v>0.8983706001594063</v>
       </c>
       <c r="E10">
-        <v>0.9036864771842059</v>
+        <v>0.9036864771842047</v>
       </c>
       <c r="F10">
-        <v>0.9021597600445528</v>
+        <v>0.9021597600445515</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021914010091932</v>
+        <v>1.021914010091931</v>
       </c>
       <c r="J10">
-        <v>0.9125771284853005</v>
+        <v>0.9125771284852988</v>
       </c>
       <c r="K10">
-        <v>0.9148540274473761</v>
+        <v>0.9148540274473748</v>
       </c>
       <c r="L10">
-        <v>0.9200435098268727</v>
+        <v>0.9200435098268716</v>
       </c>
       <c r="M10">
-        <v>0.9185528887430873</v>
+        <v>0.9185528887430858</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643997539904368</v>
+        <v>0.8643997539904384</v>
       </c>
       <c r="D11">
-        <v>0.8860018179275266</v>
+        <v>0.8860018179275284</v>
       </c>
       <c r="E11">
-        <v>0.8917763859333852</v>
+        <v>0.8917763859333867</v>
       </c>
       <c r="F11">
-        <v>0.8889711173877384</v>
+        <v>0.8889711173877395</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018557874510343</v>
       </c>
       <c r="J11">
-        <v>0.9007475869196111</v>
+        <v>0.9007475869196131</v>
       </c>
       <c r="K11">
-        <v>0.9034494883362687</v>
+        <v>0.9034494883362706</v>
       </c>
       <c r="L11">
-        <v>0.9090750885229065</v>
+        <v>0.9090750885229082</v>
       </c>
       <c r="M11">
-        <v>0.9063418609537078</v>
+        <v>0.9063418609537089</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8588228881121391</v>
+        <v>0.858822888112142</v>
       </c>
       <c r="D12">
-        <v>0.8811360486025679</v>
+        <v>0.8811360486025703</v>
       </c>
       <c r="E12">
-        <v>0.8870925394297892</v>
+        <v>0.8870925394297917</v>
       </c>
       <c r="F12">
-        <v>0.8837830963108348</v>
+        <v>0.8837830963108374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017234543658762</v>
+        <v>1.017234543658763</v>
       </c>
       <c r="J12">
-        <v>0.8960893652962194</v>
+        <v>0.896089365296222</v>
       </c>
       <c r="K12">
-        <v>0.898959622712467</v>
+        <v>0.8989596227124692</v>
       </c>
       <c r="L12">
-        <v>0.904757620311102</v>
+        <v>0.9047576203111046</v>
       </c>
       <c r="M12">
-        <v>0.9015358782272009</v>
+        <v>0.9015358782272035</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8600351531762997</v>
+        <v>0.8600351531763037</v>
       </c>
       <c r="D13">
-        <v>0.8821933423297323</v>
+        <v>0.8821933423297357</v>
       </c>
       <c r="E13">
-        <v>0.8881102294310577</v>
+        <v>0.8881102294310609</v>
       </c>
       <c r="F13">
-        <v>0.8849103849361504</v>
+        <v>0.8849103849361533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017522204917381</v>
+        <v>1.017522204917382</v>
       </c>
       <c r="J13">
-        <v>0.8971017726373631</v>
+        <v>0.8971017726373668</v>
       </c>
       <c r="K13">
-        <v>0.8999353930800345</v>
+        <v>0.8999353930800378</v>
       </c>
       <c r="L13">
-        <v>0.905695888562229</v>
+        <v>0.905695888562232</v>
       </c>
       <c r="M13">
-        <v>0.9025802679833045</v>
+        <v>0.9025802679833073</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639458319040135</v>
+        <v>0.8639458319040122</v>
       </c>
       <c r="D14">
-        <v>0.8856056010261996</v>
+        <v>0.8856056010261986</v>
       </c>
       <c r="E14">
-        <v>0.8913949508848192</v>
+        <v>0.8913949508848176</v>
       </c>
       <c r="F14">
-        <v>0.8885486487980077</v>
+        <v>0.8885486487980064</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018450168736589</v>
       </c>
       <c r="J14">
-        <v>0.9003683645152625</v>
+        <v>0.9003683645152613</v>
       </c>
       <c r="K14">
-        <v>0.903083950967741</v>
+        <v>0.9030839509677399</v>
       </c>
       <c r="L14">
-        <v>0.9087235712709859</v>
+        <v>0.9087235712709845</v>
       </c>
       <c r="M14">
-        <v>0.9059505527940207</v>
+        <v>0.9059505527940196</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,13 +918,13 @@
         <v>0.8663102250145414</v>
       </c>
       <c r="D15">
-        <v>0.8876697522474869</v>
+        <v>0.8876697522474871</v>
       </c>
       <c r="E15">
-        <v>0.8933821552671786</v>
+        <v>0.8933821552671785</v>
       </c>
       <c r="F15">
-        <v>0.8907495782483953</v>
+        <v>0.890749578248395</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019011164452014</v>
       </c>
       <c r="J15">
-        <v>0.9023437948951393</v>
+        <v>0.9023437948951391</v>
       </c>
       <c r="K15">
-        <v>0.9049881344128741</v>
+        <v>0.9049881344128738</v>
       </c>
       <c r="L15">
-        <v>0.9105547494961697</v>
+        <v>0.9105547494961694</v>
       </c>
       <c r="M15">
-        <v>0.9079890452325418</v>
+        <v>0.9079890452325414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.879451889780381</v>
+        <v>0.8794518897803821</v>
       </c>
       <c r="D16">
-        <v>0.8991573166826986</v>
+        <v>0.8991573166826999</v>
       </c>
       <c r="E16">
-        <v>0.9044441944602823</v>
+        <v>0.9044441944602836</v>
       </c>
       <c r="F16">
-        <v>0.9029986151299831</v>
+        <v>0.9029986151299838</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.022126996040626</v>
       </c>
       <c r="J16">
-        <v>0.9133289565441893</v>
+        <v>0.9133289565441904</v>
       </c>
       <c r="K16">
-        <v>0.9155789710147149</v>
+        <v>0.9155789710147159</v>
       </c>
       <c r="L16">
-        <v>0.9207408125701728</v>
+        <v>0.9207408125701738</v>
       </c>
       <c r="M16">
-        <v>0.9193292267440916</v>
+        <v>0.9193292267440921</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8872122795963155</v>
+        <v>0.8872122795963177</v>
       </c>
       <c r="D17">
-        <v>0.9059522094181474</v>
+        <v>0.9059522094181492</v>
       </c>
       <c r="E17">
-        <v>0.9109894596782581</v>
+        <v>0.9109894596782596</v>
       </c>
       <c r="F17">
-        <v>0.9102435493327437</v>
+        <v>0.9102435493327451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023963563305282</v>
+        <v>1.023963563305283</v>
       </c>
       <c r="J17">
-        <v>0.9198194358013527</v>
+        <v>0.9198194358013546</v>
       </c>
       <c r="K17">
-        <v>0.9218380091723085</v>
+        <v>0.9218380091723105</v>
       </c>
       <c r="L17">
-        <v>0.9267615831325259</v>
+        <v>0.9267615831325277</v>
       </c>
       <c r="M17">
-        <v>0.9260324000869623</v>
+        <v>0.9260324000869639</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8915859232770947</v>
+        <v>0.891585923277097</v>
       </c>
       <c r="D18">
-        <v>0.9097852605920432</v>
+        <v>0.9097852605920453</v>
       </c>
       <c r="E18">
-        <v>0.9146823426228066</v>
+        <v>0.914682342622809</v>
       </c>
       <c r="F18">
-        <v>0.9143301407940855</v>
+        <v>0.9143301407940877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024996925772042</v>
+        <v>1.024996925772043</v>
       </c>
       <c r="J18">
-        <v>0.9234782588566457</v>
+        <v>0.923478258856648</v>
       </c>
       <c r="K18">
-        <v>0.9253668889084458</v>
+        <v>0.9253668889084482</v>
       </c>
       <c r="L18">
-        <v>0.9301564133412824</v>
+        <v>0.9301564133412848</v>
       </c>
       <c r="M18">
-        <v>0.9298118960550502</v>
+        <v>0.9298118960550524</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930530147552307</v>
+        <v>0.8930530147552324</v>
       </c>
       <c r="D19">
-        <v>0.9110715770180358</v>
+        <v>0.9110715770180371</v>
       </c>
       <c r="E19">
-        <v>0.9159217228809037</v>
+        <v>0.9159217228809055</v>
       </c>
       <c r="F19">
-        <v>0.9157014693586865</v>
+        <v>0.9157014693586882</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025343227273485</v>
       </c>
       <c r="J19">
-        <v>0.9247056894716675</v>
+        <v>0.9247056894716691</v>
       </c>
       <c r="K19">
-        <v>0.9265508139768516</v>
+        <v>0.9265508139768528</v>
       </c>
       <c r="L19">
-        <v>0.9312954096645747</v>
+        <v>0.9312954096645762</v>
       </c>
       <c r="M19">
-        <v>0.9310799171981623</v>
+        <v>0.9310799171981641</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863958989434547</v>
+        <v>0.8863958989434548</v>
       </c>
       <c r="D20">
-        <v>0.9052370155064496</v>
+        <v>0.9052370155064495</v>
       </c>
       <c r="E20">
         <v>0.9103004703374372</v>
       </c>
       <c r="F20">
-        <v>0.9094810171744809</v>
+        <v>0.909481017174481</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.023770527480992</v>
       </c>
       <c r="J20">
-        <v>0.9191365472766179</v>
+        <v>0.9191365472766176</v>
       </c>
       <c r="K20">
-        <v>0.92117941586809</v>
+        <v>0.9211794158680898</v>
       </c>
       <c r="L20">
-        <v>0.9261280298394556</v>
+        <v>0.9261280298394554</v>
       </c>
       <c r="M20">
         <v>0.9253270465053398</v>
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8628038128616442</v>
+        <v>0.8628038128616424</v>
       </c>
       <c r="D21">
-        <v>0.8846088972529296</v>
+        <v>0.884608897252928</v>
       </c>
       <c r="E21">
-        <v>0.8904354565415228</v>
+        <v>0.8904354565415212</v>
       </c>
       <c r="F21">
-        <v>0.8874859150306783</v>
+        <v>0.8874859150306763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018179185827229</v>
+        <v>1.018179185827228</v>
       </c>
       <c r="J21">
-        <v>0.8994143369928554</v>
+        <v>0.8994143369928537</v>
       </c>
       <c r="K21">
-        <v>0.9021643678385174</v>
+        <v>0.9021643678385159</v>
       </c>
       <c r="L21">
-        <v>0.9078392705408717</v>
+        <v>0.90783927054087</v>
       </c>
       <c r="M21">
-        <v>0.9049661639708767</v>
+        <v>0.9049661639708748</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8460546865404787</v>
+        <v>0.8460546865404751</v>
       </c>
       <c r="D22">
-        <v>0.8700138897339614</v>
+        <v>0.8700138897339584</v>
       </c>
       <c r="E22">
-        <v>0.8763895380433924</v>
+        <v>0.8763895380433893</v>
       </c>
       <c r="F22">
-        <v>0.8719260539878018</v>
+        <v>0.8719260539877989</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014205841630239</v>
+        <v>1.014205841630238</v>
       </c>
       <c r="J22">
-        <v>0.8854324968832967</v>
+        <v>0.8854324968832933</v>
       </c>
       <c r="K22">
-        <v>0.8886899499855309</v>
+        <v>0.8886899499855277</v>
       </c>
       <c r="L22">
-        <v>0.8948838983077507</v>
+        <v>0.8948838983077479</v>
       </c>
       <c r="M22">
-        <v>0.8905472374526976</v>
+        <v>0.8905472374526953</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8551496265941042</v>
+        <v>0.8551496265941048</v>
       </c>
       <c r="D23">
-        <v>0.8779337307659255</v>
+        <v>0.877933730765926</v>
       </c>
       <c r="E23">
-        <v>0.8840104253017341</v>
+        <v>0.8840104253017347</v>
       </c>
       <c r="F23">
-        <v>0.8803688980573121</v>
+        <v>0.8803688980573122</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01636295693153</v>
       </c>
       <c r="J23">
-        <v>0.8930222930076126</v>
+        <v>0.8930222930076133</v>
       </c>
       <c r="K23">
-        <v>0.8960036986456882</v>
+        <v>0.8960036986456886</v>
       </c>
       <c r="L23">
-        <v>0.9019154254161432</v>
+        <v>0.9019154254161437</v>
       </c>
       <c r="M23">
-        <v>0.8983723846694323</v>
+        <v>0.8983723846694327</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8867652535883218</v>
+        <v>0.8867652535883219</v>
       </c>
       <c r="D24">
-        <v>0.9055605792896813</v>
+        <v>0.9055605792896815</v>
       </c>
       <c r="E24">
-        <v>0.91061217679477</v>
+        <v>0.9106121767947704</v>
       </c>
       <c r="F24">
-        <v>0.9098259985324418</v>
+        <v>0.9098259985324424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023857868017211</v>
+        <v>1.023857868017212</v>
       </c>
       <c r="J24">
-        <v>0.9194455034785042</v>
+        <v>0.9194455034785044</v>
       </c>
       <c r="K24">
-        <v>0.9214773786533016</v>
+        <v>0.9214773786533019</v>
       </c>
       <c r="L24">
         <v>0.9264146630598256</v>
       </c>
       <c r="M24">
-        <v>0.9256461641176944</v>
+        <v>0.9256461641176947</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9175063669410131</v>
+        <v>0.9175063669410106</v>
       </c>
       <c r="D25">
-        <v>0.9325513883631824</v>
+        <v>0.9325513883631802</v>
       </c>
       <c r="E25">
-        <v>0.9366249410507008</v>
+        <v>0.9366249410506987</v>
       </c>
       <c r="F25">
-        <v>0.9385922709634267</v>
+        <v>0.9385922709634241</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031081332974219</v>
       </c>
       <c r="J25">
-        <v>0.9451689266061765</v>
+        <v>0.945168926606174</v>
       </c>
       <c r="K25">
-        <v>0.9462955289952253</v>
+        <v>0.9462955289952231</v>
       </c>
       <c r="L25">
-        <v>0.9502937798575165</v>
+        <v>0.9502937798575144</v>
       </c>
       <c r="M25">
-        <v>0.9522250473414547</v>
+        <v>0.9522250473414524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388402913846612</v>
+        <v>0.9388402913846636</v>
       </c>
       <c r="D2">
-        <v>0.9513478499304905</v>
+        <v>0.9513478499304926</v>
       </c>
       <c r="E2">
-        <v>0.9547519759229859</v>
+        <v>0.9547519759229882</v>
       </c>
       <c r="F2">
-        <v>0.9586017138857786</v>
+        <v>0.9586017138857809</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.036008662570517</v>
       </c>
       <c r="J2">
-        <v>0.9630179435546968</v>
+        <v>0.9630179435546992</v>
       </c>
       <c r="K2">
-        <v>0.9635293419446069</v>
+        <v>0.9635293419446092</v>
       </c>
       <c r="L2">
-        <v>0.966879877339004</v>
+        <v>0.9668798773390063</v>
       </c>
       <c r="M2">
-        <v>0.9706695954581325</v>
+        <v>0.9706695954581347</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9529661679241617</v>
+        <v>0.9529661679241626</v>
       </c>
       <c r="D3">
-        <v>0.963820083040278</v>
+        <v>0.9638200830402787</v>
       </c>
       <c r="E3">
-        <v>0.9667846365724502</v>
+        <v>0.9667846365724512</v>
       </c>
       <c r="F3">
-        <v>0.9718614388451898</v>
+        <v>0.9718614388451906</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039210698092097</v>
       </c>
       <c r="J3">
-        <v>0.9748266563450498</v>
+        <v>0.9748266563450508</v>
       </c>
       <c r="K3">
-        <v>0.9749378249003131</v>
+        <v>0.9749378249003138</v>
       </c>
       <c r="L3">
-        <v>0.9778609273611857</v>
+        <v>0.9778609273611867</v>
       </c>
       <c r="M3">
-        <v>0.9828674847607795</v>
+        <v>0.9828674847607803</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9615862111932109</v>
+        <v>0.9615862111932101</v>
       </c>
       <c r="D4">
-        <v>0.9714406863924367</v>
+        <v>0.9714406863924359</v>
       </c>
       <c r="E4">
-        <v>0.9741382999519151</v>
+        <v>0.9741382999519146</v>
       </c>
       <c r="F4">
-        <v>0.979954298029704</v>
+        <v>0.9799542980297031</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041133970672495</v>
       </c>
       <c r="J4">
-        <v>0.9820263418786676</v>
+        <v>0.9820263418786668</v>
       </c>
       <c r="K4">
-        <v>0.9818964725494165</v>
+        <v>0.9818964725494156</v>
       </c>
       <c r="L4">
-        <v>0.9845592104939312</v>
+        <v>0.9845592104939308</v>
       </c>
       <c r="M4">
-        <v>0.9903008332678434</v>
+        <v>0.9903008332678425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9650987275250059</v>
+        <v>0.9650987275250066</v>
       </c>
       <c r="D5">
-        <v>0.974547960792231</v>
+        <v>0.9745479607922318</v>
       </c>
       <c r="E5">
         <v>0.9771370653906527</v>
@@ -553,16 +553,16 @@
         <v>1.041909941911834</v>
       </c>
       <c r="J5">
-        <v>0.9849583348683073</v>
+        <v>0.9849583348683077</v>
       </c>
       <c r="K5">
-        <v>0.9847310037217345</v>
+        <v>0.9847310037217349</v>
       </c>
       <c r="L5">
-        <v>0.9872877363483176</v>
+        <v>0.9872877363483177</v>
       </c>
       <c r="M5">
-        <v>0.993326944470296</v>
+        <v>0.9933269444702961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9656823058201652</v>
+        <v>0.9656823058201655</v>
       </c>
       <c r="D6">
-        <v>0.975064321690831</v>
+        <v>0.9750643216908312</v>
       </c>
       <c r="E6">
-        <v>0.9776354126617229</v>
+        <v>0.9776354126617235</v>
       </c>
       <c r="F6">
-        <v>0.9837997377261862</v>
+        <v>0.9837997377261863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042038398889185</v>
+        <v>1.042038398889186</v>
       </c>
       <c r="J6">
-        <v>0.9854453543956192</v>
+        <v>0.9854453543956196</v>
       </c>
       <c r="K6">
-        <v>0.9852018750297508</v>
+        <v>0.985201875029751</v>
       </c>
       <c r="L6">
-        <v>0.9877410002684672</v>
+        <v>0.9877410002684678</v>
       </c>
       <c r="M6">
-        <v>0.9938295318543159</v>
+        <v>0.9938295318543161</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616335674121336</v>
+        <v>0.9616335674121342</v>
       </c>
       <c r="D7">
-        <v>0.9714825714468982</v>
+        <v>0.9714825714468985</v>
       </c>
       <c r="E7">
-        <v>0.974178721079461</v>
+        <v>0.9741787210794617</v>
       </c>
       <c r="F7">
-        <v>0.9799987575252604</v>
+        <v>0.9799987575252606</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041144463626104</v>
       </c>
       <c r="J7">
-        <v>0.9820658786539194</v>
+        <v>0.9820658786539198</v>
       </c>
       <c r="K7">
-        <v>0.981934692330376</v>
+        <v>0.9819346923303766</v>
       </c>
       <c r="L7">
-        <v>0.9845960007727504</v>
+        <v>0.9845960007727511</v>
       </c>
       <c r="M7">
-        <v>0.9903416435330085</v>
+        <v>0.9903416435330087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437307105748591</v>
+        <v>0.9437307105748586</v>
       </c>
       <c r="D8">
-        <v>0.9556634823863277</v>
+        <v>0.9556634823863274</v>
       </c>
       <c r="E8">
-        <v>0.9589151144921112</v>
+        <v>0.9589151144921108</v>
       </c>
       <c r="F8">
-        <v>0.9631916732889451</v>
+        <v>0.9631916732889443</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037123582086346</v>
       </c>
       <c r="J8">
-        <v>0.967107364263733</v>
+        <v>0.9671073642637326</v>
       </c>
       <c r="K8">
-        <v>0.9674795076816168</v>
+        <v>0.9674795076816163</v>
       </c>
       <c r="L8">
-        <v>0.9706819475437083</v>
+        <v>0.9706819475437076</v>
       </c>
       <c r="M8">
-        <v>0.9748944516000181</v>
+        <v>0.9748944516000174</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9074334987427384</v>
+        <v>0.907433498742742</v>
       </c>
       <c r="D9">
-        <v>0.9236945561886323</v>
+        <v>0.9236945561886359</v>
       </c>
       <c r="E9">
-        <v>0.9280867309755294</v>
+        <v>0.9280867309755325</v>
       </c>
       <c r="F9">
-        <v>0.9291560039013557</v>
+        <v>0.9291560039013587</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028726668953976</v>
+        <v>1.028726668953977</v>
       </c>
       <c r="J9">
-        <v>0.9367391512226957</v>
+        <v>0.9367391512226996</v>
       </c>
       <c r="K9">
-        <v>0.9381601489964824</v>
+        <v>0.9381601489964859</v>
       </c>
       <c r="L9">
-        <v>0.9424652819010999</v>
+        <v>0.9424652819011029</v>
       </c>
       <c r="M9">
-        <v>0.9435135280061669</v>
+        <v>0.9435135280061699</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785527809048866</v>
+        <v>0.8785527809048883</v>
       </c>
       <c r="D10">
-        <v>0.8983706001594063</v>
+        <v>0.8983706001594076</v>
       </c>
       <c r="E10">
-        <v>0.9036864771842047</v>
+        <v>0.9036864771842059</v>
       </c>
       <c r="F10">
-        <v>0.9021597600445515</v>
+        <v>0.9021597600445528</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021914010091931</v>
+        <v>1.021914010091932</v>
       </c>
       <c r="J10">
-        <v>0.9125771284852988</v>
+        <v>0.9125771284853005</v>
       </c>
       <c r="K10">
-        <v>0.9148540274473748</v>
+        <v>0.9148540274473761</v>
       </c>
       <c r="L10">
-        <v>0.9200435098268716</v>
+        <v>0.9200435098268727</v>
       </c>
       <c r="M10">
-        <v>0.9185528887430858</v>
+        <v>0.9185528887430873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643997539904384</v>
+        <v>0.8643997539904368</v>
       </c>
       <c r="D11">
-        <v>0.8860018179275284</v>
+        <v>0.8860018179275266</v>
       </c>
       <c r="E11">
-        <v>0.8917763859333867</v>
+        <v>0.8917763859333852</v>
       </c>
       <c r="F11">
-        <v>0.8889711173877395</v>
+        <v>0.8889711173877384</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018557874510343</v>
       </c>
       <c r="J11">
-        <v>0.9007475869196131</v>
+        <v>0.9007475869196111</v>
       </c>
       <c r="K11">
-        <v>0.9034494883362706</v>
+        <v>0.9034494883362687</v>
       </c>
       <c r="L11">
-        <v>0.9090750885229082</v>
+        <v>0.9090750885229065</v>
       </c>
       <c r="M11">
-        <v>0.9063418609537089</v>
+        <v>0.9063418609537078</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.858822888112142</v>
+        <v>0.8588228881121391</v>
       </c>
       <c r="D12">
-        <v>0.8811360486025703</v>
+        <v>0.8811360486025679</v>
       </c>
       <c r="E12">
-        <v>0.8870925394297917</v>
+        <v>0.8870925394297892</v>
       </c>
       <c r="F12">
-        <v>0.8837830963108374</v>
+        <v>0.8837830963108348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017234543658763</v>
+        <v>1.017234543658762</v>
       </c>
       <c r="J12">
-        <v>0.896089365296222</v>
+        <v>0.8960893652962194</v>
       </c>
       <c r="K12">
-        <v>0.8989596227124692</v>
+        <v>0.898959622712467</v>
       </c>
       <c r="L12">
-        <v>0.9047576203111046</v>
+        <v>0.904757620311102</v>
       </c>
       <c r="M12">
-        <v>0.9015358782272035</v>
+        <v>0.9015358782272009</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8600351531763037</v>
+        <v>0.8600351531762997</v>
       </c>
       <c r="D13">
-        <v>0.8821933423297357</v>
+        <v>0.8821933423297323</v>
       </c>
       <c r="E13">
-        <v>0.8881102294310609</v>
+        <v>0.8881102294310577</v>
       </c>
       <c r="F13">
-        <v>0.8849103849361533</v>
+        <v>0.8849103849361504</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017522204917382</v>
+        <v>1.017522204917381</v>
       </c>
       <c r="J13">
-        <v>0.8971017726373668</v>
+        <v>0.8971017726373631</v>
       </c>
       <c r="K13">
-        <v>0.8999353930800378</v>
+        <v>0.8999353930800345</v>
       </c>
       <c r="L13">
-        <v>0.905695888562232</v>
+        <v>0.905695888562229</v>
       </c>
       <c r="M13">
-        <v>0.9025802679833073</v>
+        <v>0.9025802679833045</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639458319040122</v>
+        <v>0.8639458319040135</v>
       </c>
       <c r="D14">
-        <v>0.8856056010261986</v>
+        <v>0.8856056010261996</v>
       </c>
       <c r="E14">
-        <v>0.8913949508848176</v>
+        <v>0.8913949508848192</v>
       </c>
       <c r="F14">
-        <v>0.8885486487980064</v>
+        <v>0.8885486487980077</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018450168736589</v>
       </c>
       <c r="J14">
-        <v>0.9003683645152613</v>
+        <v>0.9003683645152625</v>
       </c>
       <c r="K14">
-        <v>0.9030839509677399</v>
+        <v>0.903083950967741</v>
       </c>
       <c r="L14">
-        <v>0.9087235712709845</v>
+        <v>0.9087235712709859</v>
       </c>
       <c r="M14">
-        <v>0.9059505527940196</v>
+        <v>0.9059505527940207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,13 +918,13 @@
         <v>0.8663102250145414</v>
       </c>
       <c r="D15">
-        <v>0.8876697522474871</v>
+        <v>0.8876697522474869</v>
       </c>
       <c r="E15">
-        <v>0.8933821552671785</v>
+        <v>0.8933821552671786</v>
       </c>
       <c r="F15">
-        <v>0.890749578248395</v>
+        <v>0.8907495782483953</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019011164452014</v>
       </c>
       <c r="J15">
-        <v>0.9023437948951391</v>
+        <v>0.9023437948951393</v>
       </c>
       <c r="K15">
-        <v>0.9049881344128738</v>
+        <v>0.9049881344128741</v>
       </c>
       <c r="L15">
-        <v>0.9105547494961694</v>
+        <v>0.9105547494961697</v>
       </c>
       <c r="M15">
-        <v>0.9079890452325414</v>
+        <v>0.9079890452325418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8794518897803821</v>
+        <v>0.879451889780381</v>
       </c>
       <c r="D16">
-        <v>0.8991573166826999</v>
+        <v>0.8991573166826986</v>
       </c>
       <c r="E16">
-        <v>0.9044441944602836</v>
+        <v>0.9044441944602823</v>
       </c>
       <c r="F16">
-        <v>0.9029986151299838</v>
+        <v>0.9029986151299831</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.022126996040626</v>
       </c>
       <c r="J16">
-        <v>0.9133289565441904</v>
+        <v>0.9133289565441893</v>
       </c>
       <c r="K16">
-        <v>0.9155789710147159</v>
+        <v>0.9155789710147149</v>
       </c>
       <c r="L16">
-        <v>0.9207408125701738</v>
+        <v>0.9207408125701728</v>
       </c>
       <c r="M16">
-        <v>0.9193292267440921</v>
+        <v>0.9193292267440916</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8872122795963177</v>
+        <v>0.8872122795963155</v>
       </c>
       <c r="D17">
-        <v>0.9059522094181492</v>
+        <v>0.9059522094181474</v>
       </c>
       <c r="E17">
-        <v>0.9109894596782596</v>
+        <v>0.9109894596782581</v>
       </c>
       <c r="F17">
-        <v>0.9102435493327451</v>
+        <v>0.9102435493327437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023963563305283</v>
+        <v>1.023963563305282</v>
       </c>
       <c r="J17">
-        <v>0.9198194358013546</v>
+        <v>0.9198194358013527</v>
       </c>
       <c r="K17">
-        <v>0.9218380091723105</v>
+        <v>0.9218380091723085</v>
       </c>
       <c r="L17">
-        <v>0.9267615831325277</v>
+        <v>0.9267615831325259</v>
       </c>
       <c r="M17">
-        <v>0.9260324000869639</v>
+        <v>0.9260324000869623</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.891585923277097</v>
+        <v>0.8915859232770947</v>
       </c>
       <c r="D18">
-        <v>0.9097852605920453</v>
+        <v>0.9097852605920432</v>
       </c>
       <c r="E18">
-        <v>0.914682342622809</v>
+        <v>0.9146823426228066</v>
       </c>
       <c r="F18">
-        <v>0.9143301407940877</v>
+        <v>0.9143301407940855</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024996925772043</v>
+        <v>1.024996925772042</v>
       </c>
       <c r="J18">
-        <v>0.923478258856648</v>
+        <v>0.9234782588566457</v>
       </c>
       <c r="K18">
-        <v>0.9253668889084482</v>
+        <v>0.9253668889084458</v>
       </c>
       <c r="L18">
-        <v>0.9301564133412848</v>
+        <v>0.9301564133412824</v>
       </c>
       <c r="M18">
-        <v>0.9298118960550524</v>
+        <v>0.9298118960550502</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930530147552324</v>
+        <v>0.8930530147552307</v>
       </c>
       <c r="D19">
-        <v>0.9110715770180371</v>
+        <v>0.9110715770180358</v>
       </c>
       <c r="E19">
-        <v>0.9159217228809055</v>
+        <v>0.9159217228809037</v>
       </c>
       <c r="F19">
-        <v>0.9157014693586882</v>
+        <v>0.9157014693586865</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025343227273485</v>
       </c>
       <c r="J19">
-        <v>0.9247056894716691</v>
+        <v>0.9247056894716675</v>
       </c>
       <c r="K19">
-        <v>0.9265508139768528</v>
+        <v>0.9265508139768516</v>
       </c>
       <c r="L19">
-        <v>0.9312954096645762</v>
+        <v>0.9312954096645747</v>
       </c>
       <c r="M19">
-        <v>0.9310799171981641</v>
+        <v>0.9310799171981623</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863958989434548</v>
+        <v>0.8863958989434547</v>
       </c>
       <c r="D20">
-        <v>0.9052370155064495</v>
+        <v>0.9052370155064496</v>
       </c>
       <c r="E20">
         <v>0.9103004703374372</v>
       </c>
       <c r="F20">
-        <v>0.909481017174481</v>
+        <v>0.9094810171744809</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.023770527480992</v>
       </c>
       <c r="J20">
-        <v>0.9191365472766176</v>
+        <v>0.9191365472766179</v>
       </c>
       <c r="K20">
-        <v>0.9211794158680898</v>
+        <v>0.92117941586809</v>
       </c>
       <c r="L20">
-        <v>0.9261280298394554</v>
+        <v>0.9261280298394556</v>
       </c>
       <c r="M20">
         <v>0.9253270465053398</v>
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8628038128616424</v>
+        <v>0.8628038128616442</v>
       </c>
       <c r="D21">
-        <v>0.884608897252928</v>
+        <v>0.8846088972529296</v>
       </c>
       <c r="E21">
-        <v>0.8904354565415212</v>
+        <v>0.8904354565415228</v>
       </c>
       <c r="F21">
-        <v>0.8874859150306763</v>
+        <v>0.8874859150306783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018179185827228</v>
+        <v>1.018179185827229</v>
       </c>
       <c r="J21">
-        <v>0.8994143369928537</v>
+        <v>0.8994143369928554</v>
       </c>
       <c r="K21">
-        <v>0.9021643678385159</v>
+        <v>0.9021643678385174</v>
       </c>
       <c r="L21">
-        <v>0.90783927054087</v>
+        <v>0.9078392705408717</v>
       </c>
       <c r="M21">
-        <v>0.9049661639708748</v>
+        <v>0.9049661639708767</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8460546865404751</v>
+        <v>0.8460546865404787</v>
       </c>
       <c r="D22">
-        <v>0.8700138897339584</v>
+        <v>0.8700138897339614</v>
       </c>
       <c r="E22">
-        <v>0.8763895380433893</v>
+        <v>0.8763895380433924</v>
       </c>
       <c r="F22">
-        <v>0.8719260539877989</v>
+        <v>0.8719260539878018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014205841630238</v>
+        <v>1.014205841630239</v>
       </c>
       <c r="J22">
-        <v>0.8854324968832933</v>
+        <v>0.8854324968832967</v>
       </c>
       <c r="K22">
-        <v>0.8886899499855277</v>
+        <v>0.8886899499855309</v>
       </c>
       <c r="L22">
-        <v>0.8948838983077479</v>
+        <v>0.8948838983077507</v>
       </c>
       <c r="M22">
-        <v>0.8905472374526953</v>
+        <v>0.8905472374526976</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8551496265941048</v>
+        <v>0.8551496265941042</v>
       </c>
       <c r="D23">
-        <v>0.877933730765926</v>
+        <v>0.8779337307659255</v>
       </c>
       <c r="E23">
-        <v>0.8840104253017347</v>
+        <v>0.8840104253017341</v>
       </c>
       <c r="F23">
-        <v>0.8803688980573122</v>
+        <v>0.8803688980573121</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01636295693153</v>
       </c>
       <c r="J23">
-        <v>0.8930222930076133</v>
+        <v>0.8930222930076126</v>
       </c>
       <c r="K23">
-        <v>0.8960036986456886</v>
+        <v>0.8960036986456882</v>
       </c>
       <c r="L23">
-        <v>0.9019154254161437</v>
+        <v>0.9019154254161432</v>
       </c>
       <c r="M23">
-        <v>0.8983723846694327</v>
+        <v>0.8983723846694323</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8867652535883219</v>
+        <v>0.8867652535883218</v>
       </c>
       <c r="D24">
-        <v>0.9055605792896815</v>
+        <v>0.9055605792896813</v>
       </c>
       <c r="E24">
-        <v>0.9106121767947704</v>
+        <v>0.91061217679477</v>
       </c>
       <c r="F24">
-        <v>0.9098259985324424</v>
+        <v>0.9098259985324418</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023857868017212</v>
+        <v>1.023857868017211</v>
       </c>
       <c r="J24">
-        <v>0.9194455034785044</v>
+        <v>0.9194455034785042</v>
       </c>
       <c r="K24">
-        <v>0.9214773786533019</v>
+        <v>0.9214773786533016</v>
       </c>
       <c r="L24">
         <v>0.9264146630598256</v>
       </c>
       <c r="M24">
-        <v>0.9256461641176947</v>
+        <v>0.9256461641176944</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9175063669410106</v>
+        <v>0.9175063669410131</v>
       </c>
       <c r="D25">
-        <v>0.9325513883631802</v>
+        <v>0.9325513883631824</v>
       </c>
       <c r="E25">
-        <v>0.9366249410506987</v>
+        <v>0.9366249410507008</v>
       </c>
       <c r="F25">
-        <v>0.9385922709634241</v>
+        <v>0.9385922709634267</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031081332974219</v>
       </c>
       <c r="J25">
-        <v>0.945168926606174</v>
+        <v>0.9451689266061765</v>
       </c>
       <c r="K25">
-        <v>0.9462955289952231</v>
+        <v>0.9462955289952253</v>
       </c>
       <c r="L25">
-        <v>0.9502937798575144</v>
+        <v>0.9502937798575165</v>
       </c>
       <c r="M25">
-        <v>0.9522250473414524</v>
+        <v>0.9522250473414547</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388402913846636</v>
+        <v>0.9420903806466964</v>
       </c>
       <c r="D2">
-        <v>0.9513478499304926</v>
+        <v>0.9543296614658761</v>
       </c>
       <c r="E2">
-        <v>0.9547519759229882</v>
+        <v>0.9575299660373949</v>
       </c>
       <c r="F2">
-        <v>0.9586017138857809</v>
+        <v>0.9612070586137668</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036008662570517</v>
+        <v>1.03666017204928</v>
       </c>
       <c r="J2">
-        <v>0.9630179435546992</v>
+        <v>0.9661527668825068</v>
       </c>
       <c r="K2">
-        <v>0.9635293419446092</v>
+        <v>0.9664641847346761</v>
       </c>
       <c r="L2">
-        <v>0.9668798773390063</v>
+        <v>0.9696144948806127</v>
       </c>
       <c r="M2">
-        <v>0.9706695954581347</v>
+        <v>0.9732346694591204</v>
+      </c>
+      <c r="N2">
+        <v>0.9675248146307515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9529661679241626</v>
+        <v>0.9561613592907886</v>
       </c>
       <c r="D3">
-        <v>0.9638200830402787</v>
+        <v>0.9667578629725989</v>
       </c>
       <c r="E3">
-        <v>0.9667846365724512</v>
+        <v>0.9695199597252403</v>
       </c>
       <c r="F3">
-        <v>0.9718614388451906</v>
+        <v>0.9744159912595287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039210698092097</v>
+        <v>1.039850397780585</v>
       </c>
       <c r="J3">
-        <v>0.9748266563450508</v>
+        <v>0.9779228964722769</v>
       </c>
       <c r="K3">
-        <v>0.9749378249003138</v>
+        <v>0.9778345266803942</v>
       </c>
       <c r="L3">
-        <v>0.9778609273611867</v>
+        <v>0.9805582881271315</v>
       </c>
       <c r="M3">
-        <v>0.9828674847607803</v>
+        <v>0.9853870398272165</v>
+      </c>
+      <c r="N3">
+        <v>0.9793116591545915</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9615862111932101</v>
+        <v>0.9647516551790754</v>
       </c>
       <c r="D4">
-        <v>0.9714406863924359</v>
+        <v>0.9743547297868983</v>
       </c>
       <c r="E4">
-        <v>0.9741382999519146</v>
+        <v>0.9768505756815061</v>
       </c>
       <c r="F4">
-        <v>0.9799542980297031</v>
+        <v>0.9824811331343832</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041133970672495</v>
+        <v>1.041767310583498</v>
       </c>
       <c r="J4">
-        <v>0.9820263418786668</v>
+        <v>0.98510211258139</v>
       </c>
       <c r="K4">
-        <v>0.9818964725494156</v>
+        <v>0.984772852720704</v>
       </c>
       <c r="L4">
-        <v>0.9845592104939308</v>
+        <v>0.9872366637672831</v>
       </c>
       <c r="M4">
-        <v>0.9903008332678425</v>
+        <v>0.9927956974707555</v>
+      </c>
+      <c r="N4">
+        <v>0.9865010705740473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9650987275250066</v>
+        <v>0.9682528137125096</v>
       </c>
       <c r="D5">
-        <v>0.9745479607922318</v>
+        <v>0.977452970919352</v>
       </c>
       <c r="E5">
-        <v>0.9771370653906527</v>
+        <v>0.9798405597174208</v>
       </c>
       <c r="F5">
-        <v>0.9832518860903752</v>
+        <v>0.9857680965917194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041909941911834</v>
+        <v>1.042540866243048</v>
       </c>
       <c r="J5">
-        <v>0.9849583348683077</v>
+        <v>0.9880263930906692</v>
       </c>
       <c r="K5">
-        <v>0.9847310037217349</v>
+        <v>0.987599706687855</v>
       </c>
       <c r="L5">
-        <v>0.9872877363483177</v>
+        <v>0.9899576558160933</v>
       </c>
       <c r="M5">
-        <v>0.9933269444702961</v>
+        <v>0.9958123795198265</v>
+      </c>
+      <c r="N5">
+        <v>0.9894295038970693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9656823058201655</v>
+        <v>0.9688345465784061</v>
       </c>
       <c r="D6">
-        <v>0.9750643216908312</v>
+        <v>0.9779678658374859</v>
       </c>
       <c r="E6">
-        <v>0.9776354126617235</v>
+        <v>0.9803374812863022</v>
       </c>
       <c r="F6">
-        <v>0.9837997377261863</v>
+        <v>0.986314219571952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042038398889186</v>
+        <v>1.042668931573884</v>
       </c>
       <c r="J6">
-        <v>0.9854453543956196</v>
+        <v>0.9885121655411133</v>
       </c>
       <c r="K6">
-        <v>0.985201875029751</v>
+        <v>0.988069335416882</v>
       </c>
       <c r="L6">
-        <v>0.9877410002684678</v>
+        <v>0.9904096996074525</v>
       </c>
       <c r="M6">
-        <v>0.9938295318543161</v>
+        <v>0.9963134348420254</v>
+      </c>
+      <c r="N6">
+        <v>0.989915966200112</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616335674121342</v>
+        <v>0.9647988553895743</v>
       </c>
       <c r="D7">
-        <v>0.9714825714468985</v>
+        <v>0.9743964906414385</v>
       </c>
       <c r="E7">
-        <v>0.9741787210794617</v>
+        <v>0.9768908761135683</v>
       </c>
       <c r="F7">
-        <v>0.9799987575252606</v>
+        <v>0.9825254468575814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041144463626104</v>
+        <v>1.041777770301398</v>
       </c>
       <c r="J7">
-        <v>0.9820658786539198</v>
+        <v>0.9851415430016677</v>
       </c>
       <c r="K7">
-        <v>0.9819346923303766</v>
+        <v>0.9848109667166037</v>
       </c>
       <c r="L7">
-        <v>0.9845960007727511</v>
+        <v>0.9872733502897315</v>
       </c>
       <c r="M7">
-        <v>0.9903416435330087</v>
+        <v>0.9928363782216234</v>
+      </c>
+      <c r="N7">
+        <v>0.9865405569900445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437307105748586</v>
+        <v>0.9469608886093301</v>
       </c>
       <c r="D8">
-        <v>0.9556634823863274</v>
+        <v>0.9586292952824643</v>
       </c>
       <c r="E8">
-        <v>0.9589151144921108</v>
+        <v>0.96167761327126</v>
       </c>
       <c r="F8">
-        <v>0.9631916732889443</v>
+        <v>0.9657786447637984</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037123582086346</v>
+        <v>1.037770801192925</v>
       </c>
       <c r="J8">
-        <v>0.9671073642637326</v>
+        <v>0.9702280899857907</v>
       </c>
       <c r="K8">
-        <v>0.9674795076816163</v>
+        <v>0.9704004353078172</v>
       </c>
       <c r="L8">
-        <v>0.9706819475437076</v>
+        <v>0.9734029864515519</v>
       </c>
       <c r="M8">
-        <v>0.9748944516000174</v>
+        <v>0.9774430250709779</v>
+      </c>
+      <c r="N8">
+        <v>0.9716059251602879</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.907433498742742</v>
+        <v>0.9108375999478139</v>
       </c>
       <c r="D9">
-        <v>0.9236945561886359</v>
+        <v>0.9268008316149664</v>
       </c>
       <c r="E9">
-        <v>0.9280867309755325</v>
+        <v>0.9309849073026798</v>
       </c>
       <c r="F9">
-        <v>0.9291560039013587</v>
+        <v>0.9319019913905643</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028726668953977</v>
+        <v>1.029411402899711</v>
       </c>
       <c r="J9">
-        <v>0.9367391512226996</v>
+        <v>0.9399857511728505</v>
       </c>
       <c r="K9">
-        <v>0.9381601489964859</v>
+        <v>0.9412047536444379</v>
       </c>
       <c r="L9">
-        <v>0.9424652819011029</v>
+        <v>0.9453066136285012</v>
       </c>
       <c r="M9">
-        <v>0.9435135280061699</v>
+        <v>0.946205806678448</v>
+      </c>
+      <c r="N9">
+        <v>0.9413206387573887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785527809048883</v>
+        <v>0.8821481475806605</v>
       </c>
       <c r="D10">
-        <v>0.8983706001594076</v>
+        <v>0.9016324056464222</v>
       </c>
       <c r="E10">
-        <v>0.9036864771842059</v>
+        <v>0.9067342860541829</v>
       </c>
       <c r="F10">
-        <v>0.9021597600445528</v>
+        <v>0.905077813774004</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021914010091932</v>
+        <v>1.022639760214991</v>
       </c>
       <c r="J10">
-        <v>0.9125771284853005</v>
+        <v>0.91596658417152</v>
       </c>
       <c r="K10">
-        <v>0.9148540274473761</v>
+        <v>0.9180380406380163</v>
       </c>
       <c r="L10">
-        <v>0.9200435098268727</v>
+        <v>0.923019746236865</v>
       </c>
       <c r="M10">
-        <v>0.9185528887430873</v>
+        <v>0.9214020932094389</v>
+      </c>
+      <c r="N10">
+        <v>0.9172673617838794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643997539904368</v>
+        <v>0.8681115574507433</v>
       </c>
       <c r="D11">
-        <v>0.8860018179275266</v>
+        <v>0.8893585600762052</v>
       </c>
       <c r="E11">
-        <v>0.8917763859333852</v>
+        <v>0.8949153331478514</v>
       </c>
       <c r="F11">
-        <v>0.8889711173877384</v>
+        <v>0.891992932851194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018557874510343</v>
+        <v>1.019308405302205</v>
       </c>
       <c r="J11">
-        <v>0.9007475869196111</v>
+        <v>0.9042252755049963</v>
       </c>
       <c r="K11">
-        <v>0.9034494883362687</v>
+        <v>0.9067193172741302</v>
       </c>
       <c r="L11">
-        <v>0.9090750885229065</v>
+        <v>0.9121341488135815</v>
       </c>
       <c r="M11">
-        <v>0.9063418609537078</v>
+        <v>0.9092860998571682</v>
+      </c>
+      <c r="N11">
+        <v>0.9055093791123021</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8588228881121391</v>
+        <v>0.8625855419649928</v>
       </c>
       <c r="D12">
-        <v>0.8811360486025679</v>
+        <v>0.8845342877877898</v>
       </c>
       <c r="E12">
-        <v>0.8870925394297892</v>
+        <v>0.8902712871889483</v>
       </c>
       <c r="F12">
-        <v>0.8837830963108348</v>
+        <v>0.8868500402017572</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017234543658762</v>
+        <v>1.017995852881356</v>
       </c>
       <c r="J12">
-        <v>0.8960893652962194</v>
+        <v>0.8996057986818506</v>
       </c>
       <c r="K12">
-        <v>0.898959622712467</v>
+        <v>0.9022670847647145</v>
       </c>
       <c r="L12">
-        <v>0.904757620311102</v>
+        <v>0.9078529623689732</v>
       </c>
       <c r="M12">
-        <v>0.9015358782272009</v>
+        <v>0.9045215172177525</v>
+      </c>
+      <c r="N12">
+        <v>0.9008833421022063</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8600351531762997</v>
+        <v>0.8637864951642658</v>
       </c>
       <c r="D13">
-        <v>0.8821933423297323</v>
+        <v>0.8855823488029343</v>
       </c>
       <c r="E13">
-        <v>0.8881102294310577</v>
+        <v>0.8912801236540744</v>
       </c>
       <c r="F13">
-        <v>0.8849103849361504</v>
+        <v>0.8879672988121942</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017522204917381</v>
+        <v>1.018281118664866</v>
       </c>
       <c r="J13">
-        <v>0.8971017726373631</v>
+        <v>0.9006095773714499</v>
       </c>
       <c r="K13">
-        <v>0.8999353930800345</v>
+        <v>0.9032344764086792</v>
       </c>
       <c r="L13">
-        <v>0.905695888562229</v>
+        <v>0.9087831546185239</v>
       </c>
       <c r="M13">
-        <v>0.9025802679833045</v>
+        <v>0.9055567024972273</v>
+      </c>
+      <c r="N13">
+        <v>0.9018885462726796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639458319040135</v>
+        <v>0.8676616626519522</v>
       </c>
       <c r="D14">
-        <v>0.8856056010261996</v>
+        <v>0.8889656290094428</v>
       </c>
       <c r="E14">
-        <v>0.8913949508848192</v>
+        <v>0.8945370503434553</v>
       </c>
       <c r="F14">
-        <v>0.8885486487980077</v>
+        <v>0.89157404223439</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018450168736589</v>
+        <v>1.0192015541141</v>
       </c>
       <c r="J14">
-        <v>0.9003683645152625</v>
+        <v>0.9038491174211453</v>
       </c>
       <c r="K14">
-        <v>0.903083950967741</v>
+        <v>0.9063567573180099</v>
       </c>
       <c r="L14">
-        <v>0.9087235712709859</v>
+        <v>0.9117855028595949</v>
       </c>
       <c r="M14">
-        <v>0.9059505527940207</v>
+        <v>0.9088980727246389</v>
+      </c>
+      <c r="N14">
+        <v>0.9051326868408263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8663102250145414</v>
+        <v>0.8700052882940722</v>
       </c>
       <c r="D15">
-        <v>0.8876697522474869</v>
+        <v>0.8910128375712643</v>
       </c>
       <c r="E15">
-        <v>0.8933821552671786</v>
+        <v>0.8965079994686714</v>
       </c>
       <c r="F15">
-        <v>0.8907495782483953</v>
+        <v>0.8937565138138999</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019011164452014</v>
+        <v>1.019758141223718</v>
       </c>
       <c r="J15">
-        <v>0.9023437948951393</v>
+        <v>0.9058087542769349</v>
       </c>
       <c r="K15">
-        <v>0.9049881344128741</v>
+        <v>0.9082455932013895</v>
       </c>
       <c r="L15">
-        <v>0.9105547494961697</v>
+        <v>0.9136018789663901</v>
       </c>
       <c r="M15">
-        <v>0.9079890452325418</v>
+        <v>0.9109196417849403</v>
+      </c>
+      <c r="N15">
+        <v>0.9070951066057246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.879451889780381</v>
+        <v>0.8830404201105622</v>
       </c>
       <c r="D16">
-        <v>0.8991573166826986</v>
+        <v>0.9024135526611153</v>
       </c>
       <c r="E16">
-        <v>0.9044441944602823</v>
+        <v>0.9074866526274022</v>
       </c>
       <c r="F16">
-        <v>0.9029986151299831</v>
+        <v>0.9059105562657769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022126996040626</v>
+        <v>1.022851286750091</v>
       </c>
       <c r="J16">
-        <v>0.9133289565441893</v>
+        <v>0.9167132562322622</v>
       </c>
       <c r="K16">
-        <v>0.9155789710147149</v>
+        <v>0.9187579637991063</v>
       </c>
       <c r="L16">
-        <v>0.9207408125701728</v>
+        <v>0.9237121992197861</v>
       </c>
       <c r="M16">
-        <v>0.9193292267440916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9221728405314495</v>
+      </c>
+      <c r="N16">
+        <v>0.9180150942045922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8872122795963155</v>
+        <v>0.890744341968445</v>
       </c>
       <c r="D17">
-        <v>0.9059522094181474</v>
+        <v>0.9091624657138129</v>
       </c>
       <c r="E17">
-        <v>0.9109894596782581</v>
+        <v>0.9139877251558415</v>
       </c>
       <c r="F17">
-        <v>0.9102435493327437</v>
+        <v>0.9131049037657126</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023963563305282</v>
+        <v>1.024675780110119</v>
       </c>
       <c r="J17">
-        <v>0.9198194358013527</v>
+        <v>0.9231612696512459</v>
       </c>
       <c r="K17">
-        <v>0.9218380091723085</v>
+        <v>0.9249756250987823</v>
       </c>
       <c r="L17">
-        <v>0.9267615831325259</v>
+        <v>0.9296929780596316</v>
       </c>
       <c r="M17">
-        <v>0.9260324000869623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9288297855693256</v>
+      </c>
+      <c r="N17">
+        <v>0.9244722645422283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8915859232770947</v>
+        <v>0.895088066610177</v>
       </c>
       <c r="D18">
-        <v>0.9097852605920432</v>
+        <v>0.9129711749588463</v>
       </c>
       <c r="E18">
-        <v>0.9146823426228066</v>
+        <v>0.9176571971623748</v>
       </c>
       <c r="F18">
-        <v>0.9143301407940855</v>
+        <v>0.9171646177134256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024996925772042</v>
+        <v>1.025702731524236</v>
       </c>
       <c r="J18">
-        <v>0.9234782588566457</v>
+        <v>0.9267976900053468</v>
       </c>
       <c r="K18">
-        <v>0.9253668889084458</v>
+        <v>0.9284826547851982</v>
       </c>
       <c r="L18">
-        <v>0.9301564133412824</v>
+        <v>0.9330666730631831</v>
       </c>
       <c r="M18">
-        <v>0.9298118960550502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9325847508695839</v>
+      </c>
+      <c r="N18">
+        <v>0.9281138490303357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930530147552307</v>
+        <v>0.8965454140716871</v>
       </c>
       <c r="D19">
-        <v>0.9110715770180358</v>
+        <v>0.914249567138729</v>
       </c>
       <c r="E19">
-        <v>0.9159217228809037</v>
+        <v>0.9188889538193387</v>
       </c>
       <c r="F19">
-        <v>0.9157014693586865</v>
+        <v>0.9185271809028726</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025343227273485</v>
+        <v>1.026046943046318</v>
       </c>
       <c r="J19">
-        <v>0.9247056894716675</v>
+        <v>0.9280178406280634</v>
       </c>
       <c r="K19">
-        <v>0.9265508139768516</v>
+        <v>0.9296594758797029</v>
       </c>
       <c r="L19">
-        <v>0.9312954096645747</v>
+        <v>0.9341987951302688</v>
       </c>
       <c r="M19">
-        <v>0.9310799171981623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9338447771538372</v>
+      </c>
+      <c r="N19">
+        <v>0.9293357324068895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863958989434547</v>
+        <v>0.8899336940455765</v>
       </c>
       <c r="D20">
-        <v>0.9052370155064496</v>
+        <v>0.9084519376069695</v>
       </c>
       <c r="E20">
-        <v>0.9103004703374372</v>
+        <v>0.9133032219313074</v>
       </c>
       <c r="F20">
-        <v>0.9094810171744809</v>
+        <v>0.9123475154520814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023770527480992</v>
+        <v>1.024483971610278</v>
       </c>
       <c r="J20">
-        <v>0.9191365472766179</v>
+        <v>0.9224826817770376</v>
       </c>
       <c r="K20">
-        <v>0.92117941586809</v>
+        <v>0.9243212245406794</v>
       </c>
       <c r="L20">
-        <v>0.9261280298394556</v>
+        <v>0.9290634789710766</v>
       </c>
       <c r="M20">
-        <v>0.9253270465053398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.928129129282228</v>
+      </c>
+      <c r="N20">
+        <v>0.9237927129954036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8628038128616442</v>
+        <v>0.8665298618055224</v>
       </c>
       <c r="D21">
-        <v>0.8846088972529296</v>
+        <v>0.8879772627369197</v>
       </c>
       <c r="E21">
-        <v>0.8904354565415228</v>
+        <v>0.8935855539419748</v>
       </c>
       <c r="F21">
-        <v>0.8874859150306783</v>
+        <v>0.8905203836067253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018179185827229</v>
+        <v>1.018932738756221</v>
       </c>
       <c r="J21">
-        <v>0.8994143369928554</v>
+        <v>0.902902868170687</v>
       </c>
       <c r="K21">
-        <v>0.9021643678385174</v>
+        <v>0.9054447310547322</v>
       </c>
       <c r="L21">
-        <v>0.9078392705408717</v>
+        <v>0.9109084890375641</v>
       </c>
       <c r="M21">
-        <v>0.9049661639708767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.907922006940629</v>
+      </c>
+      <c r="N21">
+        <v>0.904185093807896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8460546865404787</v>
+        <v>0.8499459462267428</v>
       </c>
       <c r="D22">
-        <v>0.8700138897339614</v>
+        <v>0.8735171458211264</v>
       </c>
       <c r="E22">
-        <v>0.8763895380433924</v>
+        <v>0.8796689273366427</v>
       </c>
       <c r="F22">
-        <v>0.8719260539878018</v>
+        <v>0.8751067005702426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014205841630239</v>
+        <v>1.014994299701611</v>
       </c>
       <c r="J22">
-        <v>0.8854324968832967</v>
+        <v>0.8890473712206766</v>
       </c>
       <c r="K22">
-        <v>0.8886899499855309</v>
+        <v>0.8920929174024936</v>
       </c>
       <c r="L22">
-        <v>0.8948838983077507</v>
+        <v>0.8980712281347495</v>
       </c>
       <c r="M22">
-        <v>0.8905472374526976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8936373295888557</v>
+      </c>
+      <c r="N22">
+        <v>0.8903099204629689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8551496265941042</v>
+        <v>0.8589474688022251</v>
       </c>
       <c r="D23">
-        <v>0.8779337307659255</v>
+        <v>0.8813606956103125</v>
       </c>
       <c r="E23">
-        <v>0.8840104253017341</v>
+        <v>0.8872167130102954</v>
       </c>
       <c r="F23">
-        <v>0.8803688980573121</v>
+        <v>0.8834670114043578</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01636295693153</v>
+        <v>1.017131709894221</v>
       </c>
       <c r="J23">
-        <v>0.8930222930076126</v>
+        <v>0.8965656011583344</v>
       </c>
       <c r="K23">
-        <v>0.8960036986456882</v>
+        <v>0.8993372489248618</v>
       </c>
       <c r="L23">
-        <v>0.9019154254161432</v>
+        <v>0.90503590670776</v>
       </c>
       <c r="M23">
-        <v>0.8983723846694323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9013866382693687</v>
+      </c>
+      <c r="N23">
+        <v>0.897838827149491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8867652535883218</v>
+        <v>0.8903004491580075</v>
       </c>
       <c r="D24">
-        <v>0.9055605792896813</v>
+        <v>0.9087733855954332</v>
       </c>
       <c r="E24">
-        <v>0.91061217679477</v>
+        <v>0.9136128941250014</v>
       </c>
       <c r="F24">
-        <v>0.9098259985324418</v>
+        <v>0.9126901645480451</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023857868017211</v>
+        <v>1.024570755654141</v>
       </c>
       <c r="J24">
-        <v>0.9194455034785042</v>
+        <v>0.9227896875173646</v>
       </c>
       <c r="K24">
-        <v>0.9214773786533016</v>
+        <v>0.924617285871849</v>
       </c>
       <c r="L24">
-        <v>0.9264146630598256</v>
+        <v>0.9293482736205829</v>
       </c>
       <c r="M24">
-        <v>0.9256461641176944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9284461170024416</v>
+      </c>
+      <c r="N24">
+        <v>0.924100154719096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9175063669410131</v>
+        <v>0.9208557362292943</v>
       </c>
       <c r="D25">
-        <v>0.9325513883631824</v>
+        <v>0.9356133185794043</v>
       </c>
       <c r="E25">
-        <v>0.9366249410507008</v>
+        <v>0.9394803535891033</v>
       </c>
       <c r="F25">
-        <v>0.9385922709634267</v>
+        <v>0.9412885397180931</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031081332974219</v>
+        <v>1.031754267862761</v>
       </c>
       <c r="J25">
-        <v>0.9451689266061765</v>
+        <v>0.9483753529888379</v>
       </c>
       <c r="K25">
-        <v>0.9462955289952253</v>
+        <v>0.9493007780220589</v>
       </c>
       <c r="L25">
-        <v>0.9502937798575165</v>
+        <v>0.9530969152368404</v>
       </c>
       <c r="M25">
-        <v>0.9522250473414547</v>
+        <v>0.9548722102771723</v>
+      </c>
+      <c r="N25">
+        <v>0.9497221547702553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9420903806466964</v>
+        <v>0.9707042984694647</v>
       </c>
       <c r="D2">
-        <v>0.9543296614658761</v>
+        <v>0.9855635803017858</v>
       </c>
       <c r="E2">
-        <v>0.9575299660373949</v>
+        <v>0.9805511051789103</v>
       </c>
       <c r="F2">
-        <v>0.9612070586137668</v>
+        <v>0.9913680802807463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03666017204928</v>
+        <v>1.043049906687314</v>
       </c>
       <c r="J2">
-        <v>0.9661527668825068</v>
+        <v>0.9937979956708922</v>
       </c>
       <c r="K2">
-        <v>0.9664641847346761</v>
+        <v>0.9972277698913296</v>
       </c>
       <c r="L2">
-        <v>0.9696144948806127</v>
+        <v>0.9922882126472046</v>
       </c>
       <c r="M2">
-        <v>0.9732346694591204</v>
+        <v>1.002948995937099</v>
       </c>
       <c r="N2">
-        <v>0.9675248146307515</v>
+        <v>0.9952093028149682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9561613592907886</v>
+        <v>0.9839572932987969</v>
       </c>
       <c r="D3">
-        <v>0.9667578629725989</v>
+        <v>0.9981683400784952</v>
       </c>
       <c r="E3">
-        <v>0.9695199597252403</v>
+        <v>0.9917428167074027</v>
       </c>
       <c r="F3">
-        <v>0.9744159912595287</v>
+        <v>1.00421032007134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039850397780585</v>
+        <v>1.046096643646629</v>
       </c>
       <c r="J3">
-        <v>0.9779228964722769</v>
+        <v>1.004895062534963</v>
       </c>
       <c r="K3">
-        <v>0.9778345266803942</v>
+        <v>1.008824711108163</v>
       </c>
       <c r="L3">
-        <v>0.9805582881271315</v>
+        <v>1.002482451479872</v>
       </c>
       <c r="M3">
-        <v>0.9853870398272165</v>
+        <v>1.014789611035253</v>
       </c>
       <c r="N3">
-        <v>0.9793116591545915</v>
+        <v>1.006322128786838</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9647516551790754</v>
+        <v>0.9920842559323649</v>
       </c>
       <c r="D4">
-        <v>0.9743547297868983</v>
+        <v>1.005903013648422</v>
       </c>
       <c r="E4">
-        <v>0.9768505756815061</v>
+        <v>0.9986157279887916</v>
       </c>
       <c r="F4">
-        <v>0.9824811331343832</v>
+        <v>1.012086106947788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041767310583498</v>
+        <v>1.047934412583857</v>
       </c>
       <c r="J4">
-        <v>0.98510211258139</v>
+        <v>1.0116926378098</v>
       </c>
       <c r="K4">
-        <v>0.984772852720704</v>
+        <v>1.015930712779165</v>
       </c>
       <c r="L4">
-        <v>0.9872366637672831</v>
+        <v>1.008730888715926</v>
       </c>
       <c r="M4">
-        <v>0.9927956974707555</v>
+        <v>1.022040819362905</v>
       </c>
       <c r="N4">
-        <v>0.9865010705740473</v>
+        <v>1.013129357398257</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9682528137125096</v>
+        <v>0.9954039466956841</v>
       </c>
       <c r="D5">
-        <v>0.977452970919352</v>
+        <v>1.009063506488114</v>
       </c>
       <c r="E5">
-        <v>0.9798405597174208</v>
+        <v>1.001425292529243</v>
       </c>
       <c r="F5">
-        <v>0.9857680965917194</v>
+        <v>1.015303124751108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042540866243048</v>
+        <v>1.0486774866225</v>
       </c>
       <c r="J5">
-        <v>0.9880263930906692</v>
+        <v>1.014467380308626</v>
       </c>
       <c r="K5">
-        <v>0.987599706687855</v>
+        <v>1.018831872081712</v>
       </c>
       <c r="L5">
-        <v>0.9899576558160933</v>
+        <v>1.011282376718606</v>
       </c>
       <c r="M5">
-        <v>0.9958123795198265</v>
+        <v>1.02500023809004</v>
       </c>
       <c r="N5">
-        <v>0.9894295038970693</v>
+        <v>1.015908040349699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9688345465784061</v>
+        <v>0.9959559301842357</v>
       </c>
       <c r="D6">
-        <v>0.9779678658374859</v>
+        <v>1.009589075196622</v>
       </c>
       <c r="E6">
-        <v>0.9803374812863022</v>
+        <v>1.001892572774815</v>
       </c>
       <c r="F6">
-        <v>0.986314219571952</v>
+        <v>1.015838025516124</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042668931573884</v>
+        <v>1.048800585496287</v>
       </c>
       <c r="J6">
-        <v>0.9885121655411133</v>
+        <v>1.014928634772105</v>
       </c>
       <c r="K6">
-        <v>0.988069335416882</v>
+        <v>1.019314171338699</v>
       </c>
       <c r="L6">
-        <v>0.9904096996074525</v>
+        <v>1.011706571084603</v>
       </c>
       <c r="M6">
-        <v>0.9963134348420254</v>
+        <v>1.02549216125202</v>
       </c>
       <c r="N6">
-        <v>0.989915966200112</v>
+        <v>1.016369949847423</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9647988553895743</v>
+        <v>0.992128981865641</v>
       </c>
       <c r="D7">
-        <v>0.9743964906414385</v>
+        <v>1.00594559082506</v>
       </c>
       <c r="E7">
-        <v>0.9768908761135683</v>
+        <v>0.9986535728954936</v>
       </c>
       <c r="F7">
-        <v>0.9825254468575814</v>
+        <v>1.012129450163292</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041777770301398</v>
+        <v>1.047944454601156</v>
       </c>
       <c r="J7">
-        <v>0.9851415430016677</v>
+        <v>1.011730029537442</v>
       </c>
       <c r="K7">
-        <v>0.9848109667166037</v>
+        <v>1.015969806024687</v>
       </c>
       <c r="L7">
-        <v>0.9872733502897315</v>
+        <v>1.008765268376984</v>
       </c>
       <c r="M7">
-        <v>0.9928363782216234</v>
+        <v>1.02208070177776</v>
       </c>
       <c r="N7">
-        <v>0.9865405569900445</v>
+        <v>1.013166802226442</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9469608886093301</v>
+        <v>0.9752830123228806</v>
       </c>
       <c r="D8">
-        <v>0.9586292952824643</v>
+        <v>0.9899170774120978</v>
       </c>
       <c r="E8">
-        <v>0.96167761327126</v>
+        <v>0.9844153603116271</v>
       </c>
       <c r="F8">
-        <v>0.9657786447637984</v>
+        <v>0.9958045685495172</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037770801192925</v>
+        <v>1.044108869500337</v>
       </c>
       <c r="J8">
-        <v>0.9702280899857907</v>
+        <v>0.9976333318709675</v>
       </c>
       <c r="K8">
-        <v>0.9704004353078172</v>
+        <v>1.001235382995048</v>
       </c>
       <c r="L8">
-        <v>0.9734029864515519</v>
+        <v>0.9958106572984183</v>
       </c>
       <c r="M8">
-        <v>0.9774430250709779</v>
+        <v>1.007041671137092</v>
       </c>
       <c r="N8">
-        <v>0.9716059251602879</v>
+        <v>0.9990500856323669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9108375999478139</v>
+        <v>0.9415700979351173</v>
       </c>
       <c r="D9">
-        <v>0.9268008316149664</v>
+        <v>0.957897703979985</v>
       </c>
       <c r="E9">
-        <v>0.9309849073026798</v>
+        <v>0.9560229033385333</v>
       </c>
       <c r="F9">
-        <v>0.9319019913905643</v>
+        <v>0.9631554168913314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029411402899711</v>
+        <v>1.036187626437643</v>
       </c>
       <c r="J9">
-        <v>0.9399857511728505</v>
+        <v>0.9693694165324607</v>
       </c>
       <c r="K9">
-        <v>0.9412047536444379</v>
+        <v>0.971712910037547</v>
       </c>
       <c r="L9">
-        <v>0.9453066136285012</v>
+        <v>0.9698721906409355</v>
       </c>
       <c r="M9">
-        <v>0.946205806678448</v>
+        <v>0.9768759642268156</v>
       </c>
       <c r="N9">
-        <v>0.9413206387573887</v>
+        <v>0.9707460322921624</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8821481475806605</v>
+        <v>0.9152794640667431</v>
       </c>
       <c r="D10">
-        <v>0.9016324056464222</v>
+        <v>0.9329928572399611</v>
       </c>
       <c r="E10">
-        <v>0.9067342860541829</v>
+        <v>0.9339838911934698</v>
       </c>
       <c r="F10">
-        <v>0.905077813774004</v>
+        <v>0.9377376510872326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022639760214991</v>
+        <v>1.029868515879305</v>
       </c>
       <c r="J10">
-        <v>0.91596658417152</v>
+        <v>0.9473102175534605</v>
       </c>
       <c r="K10">
-        <v>0.9180380406380163</v>
+        <v>0.9486873745726482</v>
       </c>
       <c r="L10">
-        <v>0.923019746236865</v>
+        <v>0.9496569687283626</v>
       </c>
       <c r="M10">
-        <v>0.9214020932094389</v>
+        <v>0.9533300651943384</v>
       </c>
       <c r="N10">
-        <v>0.9172673617838794</v>
+        <v>0.9486555067203872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8681115574507433</v>
+        <v>0.9026158194897176</v>
       </c>
       <c r="D11">
-        <v>0.8893585600762052</v>
+        <v>0.9210205644945297</v>
       </c>
       <c r="E11">
-        <v>0.8949153331478514</v>
+        <v>0.9234030938603768</v>
       </c>
       <c r="F11">
-        <v>0.891992932851194</v>
+        <v>0.9255144270810616</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019308405302205</v>
+        <v>1.026800289333511</v>
       </c>
       <c r="J11">
-        <v>0.9042252755049963</v>
+        <v>0.9366870050099322</v>
       </c>
       <c r="K11">
-        <v>0.9067193172741302</v>
+        <v>0.9376032221137721</v>
       </c>
       <c r="L11">
-        <v>0.9121341488135815</v>
+        <v>0.9399300874531386</v>
       </c>
       <c r="M11">
-        <v>0.9092860998571682</v>
+        <v>0.9419924129782399</v>
       </c>
       <c r="N11">
-        <v>0.9055093791123021</v>
+        <v>0.9380172079965474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8625855419649928</v>
+        <v>0.8976724905856412</v>
       </c>
       <c r="D12">
-        <v>0.8845342877877898</v>
+        <v>0.9163517007191309</v>
       </c>
       <c r="E12">
-        <v>0.8902712871889483</v>
+        <v>0.9192793233193389</v>
       </c>
       <c r="F12">
-        <v>0.8868500402017572</v>
+        <v>0.9207472023221632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017995852881356</v>
+        <v>1.025600045224878</v>
       </c>
       <c r="J12">
-        <v>0.8996057986818506</v>
+        <v>0.9325413198559187</v>
       </c>
       <c r="K12">
-        <v>0.9022670847647145</v>
+        <v>0.9332783941494982</v>
       </c>
       <c r="L12">
-        <v>0.9078529623689732</v>
+        <v>0.9361356053853672</v>
       </c>
       <c r="M12">
-        <v>0.9045215172177525</v>
+        <v>0.9375684069848924</v>
       </c>
       <c r="N12">
-        <v>0.9008833421022063</v>
+        <v>0.9338656354940983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8637864951642658</v>
+        <v>0.8987446499444075</v>
       </c>
       <c r="D13">
-        <v>0.8855823488029343</v>
+        <v>0.9173641052239241</v>
       </c>
       <c r="E13">
-        <v>0.8912801236540744</v>
+        <v>0.9201734116994268</v>
       </c>
       <c r="F13">
-        <v>0.8879672988121942</v>
+        <v>0.9217809551891626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018281118664866</v>
+        <v>1.025860458580044</v>
       </c>
       <c r="J13">
-        <v>0.9006095773714499</v>
+        <v>0.9334404103509986</v>
       </c>
       <c r="K13">
-        <v>0.9032344764086792</v>
+        <v>0.9342163014689522</v>
       </c>
       <c r="L13">
-        <v>0.9087831546185239</v>
+        <v>0.9369584625827033</v>
       </c>
       <c r="M13">
-        <v>0.9055567024972273</v>
+        <v>0.9385278309249393</v>
       </c>
       <c r="N13">
-        <v>0.9018885462726796</v>
+        <v>0.9347660028008083</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8676616626519522</v>
+        <v>0.9022124267689179</v>
       </c>
       <c r="D14">
-        <v>0.8889656290094428</v>
+        <v>0.9206394699888647</v>
       </c>
       <c r="E14">
-        <v>0.8945370503434553</v>
+        <v>0.9230664407499194</v>
       </c>
       <c r="F14">
-        <v>0.89157404223439</v>
+        <v>0.925125312947755</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0192015541141</v>
+        <v>1.026702388583905</v>
       </c>
       <c r="J14">
-        <v>0.9038491174211453</v>
+        <v>0.9363486740546415</v>
       </c>
       <c r="K14">
-        <v>0.9063567573180099</v>
+        <v>0.937250255940561</v>
       </c>
       <c r="L14">
-        <v>0.9117855028595949</v>
+        <v>0.9396203888835905</v>
       </c>
       <c r="M14">
-        <v>0.9088980727246389</v>
+        <v>0.9416313565632917</v>
       </c>
       <c r="N14">
-        <v>0.9051326868408263</v>
+        <v>0.9376783965724933</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8700052882940722</v>
+        <v>0.9043155833285563</v>
       </c>
       <c r="D15">
-        <v>0.8910128375712643</v>
+        <v>0.9226265619613115</v>
       </c>
       <c r="E15">
-        <v>0.8965079994686714</v>
+        <v>0.9248219083935897</v>
       </c>
       <c r="F15">
-        <v>0.8937565138138999</v>
+        <v>0.9271542014174612</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019758141223718</v>
+        <v>1.027212716326635</v>
       </c>
       <c r="J15">
-        <v>0.9058087542769349</v>
+        <v>0.938112671627445</v>
       </c>
       <c r="K15">
-        <v>0.9082455932013895</v>
+        <v>0.9390905890305095</v>
       </c>
       <c r="L15">
-        <v>0.9136018789663901</v>
+        <v>0.9412351599893688</v>
       </c>
       <c r="M15">
-        <v>0.9109196417849403</v>
+        <v>0.9435138619663275</v>
       </c>
       <c r="N15">
-        <v>0.9070951066057246</v>
+        <v>0.9394448992241834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8830404201105622</v>
+        <v>0.916089301343779</v>
       </c>
       <c r="D16">
-        <v>0.9024135526611153</v>
+        <v>0.9337590378424241</v>
       </c>
       <c r="E16">
-        <v>0.9074866526274022</v>
+        <v>0.9346613277964729</v>
       </c>
       <c r="F16">
-        <v>0.9059105562657769</v>
+        <v>0.9385198135851955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022851286750091</v>
+        <v>1.030064321324729</v>
       </c>
       <c r="J16">
-        <v>0.9167132562322622</v>
+        <v>0.9479896750742395</v>
       </c>
       <c r="K16">
-        <v>0.9187579637991063</v>
+        <v>0.949396408224032</v>
       </c>
       <c r="L16">
-        <v>0.9237121992197861</v>
+        <v>0.9502792767083948</v>
       </c>
       <c r="M16">
-        <v>0.9221728405314495</v>
+        <v>0.9540552679554581</v>
       </c>
       <c r="N16">
-        <v>0.9180150942045922</v>
+        <v>0.9493359291487807</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.890744341968445</v>
+        <v>0.9231037499409122</v>
       </c>
       <c r="D17">
-        <v>0.9091624657138129</v>
+        <v>0.9403980311314374</v>
       </c>
       <c r="E17">
-        <v>0.9139877251558415</v>
+        <v>0.9405328884594043</v>
       </c>
       <c r="F17">
-        <v>0.9131049037657126</v>
+        <v>0.9452968270105981</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024675780110119</v>
+        <v>1.031757734575242</v>
       </c>
       <c r="J17">
-        <v>0.9231612696512459</v>
+        <v>0.9538751414258748</v>
       </c>
       <c r="K17">
-        <v>0.9249756250987823</v>
+        <v>0.9555385514187755</v>
       </c>
       <c r="L17">
-        <v>0.9296929780596316</v>
+        <v>0.9556706324689489</v>
       </c>
       <c r="M17">
-        <v>0.9288297855693256</v>
+        <v>0.9603371665444621</v>
       </c>
       <c r="N17">
-        <v>0.9244722645422283</v>
+        <v>0.9552297535377077</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.895088066610177</v>
+        <v>0.9270755954749023</v>
       </c>
       <c r="D18">
-        <v>0.9129711749588463</v>
+        <v>0.9441593589750099</v>
       </c>
       <c r="E18">
-        <v>0.9176571971623748</v>
+        <v>0.9438606498658043</v>
       </c>
       <c r="F18">
-        <v>0.9171646177134256</v>
+        <v>0.9491359445896322</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025702731524236</v>
+        <v>1.032714318735132</v>
       </c>
       <c r="J18">
-        <v>0.9267976900053468</v>
+        <v>0.9572078562427188</v>
       </c>
       <c r="K18">
-        <v>0.9284826547851982</v>
+        <v>0.9590170070210674</v>
       </c>
       <c r="L18">
-        <v>0.9330666730631831</v>
+        <v>0.9587242904527692</v>
       </c>
       <c r="M18">
-        <v>0.9325847508695839</v>
+        <v>0.9638944839897561</v>
       </c>
       <c r="N18">
-        <v>0.9281138490303357</v>
+        <v>0.9585672011918589</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8965454140716871</v>
+        <v>0.9284107822637186</v>
       </c>
       <c r="D19">
-        <v>0.914249567138729</v>
+        <v>0.9454241066049781</v>
       </c>
       <c r="E19">
-        <v>0.9188889538193387</v>
+        <v>0.9449798093520227</v>
       </c>
       <c r="F19">
-        <v>0.9185271809028726</v>
+        <v>0.9504267767652349</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026046943046318</v>
+        <v>1.033035471168694</v>
       </c>
       <c r="J19">
-        <v>0.9280178406280634</v>
+        <v>0.958328196135086</v>
       </c>
       <c r="K19">
-        <v>0.9296594758797029</v>
+        <v>0.9601864049673103</v>
       </c>
       <c r="L19">
-        <v>0.9341987951302688</v>
+        <v>0.9597509429148458</v>
       </c>
       <c r="M19">
-        <v>0.9338447771538372</v>
+        <v>0.9650903412765245</v>
       </c>
       <c r="N19">
-        <v>0.9293357324068895</v>
+        <v>0.9596891320953781</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8899336940455765</v>
+        <v>0.9223638204163487</v>
       </c>
       <c r="D20">
-        <v>0.9084519376069695</v>
+        <v>0.939697483682567</v>
       </c>
       <c r="E20">
-        <v>0.9133032219313074</v>
+        <v>0.9399131904869515</v>
       </c>
       <c r="F20">
-        <v>0.9123475154520814</v>
+        <v>0.9445817572288342</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024483971610278</v>
+        <v>1.031579335251552</v>
       </c>
       <c r="J20">
-        <v>0.9224826817770376</v>
+        <v>0.9532542847441756</v>
       </c>
       <c r="K20">
-        <v>0.9243212245406794</v>
+        <v>0.9548905762538216</v>
       </c>
       <c r="L20">
-        <v>0.9290634789710766</v>
+        <v>0.9551018211422774</v>
       </c>
       <c r="M20">
-        <v>0.928129129282228</v>
+        <v>0.9596744764370375</v>
       </c>
       <c r="N20">
-        <v>0.9237927129954036</v>
+        <v>0.954608015168307</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8665298618055224</v>
+        <v>0.9011983352422589</v>
       </c>
       <c r="D21">
-        <v>0.8879772627369197</v>
+        <v>0.9196815113328839</v>
       </c>
       <c r="E21">
-        <v>0.8935855539419748</v>
+        <v>0.9222202351083388</v>
       </c>
       <c r="F21">
-        <v>0.8905203836067253</v>
+        <v>0.9241471878904312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018932738756221</v>
+        <v>1.026456239164095</v>
       </c>
       <c r="J21">
-        <v>0.902902868170687</v>
+        <v>0.9354981633053909</v>
       </c>
       <c r="K21">
-        <v>0.9054447310547322</v>
+        <v>0.9363629666147777</v>
       </c>
       <c r="L21">
-        <v>0.9109084890375641</v>
+        <v>0.9388418785991078</v>
       </c>
       <c r="M21">
-        <v>0.907922006940629</v>
+        <v>0.9407237264044528</v>
       </c>
       <c r="N21">
-        <v>0.904185093807896</v>
+        <v>0.9368266780004237</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8499459462267428</v>
+        <v>0.8864661457822934</v>
       </c>
       <c r="D22">
-        <v>0.8735171458211264</v>
+        <v>0.9057776511990664</v>
       </c>
       <c r="E22">
-        <v>0.8796689273366427</v>
+        <v>0.9099449242546555</v>
       </c>
       <c r="F22">
-        <v>0.8751067005702426</v>
+        <v>0.909949670996286</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014994299701611</v>
+        <v>1.022876005880642</v>
       </c>
       <c r="J22">
-        <v>0.8890473712206766</v>
+        <v>0.9231465721959982</v>
       </c>
       <c r="K22">
-        <v>0.8920929174024936</v>
+        <v>0.9234791704196877</v>
       </c>
       <c r="L22">
-        <v>0.8980712281347495</v>
+        <v>0.9275396167766122</v>
       </c>
       <c r="M22">
-        <v>0.8936373295888557</v>
+        <v>0.927544242590998</v>
       </c>
       <c r="N22">
-        <v>0.8903099204629689</v>
+        <v>0.9244575462149083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8589474688022251</v>
+        <v>0.894432142090272</v>
       </c>
       <c r="D23">
-        <v>0.8813606956103125</v>
+        <v>0.9132927203282671</v>
       </c>
       <c r="E23">
-        <v>0.8872167130102954</v>
+        <v>0.9165782303263026</v>
       </c>
       <c r="F23">
-        <v>0.8834670114043578</v>
+        <v>0.9176236591653124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017131709894221</v>
+        <v>1.024812743377465</v>
       </c>
       <c r="J23">
-        <v>0.8965656011583344</v>
+        <v>0.9298242806910337</v>
       </c>
       <c r="K23">
-        <v>0.8993372489248618</v>
+        <v>0.9304441664553311</v>
       </c>
       <c r="L23">
-        <v>0.90503590670776</v>
+        <v>0.9336491651023946</v>
       </c>
       <c r="M23">
-        <v>0.9013866382693687</v>
+        <v>0.9346691382998716</v>
       </c>
       <c r="N23">
-        <v>0.897838827149491</v>
+        <v>0.9311447378219506</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8903004491580075</v>
+        <v>0.9226985288611546</v>
       </c>
       <c r="D24">
-        <v>0.9087733855954332</v>
+        <v>0.9400143711376244</v>
       </c>
       <c r="E24">
-        <v>0.9136128941250014</v>
+        <v>0.9401935024786068</v>
       </c>
       <c r="F24">
-        <v>0.9126901645480451</v>
+        <v>0.9449052150326533</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024570755654141</v>
+        <v>1.031660041746607</v>
       </c>
       <c r="J24">
-        <v>0.9227896875173646</v>
+        <v>0.9535351299866048</v>
       </c>
       <c r="K24">
-        <v>0.924617285871849</v>
+        <v>0.9551836873444673</v>
       </c>
       <c r="L24">
-        <v>0.9293482736205829</v>
+        <v>0.9553591213064581</v>
       </c>
       <c r="M24">
-        <v>0.9284461170024416</v>
+        <v>0.9599742447258444</v>
       </c>
       <c r="N24">
-        <v>0.924100154719096</v>
+        <v>0.9548892592431938</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9208557362292943</v>
+        <v>0.9508592959083789</v>
       </c>
       <c r="D25">
-        <v>0.9356133185794043</v>
+        <v>0.9667116820679658</v>
       </c>
       <c r="E25">
-        <v>0.9394803535891033</v>
+        <v>0.9638319659454414</v>
       </c>
       <c r="F25">
-        <v>0.9412885397180931</v>
+        <v>0.972146785568763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031754267862761</v>
+        <v>1.038395658329206</v>
       </c>
       <c r="J25">
-        <v>0.9483753529888379</v>
+        <v>0.9771616821152282</v>
       </c>
       <c r="K25">
-        <v>0.9493007780220589</v>
+        <v>0.9798497154882628</v>
       </c>
       <c r="L25">
-        <v>0.9530969152368404</v>
+        <v>0.9770189522731088</v>
       </c>
       <c r="M25">
-        <v>0.9548722102771723</v>
+        <v>0.9851934446810034</v>
       </c>
       <c r="N25">
-        <v>0.9497221547702553</v>
+        <v>0.9785493637858433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9707042984694647</v>
+        <v>0.9863898917706704</v>
       </c>
       <c r="D2">
-        <v>0.9855635803017858</v>
+        <v>0.9954425582138616</v>
       </c>
       <c r="E2">
-        <v>0.9805511051789103</v>
+        <v>0.9947397984884502</v>
       </c>
       <c r="F2">
-        <v>0.9913680802807463</v>
+        <v>0.9625074576881734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043049906687314</v>
+        <v>1.041914787556762</v>
       </c>
       <c r="J2">
-        <v>0.9937979956708922</v>
+        <v>1.008985441542897</v>
       </c>
       <c r="K2">
-        <v>0.9972277698913296</v>
+        <v>1.006965752725862</v>
       </c>
       <c r="L2">
-        <v>0.9922882126472046</v>
+        <v>1.006272906004609</v>
       </c>
       <c r="M2">
-        <v>1.002948995937099</v>
+        <v>0.9745150723925796</v>
       </c>
       <c r="N2">
-        <v>0.9952093028149682</v>
+        <v>1.010418316602135</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9839572932987969</v>
+        <v>0.9915399064181722</v>
       </c>
       <c r="D3">
-        <v>0.9981683400784952</v>
+        <v>0.9996746591938626</v>
       </c>
       <c r="E3">
-        <v>0.9917428167074027</v>
+        <v>0.998870829407943</v>
       </c>
       <c r="F3">
-        <v>1.00421032007134</v>
+        <v>0.9704411837847158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046096643646629</v>
+        <v>1.04325541905623</v>
       </c>
       <c r="J3">
-        <v>1.004895062534963</v>
+        <v>1.012263889527483</v>
       </c>
       <c r="K3">
-        <v>1.008824711108163</v>
+        <v>1.010311704509552</v>
       </c>
       <c r="L3">
-        <v>1.002482451479872</v>
+        <v>1.00951817860028</v>
       </c>
       <c r="M3">
-        <v>1.014789611035253</v>
+        <v>0.981466787637352</v>
       </c>
       <c r="N3">
-        <v>1.006322128786838</v>
+        <v>1.013701420358903</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9920842559323649</v>
+        <v>0.9947862631749612</v>
       </c>
       <c r="D4">
-        <v>1.005903013648422</v>
+        <v>1.002347289951847</v>
       </c>
       <c r="E4">
-        <v>0.9986157279887916</v>
+        <v>1.001481030214162</v>
       </c>
       <c r="F4">
-        <v>1.012086106947788</v>
+        <v>0.9754294756257011</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047934412583857</v>
+        <v>1.044081532448849</v>
       </c>
       <c r="J4">
-        <v>1.0116926378098</v>
+        <v>1.014324283743395</v>
       </c>
       <c r="K4">
-        <v>1.015930712779165</v>
+        <v>1.012417467567448</v>
       </c>
       <c r="L4">
-        <v>1.008730888715926</v>
+        <v>1.011561613311689</v>
       </c>
       <c r="M4">
-        <v>1.022040819362905</v>
+        <v>0.9858337787830169</v>
       </c>
       <c r="N4">
-        <v>1.013129357398257</v>
+        <v>1.015764740570932</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9954039466956841</v>
+        <v>0.9961313311145422</v>
       </c>
       <c r="D5">
-        <v>1.009063506488114</v>
+        <v>1.003455773029718</v>
       </c>
       <c r="E5">
-        <v>1.001425292529243</v>
+        <v>1.00256394843974</v>
       </c>
       <c r="F5">
-        <v>1.015303124751108</v>
+        <v>0.9774936904236532</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0486774866225</v>
+        <v>1.044419199134826</v>
       </c>
       <c r="J5">
-        <v>1.014467380308626</v>
+        <v>1.015176458033855</v>
       </c>
       <c r="K5">
-        <v>1.018831872081712</v>
+        <v>1.013289109996899</v>
       </c>
       <c r="L5">
-        <v>1.011282376718606</v>
+        <v>1.01240770097178</v>
       </c>
       <c r="M5">
-        <v>1.02500023809004</v>
+        <v>0.987639919185784</v>
       </c>
       <c r="N5">
-        <v>1.015908040349699</v>
+        <v>1.01661812504663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9959559301842357</v>
+        <v>0.9963560436854801</v>
       </c>
       <c r="D6">
-        <v>1.009589075196622</v>
+        <v>1.003641025812098</v>
       </c>
       <c r="E6">
-        <v>1.001892572774815</v>
+        <v>1.002744947855084</v>
       </c>
       <c r="F6">
-        <v>1.015838025516124</v>
+        <v>0.9778384074409709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048800585496287</v>
+        <v>1.044475337587798</v>
       </c>
       <c r="J6">
-        <v>1.014928634772105</v>
+        <v>1.015318736163983</v>
       </c>
       <c r="K6">
-        <v>1.019314171338699</v>
+        <v>1.013434679828226</v>
       </c>
       <c r="L6">
-        <v>1.011706571084603</v>
+        <v>1.012549017314564</v>
       </c>
       <c r="M6">
-        <v>1.02549216125202</v>
+        <v>0.9879414801797696</v>
       </c>
       <c r="N6">
-        <v>1.016369949847423</v>
+        <v>1.016760605228023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.992128981865641</v>
+        <v>0.9948043123038305</v>
       </c>
       <c r="D7">
-        <v>1.00594559082506</v>
+        <v>1.002362160005146</v>
       </c>
       <c r="E7">
-        <v>0.9986535728954936</v>
+        <v>1.001495556032086</v>
       </c>
       <c r="F7">
-        <v>1.012129450163292</v>
+        <v>0.9754571844508376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047944454601156</v>
+        <v>1.04408608186731</v>
       </c>
       <c r="J7">
-        <v>1.011730029537442</v>
+        <v>1.014335724867505</v>
       </c>
       <c r="K7">
-        <v>1.015969806024687</v>
+        <v>1.012429167285004</v>
       </c>
       <c r="L7">
-        <v>1.008765268376984</v>
+        <v>1.011572969052296</v>
       </c>
       <c r="M7">
-        <v>1.02208070177776</v>
+        <v>0.9858580272728958</v>
       </c>
       <c r="N7">
-        <v>1.013166802226442</v>
+        <v>1.01577619794275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9752830123228806</v>
+        <v>0.9881487418888265</v>
       </c>
       <c r="D8">
-        <v>0.9899170774120978</v>
+        <v>0.9968868619684885</v>
       </c>
       <c r="E8">
-        <v>0.9844153603116271</v>
+        <v>0.9961493114692844</v>
       </c>
       <c r="F8">
-        <v>0.9958045685495172</v>
+        <v>0.9652200125653931</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044108869500337</v>
+        <v>1.042376595073782</v>
       </c>
       <c r="J8">
-        <v>0.9976333318709675</v>
+        <v>1.010106399844295</v>
       </c>
       <c r="K8">
-        <v>1.001235382995048</v>
+        <v>1.008109168476043</v>
       </c>
       <c r="L8">
-        <v>0.9958106572984183</v>
+        <v>1.007381696667355</v>
       </c>
       <c r="M8">
-        <v>1.007041671137092</v>
+        <v>0.9768926624169962</v>
       </c>
       <c r="N8">
-        <v>0.9990500856323669</v>
+        <v>1.011540866792897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9415700979351173</v>
+        <v>0.9757177708618386</v>
       </c>
       <c r="D9">
-        <v>0.957897703979985</v>
+        <v>0.9867019661154072</v>
       </c>
       <c r="E9">
-        <v>0.9560229033385333</v>
+        <v>0.9862160525618494</v>
       </c>
       <c r="F9">
-        <v>0.9631554168913314</v>
+        <v>0.9459712633593905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036187626437643</v>
+        <v>1.039034113517285</v>
       </c>
       <c r="J9">
-        <v>0.9693694165324607</v>
+        <v>1.002158131149996</v>
       </c>
       <c r="K9">
-        <v>0.971712910037547</v>
+        <v>1.000014543305513</v>
       </c>
       <c r="L9">
-        <v>0.9698721906409355</v>
+        <v>0.999536794884552</v>
       </c>
       <c r="M9">
-        <v>0.9768759642268156</v>
+        <v>0.9600062831972147</v>
       </c>
       <c r="N9">
-        <v>0.9707460322921624</v>
+        <v>1.003581310645374</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9152794640667431</v>
+        <v>0.9668900181229196</v>
       </c>
       <c r="D10">
-        <v>0.9329928572399611</v>
+        <v>0.9795009468746149</v>
       </c>
       <c r="E10">
-        <v>0.9339838911934698</v>
+        <v>0.9792014011457267</v>
       </c>
       <c r="F10">
-        <v>0.9377376510872326</v>
+        <v>0.9321741400496698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029868515879305</v>
+        <v>1.03656316619153</v>
       </c>
       <c r="J10">
-        <v>0.9473102175534605</v>
+        <v>0.9964817948216957</v>
       </c>
       <c r="K10">
-        <v>0.9486873745726482</v>
+        <v>0.9942504515899785</v>
       </c>
       <c r="L10">
-        <v>0.9496569687283626</v>
+        <v>0.9939566167407003</v>
       </c>
       <c r="M10">
-        <v>0.9533300651943384</v>
+        <v>0.9478864149759395</v>
       </c>
       <c r="N10">
-        <v>0.9486555067203872</v>
+        <v>0.9978969132684019</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9026158194897176</v>
+        <v>0.9629220662823417</v>
       </c>
       <c r="D11">
-        <v>0.9210205644945297</v>
+        <v>0.976272538476583</v>
       </c>
       <c r="E11">
-        <v>0.9234030938603768</v>
+        <v>0.9760587058780268</v>
       </c>
       <c r="F11">
-        <v>0.9255144270810616</v>
+        <v>0.9259313738511269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026800289333511</v>
+        <v>1.035430388127351</v>
       </c>
       <c r="J11">
-        <v>0.9366870050099322</v>
+        <v>0.9939230321451248</v>
       </c>
       <c r="K11">
-        <v>0.9376032221137721</v>
+        <v>0.9916562348108996</v>
       </c>
       <c r="L11">
-        <v>0.9399300874531386</v>
+        <v>0.9914466981460949</v>
       </c>
       <c r="M11">
-        <v>0.9419924129782399</v>
+        <v>0.942399717025181</v>
       </c>
       <c r="N11">
-        <v>0.9380172079965474</v>
+        <v>0.9953345168553364</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8976724905856412</v>
+        <v>0.9614246760555678</v>
       </c>
       <c r="D12">
-        <v>0.9163517007191309</v>
+        <v>0.9750555595561321</v>
       </c>
       <c r="E12">
-        <v>0.9192793233193389</v>
+        <v>0.9748743764663359</v>
       </c>
       <c r="F12">
-        <v>0.9207472023221632</v>
+        <v>0.9235682771638478</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025600045224878</v>
+        <v>1.034999672636345</v>
       </c>
       <c r="J12">
-        <v>0.9325413198559187</v>
+        <v>0.9929563464408326</v>
       </c>
       <c r="K12">
-        <v>0.9332783941494982</v>
+        <v>0.990676784258413</v>
       </c>
       <c r="L12">
-        <v>0.9361356053853672</v>
+        <v>0.9904993114977682</v>
       </c>
       <c r="M12">
-        <v>0.9375684069848924</v>
+        <v>0.9403224871908867</v>
       </c>
       <c r="N12">
-        <v>0.9338656354940983</v>
+        <v>0.9943664583464631</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8987446499444075</v>
+        <v>0.9617469641581434</v>
       </c>
       <c r="D13">
-        <v>0.9173641052239241</v>
+        <v>0.9753174325832582</v>
       </c>
       <c r="E13">
-        <v>0.9201734116994268</v>
+        <v>0.9751292083100139</v>
       </c>
       <c r="F13">
-        <v>0.9217809551891626</v>
+        <v>0.9240772405815217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025860458580044</v>
+        <v>1.035092521701968</v>
       </c>
       <c r="J13">
-        <v>0.9334404103509986</v>
+        <v>0.9931644579297767</v>
       </c>
       <c r="K13">
-        <v>0.9342163014689522</v>
+        <v>0.9908876151587743</v>
       </c>
       <c r="L13">
-        <v>0.9369584625827033</v>
+        <v>0.9907032296692301</v>
       </c>
       <c r="M13">
-        <v>0.9385278309249393</v>
+        <v>0.9407698938867441</v>
       </c>
       <c r="N13">
-        <v>0.9347660028008083</v>
+        <v>0.9945748653775927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9022124267689179</v>
+        <v>0.9627987815113924</v>
       </c>
       <c r="D14">
-        <v>0.9206394699888647</v>
+        <v>0.9761723134157921</v>
       </c>
       <c r="E14">
-        <v>0.9230664407499194</v>
+        <v>0.9759611627115566</v>
       </c>
       <c r="F14">
-        <v>0.925125312947755</v>
+        <v>0.925736966811202</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026702388583905</v>
+        <v>1.035394991205452</v>
       </c>
       <c r="J14">
-        <v>0.9363486740546415</v>
+        <v>0.9938434638009668</v>
       </c>
       <c r="K14">
-        <v>0.937250255940561</v>
+        <v>0.9915756029309923</v>
       </c>
       <c r="L14">
-        <v>0.9396203888835905</v>
+        <v>0.9913687010231248</v>
       </c>
       <c r="M14">
-        <v>0.9416313565632917</v>
+        <v>0.942228833759339</v>
       </c>
       <c r="N14">
-        <v>0.9376783965724933</v>
+        <v>0.9952548355150033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9043155833285563</v>
+        <v>0.963443672020918</v>
       </c>
       <c r="D15">
-        <v>0.9226265619613115</v>
+        <v>0.9766966353832436</v>
       </c>
       <c r="E15">
-        <v>0.9248219083935897</v>
+        <v>0.9764714683919965</v>
       </c>
       <c r="F15">
-        <v>0.9271542014174612</v>
+        <v>0.9267535888262435</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027212716326635</v>
+        <v>1.035580017786889</v>
       </c>
       <c r="J15">
-        <v>0.938112671627445</v>
+        <v>0.9942596340269128</v>
       </c>
       <c r="K15">
-        <v>0.9390905890305095</v>
+        <v>0.9919973615069703</v>
       </c>
       <c r="L15">
-        <v>0.9412351599893688</v>
+        <v>0.991776687752088</v>
       </c>
       <c r="M15">
-        <v>0.9435138619663275</v>
+        <v>0.9431224289549662</v>
       </c>
       <c r="N15">
-        <v>0.9394448992241834</v>
+        <v>0.9956715967504051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.916089301343779</v>
+        <v>0.9671501553635607</v>
       </c>
       <c r="D16">
-        <v>0.9337590378424241</v>
+        <v>0.9797127794244042</v>
       </c>
       <c r="E16">
-        <v>0.9346613277964729</v>
+        <v>0.9794076556816481</v>
       </c>
       <c r="F16">
-        <v>0.9385198135851955</v>
+        <v>0.9325824719332165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030064321324729</v>
+        <v>1.036636978673963</v>
       </c>
       <c r="J16">
-        <v>0.9479896750742395</v>
+        <v>0.9966493957252963</v>
       </c>
       <c r="K16">
-        <v>0.949396408224032</v>
+        <v>0.9944204608855666</v>
       </c>
       <c r="L16">
-        <v>0.9502792767083948</v>
+        <v>0.9941211339191687</v>
       </c>
       <c r="M16">
-        <v>0.9540552679554581</v>
+        <v>0.9482452423975802</v>
       </c>
       <c r="N16">
-        <v>0.9493359291487807</v>
+        <v>0.9980647521845099</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9231037499409122</v>
+        <v>0.9694350695143925</v>
       </c>
       <c r="D17">
-        <v>0.9403980311314374</v>
+        <v>0.9815743638059883</v>
       </c>
       <c r="E17">
-        <v>0.9405328884594043</v>
+        <v>0.9812204669958244</v>
       </c>
       <c r="F17">
-        <v>0.9452968270105981</v>
+        <v>0.9361642787845607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031757734575242</v>
+        <v>1.037282815002313</v>
       </c>
       <c r="J17">
-        <v>0.9538751414258748</v>
+        <v>0.9981206900238017</v>
       </c>
       <c r="K17">
-        <v>0.9555385514187755</v>
+        <v>0.9959133628383978</v>
       </c>
       <c r="L17">
-        <v>0.9556706324689489</v>
+        <v>0.9955659814236306</v>
       </c>
       <c r="M17">
-        <v>0.9603371665444621</v>
+        <v>0.9513924959257306</v>
       </c>
       <c r="N17">
-        <v>0.9552297535377077</v>
+        <v>0.9995381358896791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9270755954749023</v>
+        <v>0.970753906110523</v>
       </c>
       <c r="D18">
-        <v>0.9441593589750099</v>
+        <v>0.9826496400625283</v>
       </c>
       <c r="E18">
-        <v>0.9438606498658043</v>
+        <v>0.9822677742888866</v>
       </c>
       <c r="F18">
-        <v>0.9491359445896322</v>
+        <v>0.938227867542796</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032714318735132</v>
+        <v>1.037653494401853</v>
       </c>
       <c r="J18">
-        <v>0.9572078562427188</v>
+        <v>0.9989692183924606</v>
       </c>
       <c r="K18">
-        <v>0.9590170070210674</v>
+        <v>0.9967747384363215</v>
       </c>
       <c r="L18">
-        <v>0.9587242904527692</v>
+        <v>0.9963997737548419</v>
       </c>
       <c r="M18">
-        <v>0.9638944839897561</v>
+        <v>0.9532054517990725</v>
       </c>
       <c r="N18">
-        <v>0.9585672011918589</v>
+        <v>1.000387869265949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9284107822637186</v>
+        <v>0.9712012825766072</v>
       </c>
       <c r="D19">
-        <v>0.9454241066049781</v>
+        <v>0.9830145264774417</v>
       </c>
       <c r="E19">
-        <v>0.9449798093520227</v>
+        <v>0.9826232036850709</v>
       </c>
       <c r="F19">
-        <v>0.9504267767652349</v>
+        <v>0.9389272633224499</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033035471168694</v>
+        <v>1.037778878970127</v>
       </c>
       <c r="J19">
-        <v>0.958328196135086</v>
+        <v>0.9992569385939856</v>
       </c>
       <c r="K19">
-        <v>0.9601864049673103</v>
+        <v>0.9970668799556146</v>
       </c>
       <c r="L19">
-        <v>0.9597509429148458</v>
+        <v>0.9966825842943722</v>
       </c>
       <c r="M19">
-        <v>0.9650903412765245</v>
+        <v>0.9538198535474168</v>
       </c>
       <c r="N19">
-        <v>0.9596891320953781</v>
+        <v>1.000675998063162</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9223638204163487</v>
+        <v>0.9691913705855919</v>
       </c>
       <c r="D20">
-        <v>0.939697483682567</v>
+        <v>0.9813757335773307</v>
       </c>
       <c r="E20">
-        <v>0.9399131904869515</v>
+        <v>0.9810270196542252</v>
       </c>
       <c r="F20">
-        <v>0.9445817572288342</v>
+        <v>0.9357826613166645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031579335251552</v>
+        <v>1.037214149681923</v>
       </c>
       <c r="J20">
-        <v>0.9532542847441756</v>
+        <v>0.9979638400017914</v>
       </c>
       <c r="K20">
-        <v>0.9548905762538216</v>
+        <v>0.9957541691481726</v>
       </c>
       <c r="L20">
-        <v>0.9551018211422774</v>
+        <v>0.9954118970291375</v>
       </c>
       <c r="M20">
-        <v>0.9596744764370375</v>
+        <v>0.9510572049698204</v>
       </c>
       <c r="N20">
-        <v>0.954608015168307</v>
+        <v>0.9993810631226463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9011983352422589</v>
+        <v>0.962489710928315</v>
       </c>
       <c r="D21">
-        <v>0.9196815113328839</v>
+        <v>0.9759210743620911</v>
       </c>
       <c r="E21">
-        <v>0.9222202351083388</v>
+        <v>0.9757166520049494</v>
       </c>
       <c r="F21">
-        <v>0.9241471878904312</v>
+        <v>0.9252494744950271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026456239164095</v>
+        <v>1.035306200561766</v>
       </c>
       <c r="J21">
-        <v>0.9354981633053909</v>
+        <v>0.9936439713961687</v>
       </c>
       <c r="K21">
-        <v>0.9363629666147777</v>
+        <v>0.9913734542224359</v>
       </c>
       <c r="L21">
-        <v>0.9388418785991078</v>
+        <v>0.9911731616418366</v>
       </c>
       <c r="M21">
-        <v>0.9407237264044528</v>
+        <v>0.9418003243590803</v>
       </c>
       <c r="N21">
-        <v>0.9368266780004237</v>
+        <v>0.9950550598081076</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8864661457822934</v>
+        <v>0.9581390927402572</v>
       </c>
       <c r="D22">
-        <v>0.9057776511990664</v>
+        <v>0.9723877911572623</v>
       </c>
       <c r="E22">
-        <v>0.9099449242546555</v>
+        <v>0.9722788219944748</v>
       </c>
       <c r="F22">
-        <v>0.909949670996286</v>
+        <v>0.9183684584325509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022876005880642</v>
+        <v>1.034048726250238</v>
       </c>
       <c r="J22">
-        <v>0.9231465721959982</v>
+        <v>0.9908332612377218</v>
       </c>
       <c r="K22">
-        <v>0.9234791704196877</v>
+        <v>0.9885268408127849</v>
       </c>
       <c r="L22">
-        <v>0.9275396167766122</v>
+        <v>0.9884201962478794</v>
       </c>
       <c r="M22">
-        <v>0.927544242590998</v>
+        <v>0.9357512053172654</v>
       </c>
       <c r="N22">
-        <v>0.9244575462149083</v>
+        <v>0.9922403581188427</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.894432142090272</v>
+        <v>0.9604590291907863</v>
       </c>
       <c r="D23">
-        <v>0.9132927203282671</v>
+        <v>0.9742711304605413</v>
       </c>
       <c r="E23">
-        <v>0.9165782303263026</v>
+        <v>0.9741110898498366</v>
       </c>
       <c r="F23">
-        <v>0.9176236591653124</v>
+        <v>0.9220421544745869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024812743377465</v>
+        <v>1.034721008373138</v>
       </c>
       <c r="J23">
-        <v>0.9298242806910337</v>
+        <v>0.9923326406610214</v>
       </c>
       <c r="K23">
-        <v>0.9304441664553311</v>
+        <v>0.9900450218488724</v>
       </c>
       <c r="L23">
-        <v>0.9336491651023946</v>
+        <v>0.9898882987287383</v>
       </c>
       <c r="M23">
-        <v>0.9346691382998716</v>
+        <v>0.938980901501809</v>
       </c>
       <c r="N23">
-        <v>0.9311447378219506</v>
+        <v>0.9937418668329049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9226985288611546</v>
+        <v>0.9693015305210805</v>
       </c>
       <c r="D24">
-        <v>0.9400143711376244</v>
+        <v>0.9814655185534563</v>
       </c>
       <c r="E24">
-        <v>0.9401935024786068</v>
+        <v>0.9811144612292071</v>
       </c>
       <c r="F24">
-        <v>0.9449052150326533</v>
+        <v>0.9359551767032968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031660041746607</v>
+        <v>1.037245195168932</v>
       </c>
       <c r="J24">
-        <v>0.9535351299866048</v>
+        <v>0.9980347435242936</v>
       </c>
       <c r="K24">
-        <v>0.9551836873444673</v>
+        <v>0.9958261309215782</v>
       </c>
       <c r="L24">
-        <v>0.9553591213064581</v>
+        <v>0.995481548757022</v>
       </c>
       <c r="M24">
-        <v>0.9599742447258444</v>
+        <v>0.9512087786804511</v>
       </c>
       <c r="N24">
-        <v>0.9548892592431938</v>
+        <v>0.9994520673362834</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9508592959083789</v>
+        <v>0.9790213677241534</v>
       </c>
       <c r="D25">
-        <v>0.9667116820679658</v>
+        <v>0.9894034892621275</v>
       </c>
       <c r="E25">
-        <v>0.9638319659454414</v>
+        <v>0.9888494264007026</v>
       </c>
       <c r="F25">
-        <v>0.972146785568763</v>
+        <v>0.951105404339888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038395658329206</v>
+        <v>1.039939351251722</v>
       </c>
       <c r="J25">
-        <v>0.9771616821152282</v>
+        <v>1.004275976581201</v>
       </c>
       <c r="K25">
-        <v>0.9798497154882628</v>
+        <v>1.002168560272143</v>
       </c>
       <c r="L25">
-        <v>0.9770189522731088</v>
+        <v>1.001623342613214</v>
       </c>
       <c r="M25">
-        <v>0.9851934446810034</v>
+        <v>0.964513335513639</v>
       </c>
       <c r="N25">
-        <v>0.9785493637858433</v>
+        <v>1.005702163660011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9863898917706704</v>
+        <v>1.021515063812823</v>
       </c>
       <c r="D2">
-        <v>0.9954425582138616</v>
+        <v>1.023273863702165</v>
       </c>
       <c r="E2">
-        <v>0.9947397984884502</v>
+        <v>1.022383319796544</v>
       </c>
       <c r="F2">
-        <v>0.9625074576881734</v>
+        <v>1.019947287561612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041914787556762</v>
+        <v>1.028946112253071</v>
       </c>
       <c r="J2">
-        <v>1.008985441542897</v>
+        <v>1.026706097584582</v>
       </c>
       <c r="K2">
-        <v>1.006965752725862</v>
+        <v>1.026105784809271</v>
       </c>
       <c r="L2">
-        <v>1.006272906004609</v>
+        <v>1.025217862320743</v>
       </c>
       <c r="M2">
-        <v>0.9745150723925796</v>
+        <v>1.022789026279868</v>
       </c>
       <c r="N2">
-        <v>1.010418316602135</v>
+        <v>1.028164138007989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9915399064181722</v>
+        <v>1.022549113817173</v>
       </c>
       <c r="D3">
-        <v>0.9996746591938626</v>
+        <v>1.024168149069848</v>
       </c>
       <c r="E3">
-        <v>0.998870829407943</v>
+        <v>1.023261920115625</v>
       </c>
       <c r="F3">
-        <v>0.9704411837847158</v>
+        <v>1.021621363779628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04325541905623</v>
+        <v>1.029103721808994</v>
       </c>
       <c r="J3">
-        <v>1.012263889527483</v>
+        <v>1.027377359477933</v>
       </c>
       <c r="K3">
-        <v>1.010311704509552</v>
+        <v>1.026806675667701</v>
       </c>
       <c r="L3">
-        <v>1.00951817860028</v>
+        <v>1.025902920499346</v>
       </c>
       <c r="M3">
-        <v>0.981466787637352</v>
+        <v>1.02426685457582</v>
       </c>
       <c r="N3">
-        <v>1.013701420358903</v>
+        <v>1.028836353170221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9947862631749612</v>
+        <v>1.023217414583669</v>
       </c>
       <c r="D4">
-        <v>1.002347289951847</v>
+        <v>1.024746389729723</v>
       </c>
       <c r="E4">
-        <v>1.001481030214162</v>
+        <v>1.02383014941081</v>
       </c>
       <c r="F4">
-        <v>0.9754294756257011</v>
+        <v>1.022703640087793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044081532448849</v>
+        <v>1.029203216583911</v>
       </c>
       <c r="J4">
-        <v>1.014324283743395</v>
+        <v>1.027810370383511</v>
       </c>
       <c r="K4">
-        <v>1.012417467567448</v>
+        <v>1.027259150795972</v>
       </c>
       <c r="L4">
-        <v>1.011561613311689</v>
+        <v>1.026345285075286</v>
       </c>
       <c r="M4">
-        <v>0.9858337787830169</v>
+        <v>1.025221701594134</v>
       </c>
       <c r="N4">
-        <v>1.015764740570932</v>
+        <v>1.029269979000952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9961313311145422</v>
+        <v>1.02349817832584</v>
       </c>
       <c r="D5">
-        <v>1.003455773029718</v>
+        <v>1.024989381707334</v>
       </c>
       <c r="E5">
-        <v>1.00256394843974</v>
+        <v>1.02406896551708</v>
       </c>
       <c r="F5">
-        <v>0.9774936904236532</v>
+        <v>1.023158406189097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044419199134826</v>
+        <v>1.029244448131391</v>
       </c>
       <c r="J5">
-        <v>1.015176458033855</v>
+        <v>1.027992088016269</v>
       </c>
       <c r="K5">
-        <v>1.013289109996899</v>
+        <v>1.02744912107265</v>
       </c>
       <c r="L5">
-        <v>1.01240770097178</v>
+        <v>1.026531036937478</v>
       </c>
       <c r="M5">
-        <v>0.987639919185784</v>
+        <v>1.025622789140283</v>
       </c>
       <c r="N5">
-        <v>1.01661812504663</v>
+        <v>1.029451954693593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9963560436854801</v>
+        <v>1.023545308695645</v>
       </c>
       <c r="D6">
-        <v>1.003641025812098</v>
+        <v>1.025030175258717</v>
       </c>
       <c r="E6">
-        <v>1.002744947855084</v>
+        <v>1.024109059847767</v>
       </c>
       <c r="F6">
-        <v>0.9778384074409709</v>
+        <v>1.023234750572201</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044475337587798</v>
+        <v>1.029251336131975</v>
       </c>
       <c r="J6">
-        <v>1.015318736163983</v>
+        <v>1.028022580453903</v>
       </c>
       <c r="K6">
-        <v>1.013434679828226</v>
+        <v>1.027481003260905</v>
       </c>
       <c r="L6">
-        <v>1.012549017314564</v>
+        <v>1.026562212713245</v>
       </c>
       <c r="M6">
-        <v>0.9879414801797696</v>
+        <v>1.025690114336436</v>
       </c>
       <c r="N6">
-        <v>1.016760605228023</v>
+        <v>1.029482490433985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9948043123038305</v>
+        <v>1.023221166907109</v>
       </c>
       <c r="D7">
-        <v>1.002362160005146</v>
+        <v>1.024749636994233</v>
       </c>
       <c r="E7">
-        <v>1.001495556032086</v>
+        <v>1.023833340747959</v>
       </c>
       <c r="F7">
-        <v>0.9754571844508376</v>
+        <v>1.022709717560907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04408608186731</v>
+        <v>1.029203769864184</v>
       </c>
       <c r="J7">
-        <v>1.014335724867505</v>
+        <v>1.027812799760506</v>
       </c>
       <c r="K7">
-        <v>1.012429167285004</v>
+        <v>1.027261690170713</v>
       </c>
       <c r="L7">
-        <v>1.011572969052296</v>
+        <v>1.026347767957482</v>
       </c>
       <c r="M7">
-        <v>0.9858580272728958</v>
+        <v>1.025227062234613</v>
       </c>
       <c r="N7">
-        <v>1.01577619794275</v>
+        <v>1.029272411827942</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9881487418888265</v>
+        <v>1.021864692035658</v>
       </c>
       <c r="D8">
-        <v>0.9968868619684885</v>
+        <v>1.023576179314074</v>
       </c>
       <c r="E8">
-        <v>0.9961493114692844</v>
+        <v>1.022680305951224</v>
       </c>
       <c r="F8">
-        <v>0.9652200125653931</v>
+        <v>1.020513253472642</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042376595073782</v>
+        <v>1.028999892450378</v>
       </c>
       <c r="J8">
-        <v>1.010106399844295</v>
+        <v>1.026933231685321</v>
       </c>
       <c r="K8">
-        <v>1.008109168476043</v>
+        <v>1.026342871578539</v>
       </c>
       <c r="L8">
-        <v>1.007381696667355</v>
+        <v>1.025449570517039</v>
       </c>
       <c r="M8">
-        <v>0.9768926624169962</v>
+        <v>1.023288760541173</v>
       </c>
       <c r="N8">
-        <v>1.011540866792897</v>
+        <v>1.028391594665202</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9757177708618386</v>
+        <v>1.019468232199361</v>
       </c>
       <c r="D9">
-        <v>0.9867019661154072</v>
+        <v>1.021505139290784</v>
       </c>
       <c r="E9">
-        <v>0.9862160525618494</v>
+        <v>1.020646314843734</v>
       </c>
       <c r="F9">
-        <v>0.9459712633593905</v>
+        <v>1.016635083205301</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039034113517285</v>
+        <v>1.028621575927863</v>
       </c>
       <c r="J9">
-        <v>1.002158131149996</v>
+        <v>1.025373019356986</v>
       </c>
       <c r="K9">
-        <v>1.000014543305513</v>
+        <v>1.024715737681574</v>
       </c>
       <c r="L9">
-        <v>0.999536794884552</v>
+        <v>1.023859805470929</v>
       </c>
       <c r="M9">
-        <v>0.9600062831972147</v>
+        <v>1.019862153449528</v>
       </c>
       <c r="N9">
-        <v>1.003581310645374</v>
+        <v>1.026829166656403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9668900181229196</v>
+        <v>1.01786635002673</v>
       </c>
       <c r="D10">
-        <v>0.9795009468746149</v>
+        <v>1.020122213196972</v>
       </c>
       <c r="E10">
-        <v>0.9792014011457267</v>
+        <v>1.019288808521223</v>
       </c>
       <c r="F10">
-        <v>0.9321741400496698</v>
+        <v>1.01404396134186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03656316619153</v>
+        <v>1.028356555664771</v>
       </c>
       <c r="J10">
-        <v>0.9964817948216957</v>
+        <v>1.024325899479398</v>
       </c>
       <c r="K10">
-        <v>0.9942504515899785</v>
+        <v>1.023625517246087</v>
       </c>
       <c r="L10">
-        <v>0.9939566167407003</v>
+        <v>1.022795196371548</v>
       </c>
       <c r="M10">
-        <v>0.9478864149759395</v>
+        <v>1.017569885180381</v>
       </c>
       <c r="N10">
-        <v>0.9978969132684019</v>
+        <v>1.025780559748482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9629220662823417</v>
+        <v>1.017171690162111</v>
       </c>
       <c r="D11">
-        <v>0.976272538476583</v>
+        <v>1.019522850633648</v>
       </c>
       <c r="E11">
-        <v>0.9760587058780268</v>
+        <v>1.018700625476876</v>
       </c>
       <c r="F11">
-        <v>0.9259313738511269</v>
+        <v>1.012920522416004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035430388127351</v>
+        <v>1.028238760882324</v>
       </c>
       <c r="J11">
-        <v>0.9939230321451248</v>
+        <v>1.023870817047414</v>
       </c>
       <c r="K11">
-        <v>0.9916562348108996</v>
+        <v>1.02315213215941</v>
       </c>
       <c r="L11">
-        <v>0.9914466981460949</v>
+        <v>1.022333068180679</v>
       </c>
       <c r="M11">
-        <v>0.942399717025181</v>
+        <v>1.016575348495206</v>
       </c>
       <c r="N11">
-        <v>0.9953345168553364</v>
+        <v>1.025324831047245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9614246760555678</v>
+        <v>1.016913505220619</v>
       </c>
       <c r="D12">
-        <v>0.9750555595561321</v>
+        <v>1.019300137541749</v>
       </c>
       <c r="E12">
-        <v>0.9748743764663359</v>
+        <v>1.018482091026367</v>
       </c>
       <c r="F12">
-        <v>0.9235682771638478</v>
+        <v>1.0125029974856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034999672636345</v>
+        <v>1.028194549937481</v>
       </c>
       <c r="J12">
-        <v>0.9929563464408326</v>
+        <v>1.023701526652524</v>
       </c>
       <c r="K12">
-        <v>0.990676784258413</v>
+        <v>1.022976097570714</v>
       </c>
       <c r="L12">
-        <v>0.9904993114977682</v>
+        <v>1.022161240102123</v>
       </c>
       <c r="M12">
-        <v>0.9403224871908867</v>
+        <v>1.016205629207559</v>
       </c>
       <c r="N12">
-        <v>0.9943664583464631</v>
+        <v>1.025155300240577</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9617469641581434</v>
+        <v>1.016968893918378</v>
       </c>
       <c r="D13">
-        <v>0.9753174325832582</v>
+        <v>1.019347914035834</v>
       </c>
       <c r="E13">
-        <v>0.9751292083100139</v>
+        <v>1.018528970005685</v>
       </c>
       <c r="F13">
-        <v>0.9240772405815217</v>
+        <v>1.012592568546764</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035092521701968</v>
+        <v>1.028204054004515</v>
       </c>
       <c r="J13">
-        <v>0.9931644579297767</v>
+        <v>1.023737851463767</v>
       </c>
       <c r="K13">
-        <v>0.9908876151587743</v>
+        <v>1.02301386657867</v>
       </c>
       <c r="L13">
-        <v>0.9907032296692301</v>
+        <v>1.022198105657418</v>
       </c>
       <c r="M13">
-        <v>0.9407698938867441</v>
+        <v>1.01628494914246</v>
       </c>
       <c r="N13">
-        <v>0.9945748653775927</v>
+        <v>1.025191676637218</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9627987815113924</v>
+        <v>1.017150351735295</v>
       </c>
       <c r="D14">
-        <v>0.9761723134157921</v>
+        <v>1.019504442802398</v>
       </c>
       <c r="E14">
-        <v>0.9759611627115566</v>
+        <v>1.018682562520783</v>
       </c>
       <c r="F14">
-        <v>0.925736966811202</v>
+        <v>1.012886014415482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035394991205452</v>
+        <v>1.028235115709398</v>
       </c>
       <c r="J14">
-        <v>0.9938434638009668</v>
+        <v>1.023856828609011</v>
       </c>
       <c r="K14">
-        <v>0.9915756029309923</v>
+        <v>1.023137585136958</v>
       </c>
       <c r="L14">
-        <v>0.9913687010231248</v>
+        <v>1.022318868355026</v>
       </c>
       <c r="M14">
-        <v>0.942228833759339</v>
+        <v>1.016544793634385</v>
       </c>
       <c r="N14">
-        <v>0.9952548355150033</v>
+        <v>1.025310822743656</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.963443672020918</v>
+        <v>1.017262132977724</v>
       </c>
       <c r="D15">
-        <v>0.9766966353832436</v>
+        <v>1.019600874291557</v>
       </c>
       <c r="E15">
-        <v>0.9764714683919965</v>
+        <v>1.018777188347295</v>
       </c>
       <c r="F15">
-        <v>0.9267535888262435</v>
+        <v>1.013066785380264</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035580017786889</v>
+        <v>1.028254193328002</v>
       </c>
       <c r="J15">
-        <v>0.9942596340269128</v>
+        <v>1.023930100856881</v>
       </c>
       <c r="K15">
-        <v>0.9919973615069703</v>
+        <v>1.02321378591497</v>
       </c>
       <c r="L15">
-        <v>0.991776687752088</v>
+        <v>1.022393251271845</v>
       </c>
       <c r="M15">
-        <v>0.9431224289549662</v>
+        <v>1.016704851861683</v>
       </c>
       <c r="N15">
-        <v>0.9956715967504051</v>
+        <v>1.025384199046522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9671501553635607</v>
+        <v>1.017912430357017</v>
       </c>
       <c r="D16">
-        <v>0.9797127794244042</v>
+        <v>1.020161979314212</v>
       </c>
       <c r="E16">
-        <v>0.9794076556816481</v>
+        <v>1.019327836338853</v>
       </c>
       <c r="F16">
-        <v>0.9325824719332165</v>
+        <v>1.014118488591654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036636978673963</v>
+        <v>1.028364309274398</v>
       </c>
       <c r="J16">
-        <v>0.9966493957252963</v>
+        <v>1.024356066457508</v>
       </c>
       <c r="K16">
-        <v>0.9944204608855666</v>
+        <v>1.023656906509335</v>
       </c>
       <c r="L16">
-        <v>0.9941211339191687</v>
+        <v>1.02282584207953</v>
       </c>
       <c r="M16">
-        <v>0.9482452423975802</v>
+        <v>1.01763584711323</v>
       </c>
       <c r="N16">
-        <v>0.9980647521845099</v>
+        <v>1.02581076956716</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9694350695143925</v>
+        <v>1.018320066442804</v>
       </c>
       <c r="D17">
-        <v>0.9815743638059883</v>
+        <v>1.020513798637682</v>
       </c>
       <c r="E17">
-        <v>0.9812204669958244</v>
+        <v>1.019673142549138</v>
       </c>
       <c r="F17">
-        <v>0.9361642787845607</v>
+        <v>1.014777795086813</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037282815002313</v>
+        <v>1.028432568334539</v>
       </c>
       <c r="J17">
-        <v>0.9981206900238017</v>
+        <v>1.024622814760533</v>
       </c>
       <c r="K17">
-        <v>0.9959133628383978</v>
+        <v>1.023934512195959</v>
       </c>
       <c r="L17">
-        <v>0.9955659814236306</v>
+        <v>1.023096887498592</v>
       </c>
       <c r="M17">
-        <v>0.9513924959257306</v>
+        <v>1.018219302803868</v>
       </c>
       <c r="N17">
-        <v>0.9995381358896791</v>
+        <v>1.026077896683373</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.970753906110523</v>
+        <v>1.018557734012834</v>
       </c>
       <c r="D18">
-        <v>0.9826496400625283</v>
+        <v>1.020718956247082</v>
       </c>
       <c r="E18">
-        <v>0.9822677742888866</v>
+        <v>1.019874517812693</v>
       </c>
       <c r="F18">
-        <v>0.938227867542796</v>
+        <v>1.01516221659883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037653494401853</v>
+        <v>1.028472089453626</v>
       </c>
       <c r="J18">
-        <v>0.9989692183924606</v>
+        <v>1.02477824323471</v>
       </c>
       <c r="K18">
-        <v>0.9967747384363215</v>
+        <v>1.024096308341778</v>
       </c>
       <c r="L18">
-        <v>0.9963997737548419</v>
+        <v>1.023254873258976</v>
       </c>
       <c r="M18">
-        <v>0.9532054517990725</v>
+        <v>1.01855943317656</v>
       </c>
       <c r="N18">
-        <v>1.000387869265949</v>
+        <v>1.026233545883811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9712012825766072</v>
+        <v>1.018638755665812</v>
       </c>
       <c r="D19">
-        <v>0.9830145264774417</v>
+        <v>1.020788900790837</v>
       </c>
       <c r="E19">
-        <v>0.9826232036850709</v>
+        <v>1.019943175492955</v>
       </c>
       <c r="F19">
-        <v>0.9389272633224499</v>
+        <v>1.015293270799914</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037778878970127</v>
+        <v>1.028485515398635</v>
       </c>
       <c r="J19">
-        <v>0.9992569385939856</v>
+        <v>1.024831213005151</v>
       </c>
       <c r="K19">
-        <v>0.9970668799556146</v>
+        <v>1.024151455213306</v>
       </c>
       <c r="L19">
-        <v>0.9966825842943722</v>
+        <v>1.023308723616522</v>
       </c>
       <c r="M19">
-        <v>0.9538198535474168</v>
+        <v>1.018675376954946</v>
       </c>
       <c r="N19">
-        <v>1.000675998063162</v>
+        <v>1.026286590877401</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9691913705855919</v>
+        <v>1.018276341272244</v>
       </c>
       <c r="D20">
-        <v>0.9813757335773307</v>
+        <v>1.020476057208096</v>
       </c>
       <c r="E20">
-        <v>0.9810270196542252</v>
+        <v>1.019636098192455</v>
       </c>
       <c r="F20">
-        <v>0.9357826613166645</v>
+        <v>1.014707072374697</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037214149681923</v>
+        <v>1.028425275115223</v>
       </c>
       <c r="J20">
-        <v>0.9979638400017914</v>
+        <v>1.024594211885503</v>
       </c>
       <c r="K20">
-        <v>0.9957541691481726</v>
+        <v>1.023904740831896</v>
       </c>
       <c r="L20">
-        <v>0.9954118970291375</v>
+        <v>1.023067818322271</v>
       </c>
       <c r="M20">
-        <v>0.9510572049698204</v>
+        <v>1.018156723188046</v>
       </c>
       <c r="N20">
-        <v>0.9993810631226463</v>
+        <v>1.026049253188979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.962489710928315</v>
+        <v>1.017096921289978</v>
       </c>
       <c r="D21">
-        <v>0.9759210743620911</v>
+        <v>1.019458351285932</v>
       </c>
       <c r="E21">
-        <v>0.9757166520049494</v>
+        <v>1.018637334936388</v>
       </c>
       <c r="F21">
-        <v>0.9252494744950271</v>
+        <v>1.012799608337833</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035306200561766</v>
+        <v>1.028225981420068</v>
       </c>
       <c r="J21">
-        <v>0.9936439713961687</v>
+        <v>1.023821799785838</v>
       </c>
       <c r="K21">
-        <v>0.9913734542224359</v>
+        <v>1.023101158587955</v>
       </c>
       <c r="L21">
-        <v>0.9911731616418366</v>
+        <v>1.022283311536887</v>
       </c>
       <c r="M21">
-        <v>0.9418003243590803</v>
+        <v>1.016468284368272</v>
       </c>
       <c r="N21">
-        <v>0.9950550598081076</v>
+        <v>1.025275744175536</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9581390927402572</v>
+        <v>1.016354461844577</v>
       </c>
       <c r="D22">
-        <v>0.9723877911572623</v>
+        <v>1.018817997564172</v>
       </c>
       <c r="E22">
-        <v>0.9722788219944748</v>
+        <v>1.018009042125687</v>
       </c>
       <c r="F22">
-        <v>0.9183684584325509</v>
+        <v>1.011598976339489</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034048726250238</v>
+        <v>1.028098035071606</v>
       </c>
       <c r="J22">
-        <v>0.9908332612377218</v>
+        <v>1.023334692030949</v>
       </c>
       <c r="K22">
-        <v>0.9885268408127849</v>
+        <v>1.022594766725152</v>
       </c>
       <c r="L22">
-        <v>0.9884201962478794</v>
+        <v>1.021789059011813</v>
       </c>
       <c r="M22">
-        <v>0.9357512053172654</v>
+        <v>1.015404932441854</v>
       </c>
       <c r="N22">
-        <v>0.9922403581188427</v>
+        <v>1.024787944671762</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9604590291907863</v>
+        <v>1.016748140680841</v>
       </c>
       <c r="D23">
-        <v>0.9742711304605413</v>
+        <v>1.019157507198113</v>
       </c>
       <c r="E23">
-        <v>0.9741110898498366</v>
+        <v>1.018342143691152</v>
       </c>
       <c r="F23">
-        <v>0.9220421544745869</v>
+        <v>1.012235583663137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034721008373138</v>
+        <v>1.028166112368706</v>
       </c>
       <c r="J23">
-        <v>0.9923326406610214</v>
+        <v>1.023593056027996</v>
       </c>
       <c r="K23">
-        <v>0.9900450218488724</v>
+        <v>1.022863323809365</v>
       </c>
       <c r="L23">
-        <v>0.9898882987287383</v>
+        <v>1.022051166944006</v>
       </c>
       <c r="M23">
-        <v>0.938980901501809</v>
+        <v>1.015968805326168</v>
       </c>
       <c r="N23">
-        <v>0.9937418668329049</v>
+        <v>1.025046675575321</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9693015305210805</v>
+        <v>1.01829609910266</v>
       </c>
       <c r="D24">
-        <v>0.9814655185534563</v>
+        <v>1.020493111098335</v>
       </c>
       <c r="E24">
-        <v>0.9811144612292071</v>
+        <v>1.019652837054043</v>
       </c>
       <c r="F24">
-        <v>0.9359551767032968</v>
+        <v>1.014739029358384</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037245195168932</v>
+        <v>1.028428571513214</v>
       </c>
       <c r="J24">
-        <v>0.9980347435242936</v>
+        <v>1.024607136791946</v>
       </c>
       <c r="K24">
-        <v>0.9958261309215782</v>
+        <v>1.023918193620901</v>
       </c>
       <c r="L24">
-        <v>0.995481548757022</v>
+        <v>1.023080953773099</v>
       </c>
       <c r="M24">
-        <v>0.9512087786804511</v>
+        <v>1.018185000807461</v>
       </c>
       <c r="N24">
-        <v>0.9994520673362834</v>
+        <v>1.026062196450272</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9790213677241534</v>
+        <v>1.020088515645946</v>
       </c>
       <c r="D25">
-        <v>0.9894034892621275</v>
+        <v>1.022040943110268</v>
       </c>
       <c r="E25">
-        <v>0.9888494264007026</v>
+        <v>1.021172414156683</v>
       </c>
       <c r="F25">
-        <v>0.951105404339888</v>
+        <v>1.017638647706223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039939351251722</v>
+        <v>1.028721637802818</v>
       </c>
       <c r="J25">
-        <v>1.004275976581201</v>
+        <v>1.025777597680652</v>
       </c>
       <c r="K25">
-        <v>1.002168560272143</v>
+        <v>1.025137350445669</v>
       </c>
       <c r="L25">
-        <v>1.001623342613214</v>
+        <v>1.024271634705388</v>
       </c>
       <c r="M25">
-        <v>0.964513335513639</v>
+        <v>1.020749368581536</v>
       </c>
       <c r="N25">
-        <v>1.005702163660011</v>
+        <v>1.027234319527694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021515063812823</v>
+        <v>0.9863898917706708</v>
       </c>
       <c r="D2">
-        <v>1.023273863702165</v>
+        <v>0.9954425582138621</v>
       </c>
       <c r="E2">
-        <v>1.022383319796544</v>
+        <v>0.9947397984884502</v>
       </c>
       <c r="F2">
-        <v>1.019947287561612</v>
+        <v>0.9625074576881735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028946112253071</v>
+        <v>1.041914787556763</v>
       </c>
       <c r="J2">
-        <v>1.026706097584582</v>
+        <v>1.008985441542897</v>
       </c>
       <c r="K2">
-        <v>1.026105784809271</v>
+        <v>1.006965752725863</v>
       </c>
       <c r="L2">
-        <v>1.025217862320743</v>
+        <v>1.006272906004609</v>
       </c>
       <c r="M2">
-        <v>1.022789026279868</v>
+        <v>0.9745150723925797</v>
       </c>
       <c r="N2">
-        <v>1.028164138007989</v>
+        <v>1.010418316602136</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022549113817173</v>
+        <v>0.9915399064181716</v>
       </c>
       <c r="D3">
-        <v>1.024168149069848</v>
+        <v>0.9996746591938619</v>
       </c>
       <c r="E3">
-        <v>1.023261920115625</v>
+        <v>0.9988708294079425</v>
       </c>
       <c r="F3">
-        <v>1.021621363779628</v>
+        <v>0.9704411837847153</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029103721808994</v>
+        <v>1.04325541905623</v>
       </c>
       <c r="J3">
-        <v>1.027377359477933</v>
+        <v>1.012263889527483</v>
       </c>
       <c r="K3">
-        <v>1.026806675667701</v>
+        <v>1.010311704509552</v>
       </c>
       <c r="L3">
-        <v>1.025902920499346</v>
+        <v>1.009518178600279</v>
       </c>
       <c r="M3">
-        <v>1.02426685457582</v>
+        <v>0.9814667876373515</v>
       </c>
       <c r="N3">
-        <v>1.028836353170221</v>
+        <v>1.013701420358903</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023217414583669</v>
+        <v>0.9947862631749612</v>
       </c>
       <c r="D4">
-        <v>1.024746389729723</v>
+        <v>1.002347289951847</v>
       </c>
       <c r="E4">
-        <v>1.02383014941081</v>
+        <v>1.001481030214162</v>
       </c>
       <c r="F4">
-        <v>1.022703640087793</v>
+        <v>0.9754294756257013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029203216583911</v>
+        <v>1.044081532448849</v>
       </c>
       <c r="J4">
-        <v>1.027810370383511</v>
+        <v>1.014324283743395</v>
       </c>
       <c r="K4">
-        <v>1.027259150795972</v>
+        <v>1.012417467567448</v>
       </c>
       <c r="L4">
-        <v>1.026345285075286</v>
+        <v>1.011561613311689</v>
       </c>
       <c r="M4">
-        <v>1.025221701594134</v>
+        <v>0.9858337787830171</v>
       </c>
       <c r="N4">
-        <v>1.029269979000952</v>
+        <v>1.015764740570932</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02349817832584</v>
+        <v>0.9961313311145414</v>
       </c>
       <c r="D5">
-        <v>1.024989381707334</v>
+        <v>1.003455773029718</v>
       </c>
       <c r="E5">
-        <v>1.02406896551708</v>
+        <v>1.002563948439739</v>
       </c>
       <c r="F5">
-        <v>1.023158406189097</v>
+        <v>0.9774936904236519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029244448131391</v>
+        <v>1.044419199134826</v>
       </c>
       <c r="J5">
-        <v>1.027992088016269</v>
+        <v>1.015176458033854</v>
       </c>
       <c r="K5">
-        <v>1.02744912107265</v>
+        <v>1.013289109996898</v>
       </c>
       <c r="L5">
-        <v>1.026531036937478</v>
+        <v>1.012407700971779</v>
       </c>
       <c r="M5">
-        <v>1.025622789140283</v>
+        <v>0.9876399191857828</v>
       </c>
       <c r="N5">
-        <v>1.029451954693593</v>
+        <v>1.01661812504663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023545308695645</v>
+        <v>0.9963560436854796</v>
       </c>
       <c r="D6">
-        <v>1.025030175258717</v>
+        <v>1.003641025812098</v>
       </c>
       <c r="E6">
-        <v>1.024109059847767</v>
+        <v>1.002744947855083</v>
       </c>
       <c r="F6">
-        <v>1.023234750572201</v>
+        <v>0.9778384074409702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029251336131975</v>
+        <v>1.044475337587798</v>
       </c>
       <c r="J6">
-        <v>1.028022580453903</v>
+        <v>1.015318736163983</v>
       </c>
       <c r="K6">
-        <v>1.027481003260905</v>
+        <v>1.013434679828225</v>
       </c>
       <c r="L6">
-        <v>1.026562212713245</v>
+        <v>1.012549017314564</v>
       </c>
       <c r="M6">
-        <v>1.025690114336436</v>
+        <v>0.9879414801797689</v>
       </c>
       <c r="N6">
-        <v>1.029482490433985</v>
+        <v>1.016760605228022</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023221166907109</v>
+        <v>0.9948043123038297</v>
       </c>
       <c r="D7">
-        <v>1.024749636994233</v>
+        <v>1.002362160005146</v>
       </c>
       <c r="E7">
-        <v>1.023833340747959</v>
+        <v>1.001495556032085</v>
       </c>
       <c r="F7">
-        <v>1.022709717560907</v>
+        <v>0.9754571844508361</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029203769864184</v>
+        <v>1.04408608186731</v>
       </c>
       <c r="J7">
-        <v>1.027812799760506</v>
+        <v>1.014335724867504</v>
       </c>
       <c r="K7">
-        <v>1.027261690170713</v>
+        <v>1.012429167285003</v>
       </c>
       <c r="L7">
-        <v>1.026347767957482</v>
+        <v>1.011572969052295</v>
       </c>
       <c r="M7">
-        <v>1.025227062234613</v>
+        <v>0.9858580272728944</v>
       </c>
       <c r="N7">
-        <v>1.029272411827942</v>
+        <v>1.01577619794275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021864692035658</v>
+        <v>0.9881487418888268</v>
       </c>
       <c r="D8">
-        <v>1.023576179314074</v>
+        <v>0.996886861968489</v>
       </c>
       <c r="E8">
-        <v>1.022680305951224</v>
+        <v>0.9961493114692845</v>
       </c>
       <c r="F8">
-        <v>1.020513253472642</v>
+        <v>0.9652200125653935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028999892450378</v>
+        <v>1.042376595073782</v>
       </c>
       <c r="J8">
-        <v>1.026933231685321</v>
+        <v>1.010106399844295</v>
       </c>
       <c r="K8">
-        <v>1.026342871578539</v>
+        <v>1.008109168476044</v>
       </c>
       <c r="L8">
-        <v>1.025449570517039</v>
+        <v>1.007381696667355</v>
       </c>
       <c r="M8">
-        <v>1.023288760541173</v>
+        <v>0.9768926624169966</v>
       </c>
       <c r="N8">
-        <v>1.028391594665202</v>
+        <v>1.011540866792897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019468232199361</v>
+        <v>0.975717770861838</v>
       </c>
       <c r="D9">
-        <v>1.021505139290784</v>
+        <v>0.9867019661154067</v>
       </c>
       <c r="E9">
-        <v>1.020646314843734</v>
+        <v>0.9862160525618491</v>
       </c>
       <c r="F9">
-        <v>1.016635083205301</v>
+        <v>0.9459712633593899</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028621575927863</v>
+        <v>1.039034113517285</v>
       </c>
       <c r="J9">
-        <v>1.025373019356986</v>
+        <v>1.002158131149996</v>
       </c>
       <c r="K9">
-        <v>1.024715737681574</v>
+        <v>1.000014543305512</v>
       </c>
       <c r="L9">
-        <v>1.023859805470929</v>
+        <v>0.9995367948845517</v>
       </c>
       <c r="M9">
-        <v>1.019862153449528</v>
+        <v>0.960006283197214</v>
       </c>
       <c r="N9">
-        <v>1.026829166656403</v>
+        <v>1.003581310645373</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01786635002673</v>
+        <v>0.9668900181229185</v>
       </c>
       <c r="D10">
-        <v>1.020122213196972</v>
+        <v>0.9795009468746138</v>
       </c>
       <c r="E10">
-        <v>1.019288808521223</v>
+        <v>0.9792014011457255</v>
       </c>
       <c r="F10">
-        <v>1.01404396134186</v>
+        <v>0.9321741400496693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028356555664771</v>
+        <v>1.03656316619153</v>
       </c>
       <c r="J10">
-        <v>1.024325899479398</v>
+        <v>0.9964817948216949</v>
       </c>
       <c r="K10">
-        <v>1.023625517246087</v>
+        <v>0.9942504515899774</v>
       </c>
       <c r="L10">
-        <v>1.022795196371548</v>
+        <v>0.9939566167406991</v>
       </c>
       <c r="M10">
-        <v>1.017569885180381</v>
+        <v>0.9478864149759391</v>
       </c>
       <c r="N10">
-        <v>1.025780559748482</v>
+        <v>0.9978969132684008</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017171690162111</v>
+        <v>0.9629220662823423</v>
       </c>
       <c r="D11">
-        <v>1.019522850633648</v>
+        <v>0.9762725384765834</v>
       </c>
       <c r="E11">
-        <v>1.018700625476876</v>
+        <v>0.976058705878027</v>
       </c>
       <c r="F11">
-        <v>1.012920522416004</v>
+        <v>0.9259313738511277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028238760882324</v>
+        <v>1.035430388127351</v>
       </c>
       <c r="J11">
-        <v>1.023870817047414</v>
+        <v>0.9939230321451253</v>
       </c>
       <c r="K11">
-        <v>1.02315213215941</v>
+        <v>0.9916562348108998</v>
       </c>
       <c r="L11">
-        <v>1.022333068180679</v>
+        <v>0.991446698146095</v>
       </c>
       <c r="M11">
-        <v>1.016575348495206</v>
+        <v>0.9423997170251818</v>
       </c>
       <c r="N11">
-        <v>1.025324831047245</v>
+        <v>0.9953345168553367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016913505220619</v>
+        <v>0.9614246760555679</v>
       </c>
       <c r="D12">
-        <v>1.019300137541749</v>
+        <v>0.9750555595561322</v>
       </c>
       <c r="E12">
-        <v>1.018482091026367</v>
+        <v>0.9748743764663362</v>
       </c>
       <c r="F12">
-        <v>1.0125029974856</v>
+        <v>0.9235682771638483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028194549937481</v>
+        <v>1.034999672636345</v>
       </c>
       <c r="J12">
-        <v>1.023701526652524</v>
+        <v>0.9929563464408326</v>
       </c>
       <c r="K12">
-        <v>1.022976097570714</v>
+        <v>0.9906767842584131</v>
       </c>
       <c r="L12">
-        <v>1.022161240102123</v>
+        <v>0.9904993114977684</v>
       </c>
       <c r="M12">
-        <v>1.016205629207559</v>
+        <v>0.940322487190887</v>
       </c>
       <c r="N12">
-        <v>1.025155300240577</v>
+        <v>0.9943664583464633</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016968893918378</v>
+        <v>0.9617469641581434</v>
       </c>
       <c r="D13">
-        <v>1.019347914035834</v>
+        <v>0.9753174325832582</v>
       </c>
       <c r="E13">
-        <v>1.018528970005685</v>
+        <v>0.9751292083100138</v>
       </c>
       <c r="F13">
-        <v>1.012592568546764</v>
+        <v>0.924077240581522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028204054004515</v>
+        <v>1.035092521701968</v>
       </c>
       <c r="J13">
-        <v>1.023737851463767</v>
+        <v>0.9931644579297768</v>
       </c>
       <c r="K13">
-        <v>1.02301386657867</v>
+        <v>0.9908876151587744</v>
       </c>
       <c r="L13">
-        <v>1.022198105657418</v>
+        <v>0.9907032296692301</v>
       </c>
       <c r="M13">
-        <v>1.01628494914246</v>
+        <v>0.9407698938867445</v>
       </c>
       <c r="N13">
-        <v>1.025191676637218</v>
+        <v>0.9945748653775927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017150351735295</v>
+        <v>0.9627987815113915</v>
       </c>
       <c r="D14">
-        <v>1.019504442802398</v>
+        <v>0.9761723134157919</v>
       </c>
       <c r="E14">
-        <v>1.018682562520783</v>
+        <v>0.9759611627115561</v>
       </c>
       <c r="F14">
-        <v>1.012886014415482</v>
+        <v>0.9257369668112025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028235115709398</v>
+        <v>1.035394991205452</v>
       </c>
       <c r="J14">
-        <v>1.023856828609011</v>
+        <v>0.9938434638009662</v>
       </c>
       <c r="K14">
-        <v>1.023137585136958</v>
+        <v>0.9915756029309921</v>
       </c>
       <c r="L14">
-        <v>1.022318868355026</v>
+        <v>0.9913687010231242</v>
       </c>
       <c r="M14">
-        <v>1.016544793634385</v>
+        <v>0.9422288337593394</v>
       </c>
       <c r="N14">
-        <v>1.025310822743656</v>
+        <v>0.9952548355150022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017262132977724</v>
+        <v>0.9634436720209177</v>
       </c>
       <c r="D15">
-        <v>1.019600874291557</v>
+        <v>0.9766966353832434</v>
       </c>
       <c r="E15">
-        <v>1.018777188347295</v>
+        <v>0.9764714683919963</v>
       </c>
       <c r="F15">
-        <v>1.013066785380264</v>
+        <v>0.9267535888262436</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028254193328002</v>
+        <v>1.035580017786889</v>
       </c>
       <c r="J15">
-        <v>1.023930100856881</v>
+        <v>0.9942596340269125</v>
       </c>
       <c r="K15">
-        <v>1.02321378591497</v>
+        <v>0.9919973615069698</v>
       </c>
       <c r="L15">
-        <v>1.022393251271845</v>
+        <v>0.9917766877520878</v>
       </c>
       <c r="M15">
-        <v>1.016704851861683</v>
+        <v>0.9431224289549663</v>
       </c>
       <c r="N15">
-        <v>1.025384199046522</v>
+        <v>0.9956715967504048</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017912430357017</v>
+        <v>0.9671501553635611</v>
       </c>
       <c r="D16">
-        <v>1.020161979314212</v>
+        <v>0.9797127794244045</v>
       </c>
       <c r="E16">
-        <v>1.019327836338853</v>
+        <v>0.9794076556816481</v>
       </c>
       <c r="F16">
-        <v>1.014118488591654</v>
+        <v>0.932582471933217</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028364309274398</v>
+        <v>1.036636978673963</v>
       </c>
       <c r="J16">
-        <v>1.024356066457508</v>
+        <v>0.9966493957252966</v>
       </c>
       <c r="K16">
-        <v>1.023656906509335</v>
+        <v>0.9944204608855668</v>
       </c>
       <c r="L16">
-        <v>1.02282584207953</v>
+        <v>0.9941211339191689</v>
       </c>
       <c r="M16">
-        <v>1.01763584711323</v>
+        <v>0.9482452423975806</v>
       </c>
       <c r="N16">
-        <v>1.02581076956716</v>
+        <v>0.9980647521845101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018320066442804</v>
+        <v>0.9694350695143923</v>
       </c>
       <c r="D17">
-        <v>1.020513798637682</v>
+        <v>0.9815743638059879</v>
       </c>
       <c r="E17">
-        <v>1.019673142549138</v>
+        <v>0.9812204669958242</v>
       </c>
       <c r="F17">
-        <v>1.014777795086813</v>
+        <v>0.9361642787845601</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028432568334539</v>
+        <v>1.037282815002313</v>
       </c>
       <c r="J17">
-        <v>1.024622814760533</v>
+        <v>0.9981206900238014</v>
       </c>
       <c r="K17">
-        <v>1.023934512195959</v>
+        <v>0.9959133628383975</v>
       </c>
       <c r="L17">
-        <v>1.023096887498592</v>
+        <v>0.9955659814236303</v>
       </c>
       <c r="M17">
-        <v>1.018219302803868</v>
+        <v>0.9513924959257301</v>
       </c>
       <c r="N17">
-        <v>1.026077896683373</v>
+        <v>0.9995381358896788</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018557734012834</v>
+        <v>0.970753906110523</v>
       </c>
       <c r="D18">
-        <v>1.020718956247082</v>
+        <v>0.9826496400625284</v>
       </c>
       <c r="E18">
-        <v>1.019874517812693</v>
+        <v>0.9822677742888866</v>
       </c>
       <c r="F18">
-        <v>1.01516221659883</v>
+        <v>0.9382278675427964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028472089453626</v>
+        <v>1.037653494401853</v>
       </c>
       <c r="J18">
-        <v>1.02477824323471</v>
+        <v>0.9989692183924607</v>
       </c>
       <c r="K18">
-        <v>1.024096308341778</v>
+        <v>0.9967747384363215</v>
       </c>
       <c r="L18">
-        <v>1.023254873258976</v>
+        <v>0.9963997737548419</v>
       </c>
       <c r="M18">
-        <v>1.01855943317656</v>
+        <v>0.9532054517990729</v>
       </c>
       <c r="N18">
-        <v>1.026233545883811</v>
+        <v>1.000387869265949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018638755665812</v>
+        <v>0.9712012825766073</v>
       </c>
       <c r="D19">
-        <v>1.020788900790837</v>
+        <v>0.983014526477442</v>
       </c>
       <c r="E19">
-        <v>1.019943175492955</v>
+        <v>0.9826232036850709</v>
       </c>
       <c r="F19">
-        <v>1.015293270799914</v>
+        <v>0.9389272633224498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028485515398635</v>
+        <v>1.037778878970127</v>
       </c>
       <c r="J19">
-        <v>1.024831213005151</v>
+        <v>0.9992569385939857</v>
       </c>
       <c r="K19">
-        <v>1.024151455213306</v>
+        <v>0.9970668799556148</v>
       </c>
       <c r="L19">
-        <v>1.023308723616522</v>
+        <v>0.9966825842943723</v>
       </c>
       <c r="M19">
-        <v>1.018675376954946</v>
+        <v>0.9538198535474166</v>
       </c>
       <c r="N19">
-        <v>1.026286590877401</v>
+        <v>1.000675998063162</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018276341272244</v>
+        <v>0.9691913705855916</v>
       </c>
       <c r="D20">
-        <v>1.020476057208096</v>
+        <v>0.9813757335773303</v>
       </c>
       <c r="E20">
-        <v>1.019636098192455</v>
+        <v>0.9810270196542246</v>
       </c>
       <c r="F20">
-        <v>1.014707072374697</v>
+        <v>0.9357826613166639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028425275115223</v>
+        <v>1.037214149681923</v>
       </c>
       <c r="J20">
-        <v>1.024594211885503</v>
+        <v>0.9979638400017909</v>
       </c>
       <c r="K20">
-        <v>1.023904740831896</v>
+        <v>0.9957541691481725</v>
       </c>
       <c r="L20">
-        <v>1.023067818322271</v>
+        <v>0.9954118970291369</v>
       </c>
       <c r="M20">
-        <v>1.018156723188046</v>
+        <v>0.9510572049698197</v>
       </c>
       <c r="N20">
-        <v>1.026049253188979</v>
+        <v>0.9993810631226461</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017096921289978</v>
+        <v>0.9624897109283144</v>
       </c>
       <c r="D21">
-        <v>1.019458351285932</v>
+        <v>0.9759210743620907</v>
       </c>
       <c r="E21">
-        <v>1.018637334936388</v>
+        <v>0.9757166520049488</v>
       </c>
       <c r="F21">
-        <v>1.012799608337833</v>
+        <v>0.925249474495027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028225981420068</v>
+        <v>1.035306200561766</v>
       </c>
       <c r="J21">
-        <v>1.023821799785838</v>
+        <v>0.9936439713961682</v>
       </c>
       <c r="K21">
-        <v>1.023101158587955</v>
+        <v>0.9913734542224356</v>
       </c>
       <c r="L21">
-        <v>1.022283311536887</v>
+        <v>0.991173161641836</v>
       </c>
       <c r="M21">
-        <v>1.016468284368272</v>
+        <v>0.9418003243590802</v>
       </c>
       <c r="N21">
-        <v>1.025275744175536</v>
+        <v>0.995055059808107</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016354461844577</v>
+        <v>0.9581390927402557</v>
       </c>
       <c r="D22">
-        <v>1.018817997564172</v>
+        <v>0.9723877911572608</v>
       </c>
       <c r="E22">
-        <v>1.018009042125687</v>
+        <v>0.9722788219944736</v>
       </c>
       <c r="F22">
-        <v>1.011598976339489</v>
+        <v>0.9183684584325496</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028098035071606</v>
+        <v>1.034048726250238</v>
       </c>
       <c r="J22">
-        <v>1.023334692030949</v>
+        <v>0.9908332612377204</v>
       </c>
       <c r="K22">
-        <v>1.022594766725152</v>
+        <v>0.9885268408127835</v>
       </c>
       <c r="L22">
-        <v>1.021789059011813</v>
+        <v>0.988420196247878</v>
       </c>
       <c r="M22">
-        <v>1.015404932441854</v>
+        <v>0.935751205317264</v>
       </c>
       <c r="N22">
-        <v>1.024787944671762</v>
+        <v>0.9922403581188416</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016748140680841</v>
+        <v>0.9604590291907849</v>
       </c>
       <c r="D23">
-        <v>1.019157507198113</v>
+        <v>0.97427113046054</v>
       </c>
       <c r="E23">
-        <v>1.018342143691152</v>
+        <v>0.9741110898498356</v>
       </c>
       <c r="F23">
-        <v>1.012235583663137</v>
+        <v>0.9220421544745856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028166112368706</v>
+        <v>1.034721008373138</v>
       </c>
       <c r="J23">
-        <v>1.023593056027996</v>
+        <v>0.9923326406610204</v>
       </c>
       <c r="K23">
-        <v>1.022863323809365</v>
+        <v>0.9900450218488712</v>
       </c>
       <c r="L23">
-        <v>1.022051166944006</v>
+        <v>0.9898882987287371</v>
       </c>
       <c r="M23">
-        <v>1.015968805326168</v>
+        <v>0.9389809015018078</v>
       </c>
       <c r="N23">
-        <v>1.025046675575321</v>
+        <v>0.9937418668329039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01829609910266</v>
+        <v>0.9693015305210803</v>
       </c>
       <c r="D24">
-        <v>1.020493111098335</v>
+        <v>0.9814655185534561</v>
       </c>
       <c r="E24">
-        <v>1.019652837054043</v>
+        <v>0.9811144612292068</v>
       </c>
       <c r="F24">
-        <v>1.014739029358384</v>
+        <v>0.9359551767032969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028428571513214</v>
+        <v>1.037245195168931</v>
       </c>
       <c r="J24">
-        <v>1.024607136791946</v>
+        <v>0.9980347435242933</v>
       </c>
       <c r="K24">
-        <v>1.023918193620901</v>
+        <v>0.9958261309215779</v>
       </c>
       <c r="L24">
-        <v>1.023080953773099</v>
+        <v>0.9954815487570218</v>
       </c>
       <c r="M24">
-        <v>1.018185000807461</v>
+        <v>0.9512087786804512</v>
       </c>
       <c r="N24">
-        <v>1.026062196450272</v>
+        <v>0.9994520673362832</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020088515645946</v>
+        <v>0.9790213677241539</v>
       </c>
       <c r="D25">
-        <v>1.022040943110268</v>
+        <v>0.9894034892621284</v>
       </c>
       <c r="E25">
-        <v>1.021172414156683</v>
+        <v>0.9888494264007033</v>
       </c>
       <c r="F25">
-        <v>1.017638647706223</v>
+        <v>0.9511054043398881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028721637802818</v>
+        <v>1.039939351251722</v>
       </c>
       <c r="J25">
-        <v>1.025777597680652</v>
+        <v>1.004275976581201</v>
       </c>
       <c r="K25">
-        <v>1.025137350445669</v>
+        <v>1.002168560272144</v>
       </c>
       <c r="L25">
-        <v>1.024271634705388</v>
+        <v>1.001623342613215</v>
       </c>
       <c r="M25">
-        <v>1.020749368581536</v>
+        <v>0.9645133355136393</v>
       </c>
       <c r="N25">
-        <v>1.027234319527694</v>
+        <v>1.005702163660011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9863898917706708</v>
+        <v>1.006843726812009</v>
       </c>
       <c r="D2">
-        <v>0.9954425582138621</v>
+        <v>1.024437078546128</v>
       </c>
       <c r="E2">
-        <v>0.9947397984884502</v>
+        <v>1.012393113147933</v>
       </c>
       <c r="F2">
-        <v>0.9625074576881735</v>
+        <v>1.033090772815206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041914787556763</v>
+        <v>1.051846959817537</v>
       </c>
       <c r="J2">
-        <v>1.008985441542897</v>
+        <v>1.028821652370774</v>
       </c>
       <c r="K2">
-        <v>1.006965752725863</v>
+        <v>1.035566148547311</v>
       </c>
       <c r="L2">
-        <v>1.006272906004609</v>
+        <v>1.023682450588195</v>
       </c>
       <c r="M2">
-        <v>0.9745150723925797</v>
+        <v>1.044107574518643</v>
       </c>
       <c r="N2">
-        <v>1.010418316602136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013550187235711</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043480571086352</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036218597916495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9915399064181716</v>
+        <v>1.010328781166121</v>
       </c>
       <c r="D3">
-        <v>0.9996746591938619</v>
+        <v>1.02696290964539</v>
       </c>
       <c r="E3">
-        <v>0.9988708294079425</v>
+        <v>1.015106335298142</v>
       </c>
       <c r="F3">
-        <v>0.9704411837847153</v>
+        <v>1.03564969527235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04325541905623</v>
+        <v>1.052576087176443</v>
       </c>
       <c r="J3">
-        <v>1.012263889527483</v>
+        <v>1.030541779431077</v>
       </c>
       <c r="K3">
-        <v>1.010311704509552</v>
+        <v>1.037262037900273</v>
       </c>
       <c r="L3">
-        <v>1.009518178600279</v>
+        <v>1.025549508639874</v>
       </c>
       <c r="M3">
-        <v>0.9814667876373515</v>
+        <v>1.045845879657241</v>
       </c>
       <c r="N3">
-        <v>1.013701420358903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014124278690285</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044856316098882</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037415073942863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947862631749612</v>
+        <v>1.012544933572227</v>
       </c>
       <c r="D4">
-        <v>1.002347289951847</v>
+        <v>1.028575512444036</v>
       </c>
       <c r="E4">
-        <v>1.001481030214162</v>
+        <v>1.016837314232548</v>
       </c>
       <c r="F4">
-        <v>0.9754294756257013</v>
+        <v>1.037283337231027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044081532448849</v>
+        <v>1.053024779648738</v>
       </c>
       <c r="J4">
-        <v>1.014324283743395</v>
+        <v>1.031633092754591</v>
       </c>
       <c r="K4">
-        <v>1.012417467567448</v>
+        <v>1.038340867883908</v>
       </c>
       <c r="L4">
-        <v>1.011561613311689</v>
+        <v>1.026736687669994</v>
       </c>
       <c r="M4">
-        <v>0.9858337787830171</v>
+        <v>1.046951682558128</v>
       </c>
       <c r="N4">
-        <v>1.015764740570932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014488565693667</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045731479183045</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038178801880969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9961313311145414</v>
+        <v>1.013470698625759</v>
       </c>
       <c r="D5">
-        <v>1.003455773029718</v>
+        <v>1.029253096236331</v>
       </c>
       <c r="E5">
-        <v>1.002563948439739</v>
+        <v>1.017562084083025</v>
       </c>
       <c r="F5">
-        <v>0.9774936904236519</v>
+        <v>1.03796821963837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044419199134826</v>
+        <v>1.053209355162343</v>
       </c>
       <c r="J5">
-        <v>1.015176458033854</v>
+        <v>1.032089871210913</v>
       </c>
       <c r="K5">
-        <v>1.013289109996898</v>
+        <v>1.038794749742324</v>
       </c>
       <c r="L5">
-        <v>1.012407700971779</v>
+        <v>1.027233667084338</v>
       </c>
       <c r="M5">
-        <v>0.9876399191857828</v>
+        <v>1.047415350714105</v>
       </c>
       <c r="N5">
-        <v>1.01661812504663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014641310464341</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046098438710665</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038506921193734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963560436854796</v>
+        <v>1.013629464657827</v>
       </c>
       <c r="D6">
-        <v>1.003641025812098</v>
+        <v>1.029372331546994</v>
       </c>
       <c r="E6">
-        <v>1.002744947855083</v>
+        <v>1.017686884373654</v>
       </c>
       <c r="F6">
-        <v>0.9778384074409702</v>
+        <v>1.038086906068589</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044475337587798</v>
+        <v>1.053241756845654</v>
       </c>
       <c r="J6">
-        <v>1.015318736163983</v>
+        <v>1.032170029672766</v>
       </c>
       <c r="K6">
-        <v>1.013434679828225</v>
+        <v>1.038876404920137</v>
       </c>
       <c r="L6">
-        <v>1.012549017314564</v>
+        <v>1.027320230993646</v>
       </c>
       <c r="M6">
-        <v>0.9879414801797689</v>
+        <v>1.047496893431592</v>
       </c>
       <c r="N6">
-        <v>1.016760605228022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014668425862432</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046162973805268</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038573420170453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9948043123038297</v>
+        <v>1.012567714420966</v>
       </c>
       <c r="D7">
-        <v>1.002362160005146</v>
+        <v>1.028600059759945</v>
       </c>
       <c r="E7">
-        <v>1.001495556032085</v>
+        <v>1.016856297203295</v>
       </c>
       <c r="F7">
-        <v>0.9754571844508361</v>
+        <v>1.037303246108225</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04408608186731</v>
+        <v>1.053031924510474</v>
       </c>
       <c r="J7">
-        <v>1.014335724867504</v>
+        <v>1.031649335015231</v>
       </c>
       <c r="K7">
-        <v>1.012429167285003</v>
+        <v>1.038362249049888</v>
       </c>
       <c r="L7">
-        <v>1.011572969052295</v>
+        <v>1.026752516192691</v>
       </c>
       <c r="M7">
-        <v>0.9858580272728944</v>
+        <v>1.046968514399439</v>
       </c>
       <c r="N7">
-        <v>1.01577619794275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014494838586799</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04574480036101</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038214074270057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9881487418888268</v>
+        <v>1.008042775515334</v>
       </c>
       <c r="D8">
-        <v>0.996886861968489</v>
+        <v>1.025314535786649</v>
       </c>
       <c r="E8">
-        <v>0.9961493114692845</v>
+        <v>1.013326925746394</v>
       </c>
       <c r="F8">
-        <v>0.9652200125653935</v>
+        <v>1.033973659658995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042376595073782</v>
+        <v>1.052104025258901</v>
       </c>
       <c r="J8">
-        <v>1.010106399844295</v>
+        <v>1.029420218828088</v>
       </c>
       <c r="K8">
-        <v>1.008109168476044</v>
+        <v>1.036162185067235</v>
       </c>
       <c r="L8">
-        <v>1.007381696667355</v>
+        <v>1.024329351326998</v>
       </c>
       <c r="M8">
-        <v>0.9768926624169966</v>
+        <v>1.044712290464948</v>
       </c>
       <c r="N8">
-        <v>1.011540866792897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013751040530519</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043959161087404</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036663020092369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.975717770861838</v>
+        <v>0.9997428351104509</v>
       </c>
       <c r="D9">
-        <v>0.9867019661154067</v>
+        <v>1.019327550957305</v>
       </c>
       <c r="E9">
-        <v>0.9862160525618491</v>
+        <v>1.006897175427298</v>
       </c>
       <c r="F9">
-        <v>0.9459712633593899</v>
+        <v>1.027913802427128</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039034113517285</v>
+        <v>1.050281901808911</v>
       </c>
       <c r="J9">
-        <v>1.002158131149996</v>
+        <v>1.025304677802189</v>
       </c>
       <c r="K9">
-        <v>1.000014543305512</v>
+        <v>1.032114646182091</v>
       </c>
       <c r="L9">
-        <v>0.9995367948845517</v>
+        <v>1.019879333204006</v>
       </c>
       <c r="M9">
-        <v>0.960006283197214</v>
+        <v>1.040569668550765</v>
       </c>
       <c r="N9">
-        <v>1.003581310645373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012376900008947</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040680561840094</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033797934757078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9668900181229185</v>
+        <v>0.9940306879495356</v>
       </c>
       <c r="D10">
-        <v>0.9795009468746138</v>
+        <v>1.015271027418009</v>
       </c>
       <c r="E10">
-        <v>0.9792014011457255</v>
+        <v>1.002510938373453</v>
       </c>
       <c r="F10">
-        <v>0.9321741400496693</v>
+        <v>1.023856536304404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03656316619153</v>
+        <v>1.048967636094832</v>
       </c>
       <c r="J10">
-        <v>0.9964817948216949</v>
+        <v>1.022483159659884</v>
       </c>
       <c r="K10">
-        <v>0.9942504515899774</v>
+        <v>1.029369926268007</v>
       </c>
       <c r="L10">
-        <v>0.9939566167406991</v>
+        <v>1.016835004565728</v>
       </c>
       <c r="M10">
-        <v>0.9478864149759391</v>
+        <v>1.037808011175618</v>
       </c>
       <c r="N10">
-        <v>0.9978969132684008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011439471000944</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038546326556439</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031874113596472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9629220662823423</v>
+        <v>0.9918517035800729</v>
       </c>
       <c r="D11">
-        <v>0.9762725384765834</v>
+        <v>1.01393268854198</v>
       </c>
       <c r="E11">
-        <v>0.976058705878027</v>
+        <v>1.000890886916884</v>
       </c>
       <c r="F11">
-        <v>0.9259313738511277</v>
+        <v>1.022914239797681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035430388127351</v>
+        <v>1.048559340721084</v>
       </c>
       <c r="J11">
-        <v>0.9939230321451253</v>
+        <v>1.021567434423291</v>
       </c>
       <c r="K11">
-        <v>0.9916562348108998</v>
+        <v>1.028596552513218</v>
       </c>
       <c r="L11">
-        <v>0.991446698146095</v>
+        <v>1.015796021949323</v>
       </c>
       <c r="M11">
-        <v>0.9423997170251818</v>
+        <v>1.037416589135246</v>
       </c>
       <c r="N11">
-        <v>0.9953345168553367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011169248346903</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038672670506335</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031360302264795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9614246760555679</v>
+        <v>0.9911455995074735</v>
       </c>
       <c r="D12">
-        <v>0.9750555595561322</v>
+        <v>1.013571518044059</v>
       </c>
       <c r="E12">
-        <v>0.9748743764663362</v>
+        <v>1.000384543154894</v>
       </c>
       <c r="F12">
-        <v>0.9235682771638483</v>
+        <v>1.02285069208387</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034999672636345</v>
+        <v>1.048465046939992</v>
       </c>
       <c r="J12">
-        <v>0.9929563464408326</v>
+        <v>1.021329478973954</v>
       </c>
       <c r="K12">
-        <v>0.9906767842584131</v>
+        <v>1.028443247596963</v>
       </c>
       <c r="L12">
-        <v>0.9904993114977684</v>
+        <v>1.015504379631255</v>
       </c>
       <c r="M12">
-        <v>0.940322487190887</v>
+        <v>1.03755282346093</v>
       </c>
       <c r="N12">
-        <v>0.9943664583464633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011116302223257</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039106708468191</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031251909738554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9617469641581434</v>
+        <v>0.9915422547342049</v>
       </c>
       <c r="D13">
-        <v>0.9753174325832582</v>
+        <v>1.013960537998773</v>
       </c>
       <c r="E13">
-        <v>0.9751292083100138</v>
+        <v>1.000713639163713</v>
       </c>
       <c r="F13">
-        <v>0.924077240581522</v>
+        <v>1.02348613435393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035092521701968</v>
+        <v>1.048619990835132</v>
       </c>
       <c r="J13">
-        <v>0.9931644579297768</v>
+        <v>1.021614977544231</v>
       </c>
       <c r="K13">
-        <v>0.9908876151587744</v>
+        <v>1.028781923190373</v>
       </c>
       <c r="L13">
-        <v>0.9907032296692301</v>
+        <v>1.015783191728728</v>
       </c>
       <c r="M13">
-        <v>0.9407698938867445</v>
+        <v>1.038134226154858</v>
       </c>
       <c r="N13">
-        <v>0.9945748653775927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011234138217879</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039842963660465</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031488861956261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9627987815113915</v>
+        <v>0.9923203809871002</v>
       </c>
       <c r="D14">
-        <v>0.9761723134157919</v>
+        <v>1.014574024287083</v>
       </c>
       <c r="E14">
-        <v>0.9759611627115561</v>
+        <v>1.001323180661563</v>
       </c>
       <c r="F14">
-        <v>0.9257369668112025</v>
+        <v>1.02424768500963</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035394991205452</v>
+        <v>1.048841162422344</v>
       </c>
       <c r="J14">
-        <v>0.9938434638009662</v>
+        <v>1.022052284293095</v>
       </c>
       <c r="K14">
-        <v>0.9915756029309921</v>
+        <v>1.029242847369453</v>
       </c>
       <c r="L14">
-        <v>0.9913687010231242</v>
+        <v>1.016237122964527</v>
       </c>
       <c r="M14">
-        <v>0.9422288337593394</v>
+        <v>1.038742757414858</v>
       </c>
       <c r="N14">
-        <v>0.9952548355150022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011394123668618</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040497228548855</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03181618474312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9634436720209177</v>
+        <v>0.9927554566771157</v>
       </c>
       <c r="D15">
-        <v>0.9766966353832434</v>
+        <v>1.014897059313301</v>
       </c>
       <c r="E15">
-        <v>0.9764714683919963</v>
+        <v>1.001658997315702</v>
       </c>
       <c r="F15">
-        <v>0.9267535888262436</v>
+        <v>1.024601645867187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035580017786889</v>
+        <v>1.0489528478296</v>
       </c>
       <c r="J15">
-        <v>0.9942596340269125</v>
+        <v>1.022279819934945</v>
       </c>
       <c r="K15">
-        <v>0.9919973615069698</v>
+        <v>1.029473004471881</v>
       </c>
       <c r="L15">
-        <v>0.9917766877520878</v>
+        <v>1.016477941018189</v>
       </c>
       <c r="M15">
-        <v>0.9431224289549663</v>
+        <v>1.039004623839448</v>
       </c>
       <c r="N15">
-        <v>0.9956715967504048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011473037706742</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040741723580462</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031984812590372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9671501553635611</v>
+        <v>0.9951017733116714</v>
       </c>
       <c r="D16">
-        <v>0.9797127794244045</v>
+        <v>1.016549372515544</v>
       </c>
       <c r="E16">
-        <v>0.9794076556816481</v>
+        <v>1.003450593993654</v>
       </c>
       <c r="F16">
-        <v>0.932582471933217</v>
+        <v>1.02623317917395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036636978673963</v>
+        <v>1.049502651196287</v>
       </c>
       <c r="J16">
-        <v>0.9966493957252966</v>
+        <v>1.023433675545726</v>
       </c>
       <c r="K16">
-        <v>0.9944204608855668</v>
+        <v>1.030590296726117</v>
       </c>
       <c r="L16">
-        <v>0.9941211339191689</v>
+        <v>1.017721329678539</v>
       </c>
       <c r="M16">
-        <v>0.9482452423975806</v>
+        <v>1.040109070441837</v>
       </c>
       <c r="N16">
-        <v>0.9980647521845101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011852464322189</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041575982371329</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032777964263124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9694350695143923</v>
+        <v>0.9964960211265349</v>
       </c>
       <c r="D17">
-        <v>0.9815743638059879</v>
+        <v>1.017497535025474</v>
       </c>
       <c r="E17">
-        <v>0.9812204669958242</v>
+        <v>1.004508757933146</v>
       </c>
       <c r="F17">
-        <v>0.9361642787845601</v>
+        <v>1.027081961673493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037282815002313</v>
+        <v>1.049804889985314</v>
       </c>
       <c r="J17">
-        <v>0.9981206900238014</v>
+        <v>1.024089521220836</v>
       </c>
       <c r="K17">
-        <v>0.9959133628383975</v>
+        <v>1.031205570327808</v>
       </c>
       <c r="L17">
-        <v>0.9955659814236303</v>
+        <v>1.018438191449376</v>
       </c>
       <c r="M17">
-        <v>0.9513924959257301</v>
+        <v>1.040631243071258</v>
       </c>
       <c r="N17">
-        <v>0.9995381358896788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012059599194387</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041859771777217</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033215587034778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.970753906110523</v>
+        <v>0.9971899543090328</v>
       </c>
       <c r="D18">
-        <v>0.9826496400625284</v>
+        <v>1.017899725986096</v>
       </c>
       <c r="E18">
-        <v>0.9822677742888866</v>
+        <v>1.005020256490579</v>
       </c>
       <c r="F18">
-        <v>0.9382278675427964</v>
+        <v>1.027287184594358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037653494401853</v>
+        <v>1.049915864262099</v>
       </c>
       <c r="J18">
-        <v>0.9989692183924607</v>
+        <v>1.024359543743118</v>
       </c>
       <c r="K18">
-        <v>0.9967747384363215</v>
+        <v>1.031416477869936</v>
       </c>
       <c r="L18">
-        <v>0.9963997737548419</v>
+        <v>1.018752892803636</v>
       </c>
       <c r="M18">
-        <v>0.9532054517990729</v>
+        <v>1.04065096153462</v>
       </c>
       <c r="N18">
-        <v>1.000387869265949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012130110695056</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041637849179835</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033353023088377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9712012825766073</v>
+        <v>0.9972542304468274</v>
       </c>
       <c r="D19">
-        <v>0.983014526477442</v>
+        <v>1.017817359041423</v>
       </c>
       <c r="E19">
-        <v>0.9826232036850709</v>
+        <v>1.005040215119857</v>
       </c>
       <c r="F19">
-        <v>0.9389272633224498</v>
+        <v>1.026910347838659</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037778878970127</v>
+        <v>1.049857738832303</v>
       </c>
       <c r="J19">
-        <v>0.9992569385939857</v>
+        <v>1.024286136012745</v>
       </c>
       <c r="K19">
-        <v>0.9970668799556148</v>
+        <v>1.031272535764338</v>
       </c>
       <c r="L19">
-        <v>0.9966825842943723</v>
+        <v>1.018708431701826</v>
       </c>
       <c r="M19">
-        <v>0.9538198535474166</v>
+        <v>1.040218053883788</v>
       </c>
       <c r="N19">
-        <v>1.000675998063162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012081208062705</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040970301118521</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033257671612345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9691913705855916</v>
+        <v>0.9955383233225539</v>
       </c>
       <c r="D20">
-        <v>0.9813757335773303</v>
+        <v>1.016359980734427</v>
       </c>
       <c r="E20">
-        <v>0.9810270196542246</v>
+        <v>1.003669814947652</v>
       </c>
       <c r="F20">
-        <v>0.9357826613166639</v>
+        <v>1.024936597643436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037214149681923</v>
+        <v>1.049326326474496</v>
       </c>
       <c r="J20">
-        <v>0.9979638400017909</v>
+        <v>1.023242325185552</v>
       </c>
       <c r="K20">
-        <v>0.9957541691481725</v>
+        <v>1.030121132833831</v>
       </c>
       <c r="L20">
-        <v>0.9954118970291369</v>
+        <v>1.017648440568746</v>
       </c>
       <c r="M20">
-        <v>0.9510572049698197</v>
+        <v>1.038554695148985</v>
       </c>
       <c r="N20">
-        <v>0.9993810631226461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011694299771095</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039126699948726</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032447518349378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9624897109283144</v>
+        <v>0.991182684249625</v>
       </c>
       <c r="D21">
-        <v>0.9759210743620907</v>
+        <v>1.013237555013613</v>
       </c>
       <c r="E21">
-        <v>0.9757166520049488</v>
+        <v>1.000328106355321</v>
       </c>
       <c r="F21">
-        <v>0.925249474495027</v>
+        <v>1.021738702803396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035306200561766</v>
+        <v>1.048276725882952</v>
       </c>
       <c r="J21">
-        <v>0.9936439713961682</v>
+        <v>1.02105373615619</v>
       </c>
       <c r="K21">
-        <v>0.9913734542224356</v>
+        <v>1.027972404061794</v>
       </c>
       <c r="L21">
-        <v>0.991173161641836</v>
+        <v>1.015303265326579</v>
       </c>
       <c r="M21">
-        <v>0.9418003243590802</v>
+        <v>1.036319609800601</v>
       </c>
       <c r="N21">
-        <v>0.995055059808107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010960764244916</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037316918264544</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030931519293162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581390927402557</v>
+        <v>0.9884018877839528</v>
       </c>
       <c r="D22">
-        <v>0.9723877911572608</v>
+        <v>1.011256994921881</v>
       </c>
       <c r="E22">
-        <v>0.9722788219944736</v>
+        <v>0.9982035824487008</v>
       </c>
       <c r="F22">
-        <v>0.9183684584325496</v>
+        <v>1.019740342330932</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034048726250238</v>
+        <v>1.047596499168585</v>
       </c>
       <c r="J22">
-        <v>0.9908332612377204</v>
+        <v>1.019659711135517</v>
       </c>
       <c r="K22">
-        <v>0.9885268408127835</v>
+        <v>1.026608699080767</v>
       </c>
       <c r="L22">
-        <v>0.988420196247878</v>
+        <v>1.013810710919524</v>
       </c>
       <c r="M22">
-        <v>0.935751205317264</v>
+        <v>1.034930626725033</v>
       </c>
       <c r="N22">
-        <v>0.9922403581188416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010494567314376</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036217625556829</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029953734958116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9604590291907849</v>
+        <v>0.9898711270948867</v>
       </c>
       <c r="D23">
-        <v>0.97427113046054</v>
+        <v>1.012295536183224</v>
       </c>
       <c r="E23">
-        <v>0.9741110898498356</v>
+        <v>0.9993240411552829</v>
       </c>
       <c r="F23">
-        <v>0.9220421544745856</v>
+        <v>1.020792459522387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034721008373138</v>
+        <v>1.047955287171417</v>
       </c>
       <c r="J23">
-        <v>0.9923326406610204</v>
+        <v>1.020391826827166</v>
       </c>
       <c r="K23">
-        <v>0.9900450218488712</v>
+        <v>1.027320025219408</v>
       </c>
       <c r="L23">
-        <v>0.9898882987287371</v>
+        <v>1.014595778539702</v>
       </c>
       <c r="M23">
-        <v>0.9389809015018078</v>
+        <v>1.035659425489841</v>
       </c>
       <c r="N23">
-        <v>0.9937418668329039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010738492574633</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03679442413414</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03044698988095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9693015305210803</v>
+        <v>0.9955603793917983</v>
       </c>
       <c r="D24">
-        <v>0.9814655185534561</v>
+        <v>1.016345256303689</v>
       </c>
       <c r="E24">
-        <v>0.9811144612292068</v>
+        <v>1.003680471405434</v>
       </c>
       <c r="F24">
-        <v>0.9359551767032969</v>
+        <v>1.024888898085007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037245195168931</v>
+        <v>1.049317597246103</v>
       </c>
       <c r="J24">
-        <v>0.9980347435242933</v>
+        <v>1.023230406485559</v>
       </c>
       <c r="K24">
-        <v>0.9958261309215779</v>
+        <v>1.030091284960609</v>
       </c>
       <c r="L24">
-        <v>0.9954815487570218</v>
+        <v>1.017643260657244</v>
       </c>
       <c r="M24">
-        <v>0.9512087786804512</v>
+        <v>1.038492593624622</v>
       </c>
       <c r="N24">
-        <v>0.9994520673362832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011685902960671</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039036694834518</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032398882714923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9790213677241539</v>
+        <v>1.001943825698969</v>
       </c>
       <c r="D25">
-        <v>0.9894034892621284</v>
+        <v>1.02092119298331</v>
       </c>
       <c r="E25">
-        <v>0.9888494264007033</v>
+        <v>1.008598657672763</v>
       </c>
       <c r="F25">
-        <v>0.9511054043398881</v>
+        <v>1.029519266485705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039939351251722</v>
+        <v>1.0507821306116</v>
       </c>
       <c r="J25">
-        <v>1.004275976581201</v>
+        <v>1.026405948971846</v>
       </c>
       <c r="K25">
-        <v>1.002168560272144</v>
+        <v>1.033203188980824</v>
       </c>
       <c r="L25">
-        <v>1.001623342613215</v>
+        <v>1.021064941074719</v>
       </c>
       <c r="M25">
-        <v>0.9645133355136393</v>
+        <v>1.041675986666686</v>
       </c>
       <c r="N25">
-        <v>1.005702163660011</v>
+        <v>1.012745988436957</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041556137702226</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034596301019975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006843726812009</v>
+        <v>1.006686849096519</v>
       </c>
       <c r="D2">
-        <v>1.024437078546128</v>
+        <v>1.023824696416316</v>
       </c>
       <c r="E2">
-        <v>1.012393113147933</v>
+        <v>1.012264766671376</v>
       </c>
       <c r="F2">
-        <v>1.033090772815206</v>
+        <v>1.032730646647291</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051846959817537</v>
+        <v>1.051766442582466</v>
       </c>
       <c r="J2">
-        <v>1.028821652370774</v>
+        <v>1.028669380698492</v>
       </c>
       <c r="K2">
-        <v>1.035566148547311</v>
+        <v>1.034961801245294</v>
       </c>
       <c r="L2">
-        <v>1.023682450588195</v>
+        <v>1.02355583782378</v>
       </c>
       <c r="M2">
-        <v>1.044107574518643</v>
+        <v>1.0437520735134</v>
       </c>
       <c r="N2">
-        <v>1.013550187235711</v>
+        <v>1.014839473354095</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043480571086352</v>
+        <v>1.043199216979158</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036218597916495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035800071197809</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021343544284471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010328781166121</v>
+        <v>1.010032177782329</v>
       </c>
       <c r="D3">
-        <v>1.02696290964539</v>
+        <v>1.026145808208875</v>
       </c>
       <c r="E3">
-        <v>1.015106335298142</v>
+        <v>1.014855958831066</v>
       </c>
       <c r="F3">
-        <v>1.03564969527235</v>
+        <v>1.035149231500484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052576087176443</v>
+        <v>1.052433529420797</v>
       </c>
       <c r="J3">
-        <v>1.030541779431077</v>
+        <v>1.030253042077514</v>
       </c>
       <c r="K3">
-        <v>1.037262037900273</v>
+        <v>1.036454730882274</v>
       </c>
       <c r="L3">
-        <v>1.025549508639874</v>
+        <v>1.025302219142467</v>
       </c>
       <c r="M3">
-        <v>1.045845879657241</v>
+        <v>1.045351288640201</v>
       </c>
       <c r="N3">
-        <v>1.014124278690285</v>
+        <v>1.01525868141119</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044856316098882</v>
+        <v>1.044464882712668</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037415073942863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036852758204831</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021646382507747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012544933572227</v>
+        <v>1.012160321909588</v>
       </c>
       <c r="D4">
-        <v>1.028575512444036</v>
+        <v>1.027628715869604</v>
       </c>
       <c r="E4">
-        <v>1.016837314232548</v>
+        <v>1.01650996377252</v>
       </c>
       <c r="F4">
-        <v>1.037283337231027</v>
+        <v>1.036694163900999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053024779648738</v>
+        <v>1.052842969694969</v>
       </c>
       <c r="J4">
-        <v>1.031633092754591</v>
+        <v>1.031257998774108</v>
       </c>
       <c r="K4">
-        <v>1.038340867883908</v>
+        <v>1.037404741241808</v>
       </c>
       <c r="L4">
-        <v>1.026736687669994</v>
+        <v>1.026413129468006</v>
       </c>
       <c r="M4">
-        <v>1.046951682558128</v>
+        <v>1.046369009766014</v>
       </c>
       <c r="N4">
-        <v>1.014488565693667</v>
+        <v>1.015524783363206</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045731479183045</v>
+        <v>1.04527033590564</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038178801880969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037525480541887</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021836861915494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013470698625759</v>
+        <v>1.013049449863759</v>
       </c>
       <c r="D5">
-        <v>1.029253096236331</v>
+        <v>1.028252216607937</v>
       </c>
       <c r="E5">
-        <v>1.017562084083025</v>
+        <v>1.017202659532702</v>
       </c>
       <c r="F5">
-        <v>1.03796821963837</v>
+        <v>1.037342086082472</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053209355162343</v>
+        <v>1.053011166972969</v>
       </c>
       <c r="J5">
-        <v>1.032089871210913</v>
+        <v>1.031678738715018</v>
       </c>
       <c r="K5">
-        <v>1.038794749742324</v>
+        <v>1.037804851431386</v>
       </c>
       <c r="L5">
-        <v>1.027233667084338</v>
+        <v>1.026878295336831</v>
       </c>
       <c r="M5">
-        <v>1.047415350714105</v>
+        <v>1.046795943171851</v>
       </c>
       <c r="N5">
-        <v>1.014641310464341</v>
+        <v>1.015636402391247</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046098438710665</v>
+        <v>1.045608222776614</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038506921193734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037816290014414</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021917062085686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013629464657827</v>
+        <v>1.013201864397936</v>
       </c>
       <c r="D6">
-        <v>1.029372331546994</v>
+        <v>1.028362162599277</v>
       </c>
       <c r="E6">
-        <v>1.017686884373654</v>
+        <v>1.017321889605626</v>
       </c>
       <c r="F6">
-        <v>1.038086906068589</v>
+        <v>1.037454409766338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053241756845654</v>
+        <v>1.053040730049291</v>
       </c>
       <c r="J6">
-        <v>1.032170029672766</v>
+        <v>1.031752645972136</v>
       </c>
       <c r="K6">
-        <v>1.038876404920137</v>
+        <v>1.037877268767361</v>
       </c>
       <c r="L6">
-        <v>1.027320230993646</v>
+        <v>1.026959332962825</v>
       </c>
       <c r="M6">
-        <v>1.047496893431592</v>
+        <v>1.046871160643901</v>
       </c>
       <c r="N6">
-        <v>1.014668425862432</v>
+        <v>1.01565624362004</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046162973805268</v>
+        <v>1.045667751942162</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038573420170453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037877126746245</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021932174955826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012567714420966</v>
+        <v>1.012188305734535</v>
       </c>
       <c r="D7">
-        <v>1.028600059759945</v>
+        <v>1.027656626539127</v>
       </c>
       <c r="E7">
-        <v>1.016856297203295</v>
+        <v>1.01653357346914</v>
       </c>
       <c r="F7">
-        <v>1.037303246108225</v>
+        <v>1.036716887460723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053031924510474</v>
+        <v>1.052852254282921</v>
       </c>
       <c r="J7">
-        <v>1.031649335015231</v>
+        <v>1.031279311197568</v>
       </c>
       <c r="K7">
-        <v>1.038362249049888</v>
+        <v>1.037429443643114</v>
       </c>
       <c r="L7">
-        <v>1.026752516192691</v>
+        <v>1.026433529672751</v>
       </c>
       <c r="M7">
-        <v>1.046968514399439</v>
+        <v>1.046388622754664</v>
       </c>
       <c r="N7">
-        <v>1.014494838586799</v>
+        <v>1.015556857115124</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04574480036101</v>
+        <v>1.045285858169137</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038214074270057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037565102188868</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021844089162035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008042775515334</v>
+        <v>1.007856688661667</v>
       </c>
       <c r="D8">
-        <v>1.025314535786649</v>
+        <v>1.024646067940436</v>
       </c>
       <c r="E8">
-        <v>1.013326925746394</v>
+        <v>1.013173407713295</v>
       </c>
       <c r="F8">
-        <v>1.033973659658995</v>
+        <v>1.03357666508709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052104025258901</v>
+        <v>1.052010020852883</v>
       </c>
       <c r="J8">
-        <v>1.029420218828088</v>
+        <v>1.02923941416089</v>
       </c>
       <c r="K8">
-        <v>1.036162185067235</v>
+        <v>1.03550222893171</v>
       </c>
       <c r="L8">
-        <v>1.024329351326998</v>
+        <v>1.024177845182156</v>
       </c>
       <c r="M8">
-        <v>1.044712290464948</v>
+        <v>1.044320244267834</v>
       </c>
       <c r="N8">
-        <v>1.013751040530519</v>
+        <v>1.015069546148939</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043959161087404</v>
+        <v>1.043648884222057</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036663020092369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036207440741624</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021457521647861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9997428351104509</v>
+        <v>0.9998978004382757</v>
       </c>
       <c r="D9">
-        <v>1.019327550957305</v>
+        <v>1.019151794987571</v>
       </c>
       <c r="E9">
-        <v>1.006897175427298</v>
+        <v>1.007040804904047</v>
       </c>
       <c r="F9">
-        <v>1.027913802427128</v>
+        <v>1.027856060334879</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050281901808911</v>
+        <v>1.050338087849694</v>
       </c>
       <c r="J9">
-        <v>1.025304677802189</v>
+        <v>1.02545416815166</v>
       </c>
       <c r="K9">
-        <v>1.032114646182091</v>
+        <v>1.031941605892822</v>
       </c>
       <c r="L9">
-        <v>1.019879333204006</v>
+        <v>1.020020673548117</v>
       </c>
       <c r="M9">
-        <v>1.040569668550765</v>
+        <v>1.04051279963891</v>
       </c>
       <c r="N9">
-        <v>1.012376900008947</v>
+        <v>1.014076754557071</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040680561840094</v>
+        <v>1.040635553919178</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033797934757078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033686366470563</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020721190757453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9940306879495356</v>
+        <v>0.9944494105747291</v>
       </c>
       <c r="D10">
-        <v>1.015271027418009</v>
+        <v>1.015453486165608</v>
       </c>
       <c r="E10">
-        <v>1.002510938373453</v>
+        <v>1.002883723612197</v>
       </c>
       <c r="F10">
-        <v>1.023856536304404</v>
+        <v>1.024048662829508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048967636094832</v>
+        <v>1.04913798216379</v>
       </c>
       <c r="J10">
-        <v>1.022483159659884</v>
+        <v>1.022884995032871</v>
       </c>
       <c r="K10">
-        <v>1.029369926268007</v>
+        <v>1.029549218417058</v>
       </c>
       <c r="L10">
-        <v>1.016835004565728</v>
+        <v>1.01720110601034</v>
       </c>
       <c r="M10">
-        <v>1.037808011175618</v>
+        <v>1.037996875151738</v>
       </c>
       <c r="N10">
-        <v>1.011439471000944</v>
+        <v>1.013516462890807</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038546326556439</v>
+        <v>1.038695790806603</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031874113596472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032013351952806</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020223703265875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9918517035800729</v>
+        <v>0.9923812374856532</v>
       </c>
       <c r="D11">
-        <v>1.01393268854198</v>
+        <v>1.01424559346899</v>
       </c>
       <c r="E11">
-        <v>1.000890886916884</v>
+        <v>1.001358193121654</v>
       </c>
       <c r="F11">
-        <v>1.022914239797681</v>
+        <v>1.023198454578693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048559340721084</v>
+        <v>1.048775968992953</v>
       </c>
       <c r="J11">
-        <v>1.021567434423291</v>
+        <v>1.022074436915496</v>
       </c>
       <c r="K11">
-        <v>1.028596552513218</v>
+        <v>1.028903767919533</v>
       </c>
       <c r="L11">
-        <v>1.015796021949323</v>
+        <v>1.016254541282907</v>
       </c>
       <c r="M11">
-        <v>1.037416589135246</v>
+        <v>1.037695752961479</v>
       </c>
       <c r="N11">
-        <v>1.011169248346903</v>
+        <v>1.013553054261355</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038672670506335</v>
+        <v>1.038893485737485</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031360302264795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031593202658329</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020136461866543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9911455995074735</v>
+        <v>0.9917018361573372</v>
       </c>
       <c r="D12">
-        <v>1.013571518044059</v>
+        <v>1.013913994657119</v>
       </c>
       <c r="E12">
-        <v>1.000384543154894</v>
+        <v>1.000873219656488</v>
       </c>
       <c r="F12">
-        <v>1.02285069208387</v>
+        <v>1.023155124948371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048465046939992</v>
+        <v>1.048692357469167</v>
       </c>
       <c r="J12">
-        <v>1.021329478973954</v>
+        <v>1.021861589074937</v>
       </c>
       <c r="K12">
-        <v>1.028443247596963</v>
+        <v>1.028779392745268</v>
       </c>
       <c r="L12">
-        <v>1.015504379631255</v>
+        <v>1.015983709255916</v>
       </c>
       <c r="M12">
-        <v>1.03755282346093</v>
+        <v>1.037851759870982</v>
       </c>
       <c r="N12">
-        <v>1.011116302223257</v>
+        <v>1.01361516390839</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039106708468191</v>
+        <v>1.039343083608334</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031251909738554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031505266491908</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020143261010747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9915422547342049</v>
+        <v>0.9920530021488441</v>
       </c>
       <c r="D13">
-        <v>1.013960537998773</v>
+        <v>1.014249631245014</v>
       </c>
       <c r="E13">
-        <v>1.000713639163713</v>
+        <v>1.001160938245764</v>
       </c>
       <c r="F13">
-        <v>1.02348613435393</v>
+        <v>1.023751203132881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048619990835132</v>
+        <v>1.048827594249672</v>
       </c>
       <c r="J13">
-        <v>1.021614977544231</v>
+        <v>1.022103676465881</v>
       </c>
       <c r="K13">
-        <v>1.028781923190373</v>
+        <v>1.029065694735238</v>
       </c>
       <c r="L13">
-        <v>1.015783191728728</v>
+        <v>1.016221970979723</v>
       </c>
       <c r="M13">
-        <v>1.038134226154858</v>
+        <v>1.038394532618073</v>
       </c>
       <c r="N13">
-        <v>1.011234138217879</v>
+        <v>1.013671167848335</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039842963660465</v>
+        <v>1.040048741626309</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031488861956261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031704941916474</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020229424862563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9923203809871002</v>
+        <v>0.9927673959003385</v>
       </c>
       <c r="D14">
-        <v>1.014574024287083</v>
+        <v>1.014788922564277</v>
       </c>
       <c r="E14">
-        <v>1.001323180661563</v>
+        <v>1.00171395672256</v>
       </c>
       <c r="F14">
-        <v>1.02424768500963</v>
+        <v>1.024458825654075</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048841162422344</v>
+        <v>1.049021530235164</v>
       </c>
       <c r="J14">
-        <v>1.022052284293095</v>
+        <v>1.022480275070713</v>
       </c>
       <c r="K14">
-        <v>1.029242847369453</v>
+        <v>1.029453839004507</v>
       </c>
       <c r="L14">
-        <v>1.016237122964527</v>
+        <v>1.016620549086162</v>
       </c>
       <c r="M14">
-        <v>1.038742757414858</v>
+        <v>1.038950153190396</v>
       </c>
       <c r="N14">
-        <v>1.011394123668618</v>
+        <v>1.013709052773348</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040497228548855</v>
+        <v>1.040661157338437</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03181618474312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031980939027742</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020326259925284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9927554566771157</v>
+        <v>0.9931713223653612</v>
       </c>
       <c r="D15">
-        <v>1.014897059313301</v>
+        <v>1.01507554116434</v>
       </c>
       <c r="E15">
-        <v>1.001658997315702</v>
+        <v>1.002022478626813</v>
       </c>
       <c r="F15">
-        <v>1.024601645867187</v>
+        <v>1.024786542971192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0489528478296</v>
+        <v>1.049119964435986</v>
       </c>
       <c r="J15">
-        <v>1.022279819934945</v>
+        <v>1.02267814078036</v>
       </c>
       <c r="K15">
-        <v>1.029473004471881</v>
+        <v>1.029648266390374</v>
       </c>
       <c r="L15">
-        <v>1.016477941018189</v>
+        <v>1.016834638375972</v>
       </c>
       <c r="M15">
-        <v>1.039004623839448</v>
+        <v>1.039186266701122</v>
       </c>
       <c r="N15">
-        <v>1.011473037706742</v>
+        <v>1.013721862088795</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040741723580462</v>
+        <v>1.040885293096334</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031984812590372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032124872370602</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020370406055724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9951017733116714</v>
+        <v>0.9953739244975857</v>
       </c>
       <c r="D16">
-        <v>1.016549372515544</v>
+        <v>1.016555649194033</v>
       </c>
       <c r="E16">
-        <v>1.003450593993654</v>
+        <v>1.003689587242824</v>
       </c>
       <c r="F16">
-        <v>1.02623317917395</v>
+        <v>1.026295547792484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049502651196287</v>
+        <v>1.049608693292018</v>
       </c>
       <c r="J16">
-        <v>1.023433675545726</v>
+        <v>1.023694917034467</v>
       </c>
       <c r="K16">
-        <v>1.030590296726117</v>
+        <v>1.030596465119487</v>
       </c>
       <c r="L16">
-        <v>1.017721329678539</v>
+        <v>1.017956060167812</v>
       </c>
       <c r="M16">
-        <v>1.040109070441837</v>
+        <v>1.040170389182269</v>
       </c>
       <c r="N16">
-        <v>1.011852464322189</v>
+        <v>1.013781723409137</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041575982371329</v>
+        <v>1.041624449745287</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032777964263124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032798763749016</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020563725663592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9964960211265349</v>
+        <v>0.9966978442142566</v>
       </c>
       <c r="D17">
-        <v>1.017497535025474</v>
+        <v>1.017415327935448</v>
       </c>
       <c r="E17">
-        <v>1.004508757933146</v>
+        <v>1.004687369666526</v>
       </c>
       <c r="F17">
-        <v>1.027081961673493</v>
+        <v>1.027082372887478</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049804889985314</v>
+        <v>1.049880966017869</v>
       </c>
       <c r="J17">
-        <v>1.024089521220836</v>
+        <v>1.024283513516875</v>
       </c>
       <c r="K17">
-        <v>1.031205570327808</v>
+        <v>1.031124741571136</v>
       </c>
       <c r="L17">
-        <v>1.018438191449376</v>
+        <v>1.018613708456958</v>
       </c>
       <c r="M17">
-        <v>1.040631243071258</v>
+        <v>1.040631647555714</v>
       </c>
       <c r="N17">
-        <v>1.012059599194387</v>
+        <v>1.013836072114414</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041859771777217</v>
+        <v>1.041860091520413</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033215587034778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033175121425137</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020661874943328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9971899543090328</v>
+        <v>0.9973713469425861</v>
       </c>
       <c r="D18">
-        <v>1.017899725986096</v>
+        <v>1.01778906580686</v>
       </c>
       <c r="E18">
-        <v>1.005020256490579</v>
+        <v>1.005182264614565</v>
       </c>
       <c r="F18">
-        <v>1.027287184594358</v>
+        <v>1.027268678748002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049915864262099</v>
+        <v>1.049983389310925</v>
       </c>
       <c r="J18">
-        <v>1.024359543743118</v>
+        <v>1.024534030771931</v>
       </c>
       <c r="K18">
-        <v>1.031416477869936</v>
+        <v>1.031307642624106</v>
       </c>
       <c r="L18">
-        <v>1.018752892803636</v>
+        <v>1.01891214099553</v>
       </c>
       <c r="M18">
-        <v>1.04065096153462</v>
+        <v>1.040632753724305</v>
       </c>
       <c r="N18">
-        <v>1.012130110695056</v>
+        <v>1.013848476264731</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041637849179835</v>
+        <v>1.041623452988829</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033353023088377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033291620206033</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020677114579656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9972542304468274</v>
+        <v>0.9974551095252752</v>
       </c>
       <c r="D19">
-        <v>1.017817359041423</v>
+        <v>1.017728980780015</v>
       </c>
       <c r="E19">
-        <v>1.005040215119857</v>
+        <v>1.005220625432149</v>
       </c>
       <c r="F19">
-        <v>1.026910347838659</v>
+        <v>1.026908834159627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049857738832303</v>
+        <v>1.049933991512702</v>
       </c>
       <c r="J19">
-        <v>1.024286136012745</v>
+        <v>1.024479413987283</v>
       </c>
       <c r="K19">
-        <v>1.031272535764338</v>
+        <v>1.031185607453857</v>
       </c>
       <c r="L19">
-        <v>1.018708431701826</v>
+        <v>1.018885785293217</v>
       </c>
       <c r="M19">
-        <v>1.040218053883788</v>
+        <v>1.040216564474961</v>
       </c>
       <c r="N19">
-        <v>1.012081208062705</v>
+        <v>1.01380618432619</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040970301118521</v>
+        <v>1.040969123117937</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033257671612345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033212382585423</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020621137373246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9955383233225539</v>
+        <v>0.9958687323623588</v>
       </c>
       <c r="D20">
-        <v>1.016359980734427</v>
+        <v>1.016433980079886</v>
       </c>
       <c r="E20">
-        <v>1.003669814947652</v>
+        <v>1.003965426039164</v>
       </c>
       <c r="F20">
-        <v>1.024936597643436</v>
+        <v>1.025051507172414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049326326474496</v>
+        <v>1.049458931664404</v>
       </c>
       <c r="J20">
-        <v>1.023242325185552</v>
+        <v>1.023559841615472</v>
       </c>
       <c r="K20">
-        <v>1.030121132833831</v>
+        <v>1.030193884581737</v>
       </c>
       <c r="L20">
-        <v>1.017648440568746</v>
+        <v>1.017938904756565</v>
       </c>
       <c r="M20">
-        <v>1.038554695148985</v>
+        <v>1.038667708942762</v>
       </c>
       <c r="N20">
-        <v>1.011694299771095</v>
+        <v>1.013598118994614</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039126699948726</v>
+        <v>1.039216138525414</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032447518349378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032515523001913</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020361451316936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.991182684249625</v>
+        <v>0.9918061315920412</v>
       </c>
       <c r="D21">
-        <v>1.013237555013613</v>
+        <v>1.01365614364684</v>
       </c>
       <c r="E21">
-        <v>1.000328106355321</v>
+        <v>1.000880422953711</v>
       </c>
       <c r="F21">
-        <v>1.021738702803396</v>
+        <v>1.022101180582505</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048276725882952</v>
+        <v>1.048533839149872</v>
       </c>
       <c r="J21">
-        <v>1.02105373615619</v>
+        <v>1.021650475182965</v>
       </c>
       <c r="K21">
-        <v>1.027972404061794</v>
+        <v>1.028383334039191</v>
       </c>
       <c r="L21">
-        <v>1.015303265326579</v>
+        <v>1.015845134628333</v>
       </c>
       <c r="M21">
-        <v>1.036319609800601</v>
+        <v>1.036675597619988</v>
       </c>
       <c r="N21">
-        <v>1.010960764244916</v>
+        <v>1.013506757475766</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037316918264544</v>
+        <v>1.037598659951045</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030931519293162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031238964640204</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019980073350292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9884018877839528</v>
+        <v>0.9892099022931743</v>
       </c>
       <c r="D22">
-        <v>1.011256994921881</v>
+        <v>1.0118926047432</v>
       </c>
       <c r="E22">
-        <v>0.9982035824487008</v>
+        <v>0.9989173893254025</v>
       </c>
       <c r="F22">
-        <v>1.019740342330932</v>
+        <v>1.020258753242915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047596499168585</v>
+        <v>1.047931593721316</v>
       </c>
       <c r="J22">
-        <v>1.019659711135517</v>
+        <v>1.020431099180134</v>
       </c>
       <c r="K22">
-        <v>1.026608699080767</v>
+        <v>1.027232091809675</v>
       </c>
       <c r="L22">
-        <v>1.013810710919524</v>
+        <v>1.014510323495583</v>
       </c>
       <c r="M22">
-        <v>1.034930626725033</v>
+        <v>1.035439287066113</v>
       </c>
       <c r="N22">
-        <v>1.010494567314376</v>
+        <v>1.013440307992918</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036217625556829</v>
+        <v>1.036620198408502</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029953734958116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030410107758148</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019736619457529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898711270948867</v>
+        <v>0.9905719857615211</v>
       </c>
       <c r="D23">
-        <v>1.012295536183224</v>
+        <v>1.012809170357171</v>
       </c>
       <c r="E23">
-        <v>0.9993240411552829</v>
+        <v>0.9999439388978397</v>
       </c>
       <c r="F23">
-        <v>1.020792459522387</v>
+        <v>1.021222681531351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047955287171417</v>
+        <v>1.048245283412317</v>
       </c>
       <c r="J23">
-        <v>1.020391826827166</v>
+        <v>1.021061845914245</v>
       </c>
       <c r="K23">
-        <v>1.027320025219408</v>
+        <v>1.027824039229205</v>
       </c>
       <c r="L23">
-        <v>1.014595778539702</v>
+        <v>1.015203669203594</v>
       </c>
       <c r="M23">
-        <v>1.035659425489841</v>
+        <v>1.036081762475653</v>
       </c>
       <c r="N23">
-        <v>1.010738492574633</v>
+        <v>1.013431364252111</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03679442413414</v>
+        <v>1.03712867719305</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03044698988095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030818012506798</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019859451605905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955603793917983</v>
+        <v>0.9958929012484143</v>
       </c>
       <c r="D24">
-        <v>1.016345256303689</v>
+        <v>1.01642146953868</v>
       </c>
       <c r="E24">
-        <v>1.003680471405434</v>
+        <v>1.003978168604386</v>
       </c>
       <c r="F24">
-        <v>1.024888898085007</v>
+        <v>1.025005584132231</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049317597246103</v>
+        <v>1.049451165150887</v>
       </c>
       <c r="J24">
-        <v>1.023230406485559</v>
+        <v>1.023549972385695</v>
       </c>
       <c r="K24">
-        <v>1.030091284960609</v>
+        <v>1.030166214877351</v>
       </c>
       <c r="L24">
-        <v>1.017643260657244</v>
+        <v>1.017935781463392</v>
       </c>
       <c r="M24">
-        <v>1.038492593624622</v>
+        <v>1.038607356866546</v>
       </c>
       <c r="N24">
-        <v>1.011685902960671</v>
+        <v>1.013588513993315</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039036694834518</v>
+        <v>1.039127522424978</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032398882714923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032465756900657</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020349027906383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001943825698969</v>
+        <v>1.001999288141311</v>
       </c>
       <c r="D25">
-        <v>1.02092119298331</v>
+        <v>1.020608254668317</v>
       </c>
       <c r="E25">
-        <v>1.008598657672763</v>
+        <v>1.008655524892214</v>
       </c>
       <c r="F25">
-        <v>1.029519266485705</v>
+        <v>1.02936612875081</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.0507821306116</v>
+        <v>1.050794907960769</v>
       </c>
       <c r="J25">
-        <v>1.026405948971846</v>
+        <v>1.026459555090169</v>
       </c>
       <c r="K25">
-        <v>1.033203188980824</v>
+        <v>1.032894860805397</v>
       </c>
       <c r="L25">
-        <v>1.021064941074719</v>
+        <v>1.0211209446472</v>
       </c>
       <c r="M25">
-        <v>1.041675986666686</v>
+        <v>1.041525056988894</v>
       </c>
       <c r="N25">
-        <v>1.012745988436957</v>
+        <v>1.014311136276294</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041556137702226</v>
+        <v>1.04143668714662</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034596301019975</v>
+        <v>1.034391876503395</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02092226931876</v>
       </c>
     </row>
   </sheetData>
